--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
+    <sheet name="笛卡尔坐标系" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -89,16 +90,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -113,8 +114,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9286875" y="3171825"/>
-          <a:ext cx="2981325" cy="9526"/>
+          <a:off x="7439025" y="3181350"/>
+          <a:ext cx="5934075" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -145,16 +146,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -169,8 +170,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9286875" y="361950"/>
-          <a:ext cx="9525" cy="2819401"/>
+          <a:off x="10401300" y="352426"/>
+          <a:ext cx="9525" cy="5648324"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -201,16 +202,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -225,8 +226,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7067550" y="3181350"/>
-          <a:ext cx="2219325" cy="2114550"/>
+          <a:off x="8181976" y="1066800"/>
+          <a:ext cx="4448174" cy="4238625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -254,16 +255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>133700</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>171800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>57454</xdr:rowOff>
+      <xdr:rowOff>95554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -292,7 +293,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9296400" y="3533775"/>
+          <a:off x="10820400" y="3571875"/>
           <a:ext cx="867125" cy="752779"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -304,12 +305,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="301108" cy="400366"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="文本框 20">
@@ -323,8 +324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001125" y="19050"/>
-          <a:ext cx="301108" cy="400366"/>
+          <a:off x="10182225" y="0"/>
+          <a:ext cx="437749" cy="400366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -359,7 +360,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>Y</a:t>
+            <a:t>+Y</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -375,12 +376,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="310406" cy="400366"/>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="文本框 21">
@@ -394,8 +395,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12258675" y="3152775"/>
-          <a:ext cx="310406" cy="400366"/>
+          <a:off x="13315950" y="2971800"/>
+          <a:ext cx="447045" cy="400366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -430,7 +431,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>X</a:t>
+            <a:t>+X</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -446,12 +447,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="301429" cy="400366"/>
+    <xdr:ext cx="438069" cy="400366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="文本框 22">
@@ -465,8 +466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734175" y="5276850"/>
-          <a:ext cx="301429" cy="400366"/>
+          <a:off x="7743825" y="5276850"/>
+          <a:ext cx="438069" cy="400366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -501,7 +502,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>Z</a:t>
+            <a:t>+Z</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -517,16 +518,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -541,8 +542,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2228850" y="352425"/>
-          <a:ext cx="9525" cy="2819401"/>
+          <a:off x="3352800" y="371476"/>
+          <a:ext cx="0" cy="5638799"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -573,13 +574,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
@@ -596,9 +597,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2219325" y="3171825"/>
-          <a:ext cx="2981325" cy="9526"/>
+        <a:xfrm>
+          <a:off x="381000" y="3181350"/>
+          <a:ext cx="5934075" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -629,16 +630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -653,8 +654,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2238376" y="1085850"/>
-          <a:ext cx="2228849" cy="2085976"/>
+          <a:off x="1123950" y="1076325"/>
+          <a:ext cx="4448175" cy="4200525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -682,12 +683,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="310406" cy="400366"/>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="文本框 30">
@@ -701,8 +702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5200650" y="3171825"/>
-          <a:ext cx="310406" cy="400366"/>
+          <a:off x="6296025" y="2962275"/>
+          <a:ext cx="447045" cy="400366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,7 +738,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>X</a:t>
+            <a:t>+X</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -753,12 +754,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="301429" cy="400366"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438069" cy="400366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="文本框 31">
@@ -772,8 +773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457700" y="704850"/>
-          <a:ext cx="301429" cy="400366"/>
+          <a:off x="5543550" y="685800"/>
+          <a:ext cx="438069" cy="400366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,7 +809,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>Z</a:t>
+            <a:t>+Z</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -824,12 +825,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="301108" cy="400366"/>
+    <xdr:ext cx="437749" cy="400366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="文本框 32">
@@ -843,8 +844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1914525" y="0"/>
-          <a:ext cx="301108" cy="400366"/>
+          <a:off x="3124200" y="0"/>
+          <a:ext cx="437749" cy="400366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -879,7 +880,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>Y</a:t>
+            <a:t>+Y</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -895,16 +896,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>143225</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>86029</xdr:rowOff>
+      <xdr:rowOff>76504</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -933,7 +934,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2247900" y="3562350"/>
+          <a:off x="3762375" y="3552825"/>
           <a:ext cx="867125" cy="752779"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -945,10 +946,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331566" cy="400366"/>
     <xdr:sp macro="" textlink="">
@@ -964,7 +965,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9267825" y="3162300"/>
+          <a:off x="10429875" y="3152775"/>
           <a:ext cx="331566" cy="400366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1016,10 +1017,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="331566" cy="400366"/>
     <xdr:sp macro="" textlink="">
@@ -1035,7 +1036,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1857375" y="3171825"/>
+          <a:off x="3381375" y="3162300"/>
           <a:ext cx="331566" cy="400366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1085,6 +1086,1825 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文本框 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBED0D07-9083-4FF6-A508-E9B85EA64F1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="5981700"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="文本框 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0520F645-081A-4CCB-832A-D56D9DE7CF8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2962275"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379784" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文本框 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEF91B7-CC9E-432B-899E-FAE610DDEC29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="5267325"/>
+          <a:ext cx="379784" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="文本框 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F642830C-E359-4FDE-82B5-8347084106F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="2962275"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="文本框 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083EDE3E-A44C-4F1C-9ED6-7828BC3F7F38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="5991225"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379784" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="文本框 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11997049-3430-447C-A427-D701505A0237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="704850"/>
+          <a:ext cx="379784" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1433035D-9085-43A8-87B6-E9393AA12776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="2819400"/>
+          <a:ext cx="5210175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD3D3FC-C9AE-4A4D-83B7-F1AFB75993B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="361950"/>
+          <a:ext cx="0" cy="4933950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA244BF-E5ED-4E0F-AF46-659C6050D561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="2609850"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019740F8-8499-4653-B2D4-F26A2D110D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2619375"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="文本框 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB9ED94-DB9E-44AD-B945-57A055D6AF56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="5248275"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D20946-2E58-42DA-B098-352F57CD8058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="0"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="718530" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4291F1AE-BE17-46C4-9FB5-50DF1D1CE2BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="2419350"/>
+          <a:ext cx="718530" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>x-axis</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>337180</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400366" cy="716606"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C9878D-49ED-42B4-8E63-F33B2DDEA998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2819400" y="3667125"/>
+          <a:ext cx="716606" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>y-axis</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1200521" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A7FA15-837D-43EA-81F2-4DCF7190EEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="1762125"/>
+          <a:ext cx="1200521" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Origin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> (0, 0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7002C572-EC51-4BE8-B269-E87DE7A784FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3095625" y="2095500"/>
+          <a:ext cx="638175" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="文本框 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF82BDBF-7DC2-4586-B628-608B05C1C760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="0"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA989C5-35B5-4436-ABB6-038FF3268BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="361950"/>
+          <a:ext cx="0" cy="4933950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C04B99-A745-4AF4-9640-E94F55E0975C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="2828925"/>
+          <a:ext cx="5210175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文本框 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB6AFFD-1F8C-40F6-8329-8D6107C39AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="5257800"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC760D57-BEDB-47CF-9A12-FE5E238A7E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7067550" y="704850"/>
+          <a:ext cx="4448175" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文本框 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A572C6-0E07-4B1D-A60C-3EC4F4F91EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11849100" y="2619375"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="文本框 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB96BB6-2CAA-4A55-B8B6-C6071DAE7B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="2628900"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379784" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="文本框 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CC002D-00BF-437D-9585-639804C00FFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11515725" y="352425"/>
+          <a:ext cx="379784" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438069" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文本框 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7CD48E-CF49-46A6-A086-1498F59C196E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="4933950"/>
+          <a:ext cx="438069" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1200521" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="文本框 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99225E5-5420-4AF5-BB67-530A982882DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="3371850"/>
+          <a:ext cx="1200521" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Origin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> (0, 0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3B7CAD-DB8E-4934-9743-80162ABEEC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9401176" y="2943225"/>
+          <a:ext cx="581024" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1388,7 +3208,24 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+      <selection activeCell="AS13" sqref="AS13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -2905,6 +2905,1193 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FB9BB5-6FE0-4BF2-8882-62C188AAFF0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13011150" y="1409701"/>
+          <a:ext cx="4448175" cy="9524"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACDA880-4605-45C0-9FB6-590ED97E277E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13011150" y="1409700"/>
+          <a:ext cx="0" cy="3876675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07D341D-0846-4D69-8FC2-4397ACE4D2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17478375" y="1209675"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C032F4F3-2C5B-4F7A-A9AF-D05EB6658439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12792075" y="5286375"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="718530" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41517C3D-9CD3-4F8A-92A8-669287ED8702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14878050" y="1409700"/>
+          <a:ext cx="718530" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>x-axis</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>348620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60955</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400366" cy="716606"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2682AE15-2AAC-4567-B026-AB94868F5C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="12820650" y="3038475"/>
+          <a:ext cx="716606" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>y-axis</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89015EBD-FFFC-4E6A-90AC-11965EBCDCD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="6000750"/>
+          <a:ext cx="0" cy="4933950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EA4EB4-8981-445E-8C69-211B0AAD9406}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="9505950"/>
+          <a:ext cx="5210175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F55C69-DE15-4F2C-9A86-9168F494350F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="7400925"/>
+          <a:ext cx="2228850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA441123-AD63-4C55-B52E-6037CFE17C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4457700" y="7400925"/>
+          <a:ext cx="0" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>328614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="左大括号 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B7204B-FD80-4788-BA0F-33607F1007DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3221831" y="6141245"/>
+          <a:ext cx="247650" cy="2224087"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 92948"/>
+            <a:gd name="adj2" fmla="val 49804"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="文本框 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8E2CBD-E557-4999-B3A5-5A83071CA76B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="6753225"/>
+          <a:ext cx="275653" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="右大括号 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D720DE-D320-4C91-9772-9C2C63DEB229}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495799" y="7410450"/>
+          <a:ext cx="257175" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 63888"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="279692" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文本框 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A359A2-D9CC-4B6C-8465-F7112C10316C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="8220075"/>
+          <a:ext cx="279692" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="586956" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="文本框 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079ABE3A-882C-4461-8DD4-2F35F0A06848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="7038975"/>
+          <a:ext cx="586956" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(x, y)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF14C7F-5675-4C7D-9706-B3B90C732CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="5629275"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="文本框 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0590D5-6F9C-4357-90C3-5BD99FD4200F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="10925175"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="文本框 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8C6E4D-F2AB-465D-A0C2-729AF7ECF614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="9315450"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="文本框 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB214E1-6A01-448C-BB3A-8B54FB157D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="9315450"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3207,7 +4394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
@@ -3224,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -4084,6 +4084,1402 @@
             <a:solidFill>
               <a:srgbClr val="00B050"/>
             </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接箭头连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2EC831-6AB0-4207-90A9-47939AA017EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="6000750"/>
+          <a:ext cx="0" cy="4933950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接箭头连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4971640D-D985-4E5F-BF3B-23E3FB921271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7800975" y="6353175"/>
+          <a:ext cx="4448175" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03324E65-D9D4-4EF9-BD97-6F0252BB39AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="8458200"/>
+          <a:ext cx="5210175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="文本框 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4A0F47-DE0A-4551-BE42-84F7CEB9342A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="5629275"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="文本框 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30112A56-9CF7-456F-9592-0910322BB220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="10944225"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="文本框 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD89E84-8049-4228-83C9-6A61C56F862A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12620625" y="8267700"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="文本框 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB8B9D8-1DFA-450B-977E-731345633A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="8258175"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438069" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="文本框 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2F10EC-8E2E-4EBF-850D-BB0D486327A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="10572750"/>
+          <a:ext cx="438069" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA9F81B-E3DE-4B02-947E-942451A7A73D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8580439" y="7334250"/>
+          <a:ext cx="1500186" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208D7F61-D770-4365-A282-C7D222D4F9D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8588375" y="8731250"/>
+          <a:ext cx="1588" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CF7A1B-8DDB-40DF-9CF5-F64059062B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="9867900"/>
+          <a:ext cx="1847850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DD57FF-1DDA-4F89-8013-132ABEF83ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10445750" y="8731250"/>
+          <a:ext cx="0" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直接连接符 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05704266-E673-497C-A70C-6D76E1742299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543925" y="8810625"/>
+          <a:ext cx="1866900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接连接符 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE82D591-F4D8-4D3A-A675-A7E4ABE0CCFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10437813" y="7334250"/>
+          <a:ext cx="1508125" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7938</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FE9D4B-6AC1-4A5D-AD56-6B03A127E299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10080625" y="7334250"/>
+          <a:ext cx="1865313" cy="7938"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接连接符 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DA0906-BA31-491E-87C8-32FC7F1C8D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11938000" y="7342188"/>
+          <a:ext cx="0" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>341313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接连接符 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F7221A-9639-40D8-BED5-A201ACD2AA8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10445750" y="8389938"/>
+          <a:ext cx="1492250" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="右大括号 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC2454E-9956-4AC4-98DE-A77893B51240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11961813" y="7350125"/>
+          <a:ext cx="198438" cy="1031875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42283"/>
+            <a:gd name="adj2" fmla="val 49242"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="279692" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="文本框 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E196EC-2B2B-40C7-8017-C28439F414C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12176126" y="7620000"/>
+          <a:ext cx="279692" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>365124</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>334963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="左大括号 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8710495-6B31-4F67-B755-CFB34181BD22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10885488" y="6275388"/>
+          <a:ext cx="247650" cy="1841499"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 51280"/>
+            <a:gd name="adj2" fmla="val 49804"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>55562</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="275653" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="文本框 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAA7812-7BFC-4596-BAA5-45D80EA1A5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10874375" y="6699250"/>
+          <a:ext cx="275653" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228701</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>20129</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>267866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="右大括号 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D22668-E86D-4528-B4DC-56D3615B713C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2804835">
+          <a:off x="11183000" y="7152423"/>
+          <a:ext cx="266582" cy="2029803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28289"/>
+            <a:gd name="adj2" fmla="val 49331"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="272960" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="文本框 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1EDF5A-87F9-4C73-A456-6F9142A74A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11406188" y="8128000"/>
+          <a:ext cx="272960" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
@@ -4411,8 +5807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
     <sheet name="笛卡尔坐标系" sheetId="2" r:id="rId2"/>
+    <sheet name="相机坐标系" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -5393,8 +5394,8 @@
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 28289"/>
-            <a:gd name="adj2" fmla="val 49331"/>
+            <a:gd name="adj1" fmla="val 143470"/>
+            <a:gd name="adj2" fmla="val 50253"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -5488,6 +5489,1113 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>369278</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>350227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419EDA6A-B5EC-41EB-B131-15E7805AB7F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863970" y="2460381"/>
+          <a:ext cx="4488472" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>344369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653FF320-DA4C-4C53-BCF3-96774F03B101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="381000" y="4234962"/>
+          <a:ext cx="1113698" cy="329715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201A4CCB-5C2F-4869-88DE-290F33283062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1128347" y="3516923"/>
+          <a:ext cx="366350" cy="1055080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2931</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>350228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1571FE-74B0-4AAB-AB0D-52C5392DB55D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1494692" y="351692"/>
+          <a:ext cx="2931" cy="4218844"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DB2353-D93A-4422-8FAE-776EBCB36CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1496891" y="361217"/>
+          <a:ext cx="4481878" cy="693860"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDB890B-28D3-481B-8E49-64ACC013E4AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1494693" y="351692"/>
+          <a:ext cx="373672" cy="2117481"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12FC96D-AEE8-411E-BC73-7F4F0ADA4622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5986097" y="1064602"/>
+          <a:ext cx="366345" cy="2100629"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2932</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2932</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>338503</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FBE519-264F-48B6-B929-5C498A14CE73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1497624" y="2467707"/>
+          <a:ext cx="373673" cy="2091104"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>364881</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>350228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9059D1-E2DF-41D8-B24B-8021EDE546A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1485900" y="3172558"/>
+          <a:ext cx="4866542" cy="1397978"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34018</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="383567" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="文本框 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A705EC2-7505-4A2C-B953-57A7E5CD6D46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="782411" y="3258911"/>
+          <a:ext cx="383567" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34017</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390813" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="文本框 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07AC967-2E79-4BB7-B444-49275AEEF51A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34017" y="4068536"/>
+          <a:ext cx="390813" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="618824" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="文本框 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956F6C07-9D10-431F-8A26-43B52DA3547F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="578304" y="4884964"/>
+          <a:ext cx="618824" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Origin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(0, 0, 0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>346982</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接连接符 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09744DE-7EAF-497B-86A8-3147ADB9519C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1081768" y="4633232"/>
+          <a:ext cx="340178" cy="312964"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>55562</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158411</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="图片 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED2BDA1-96F9-4BEA-B5FA-4444B35166A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1928812" y="1920876"/>
+          <a:ext cx="2725399" cy="1746036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2931</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E74A1E-2353-45D9-82B4-B22FEA818395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1497623" y="3516923"/>
+          <a:ext cx="759069" cy="1046286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438069" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="文本框 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1DA371-9C50-4F1B-94C3-99954AFDAE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1870982" y="3224892"/>
+          <a:ext cx="438069" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>733</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19491B81-F4A0-4849-9514-2D0DF0BE5A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1495425" y="1062404"/>
+          <a:ext cx="4483344" cy="3515458"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>150812</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接连接符 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79E8C4F-1880-4B14-BB04-ECB860897C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="2444750"/>
+          <a:ext cx="904875" cy="134938"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接连接符 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5730386C-03A7-416E-B47C-11890D1C46E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4184650" y="2851150"/>
+          <a:ext cx="2178050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5807,8 +6915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AM29" sqref="AM29"/>
+    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AK27" sqref="AK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5818,4 +6926,21 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
     <sheet name="笛卡尔坐标系" sheetId="2" r:id="rId2"/>
     <sheet name="相机坐标系" sheetId="3" r:id="rId3"/>
+    <sheet name="向量" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -66,9 +67,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5481,6 +5486,77 @@
             <a:t>z</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379784" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="文本框 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB9B607-4E56-43B5-9D35-17ECB3938DC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12311063" y="5937250"/>
+          <a:ext cx="379784" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
@@ -6596,6 +6672,2245 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B89CE8A-7361-4598-80EB-A95C895CF91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="742950" y="1409700"/>
+          <a:ext cx="1485900" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC97EDDF-BBCC-4969-9C35-5EEA0BD0187B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="1428751"/>
+          <a:ext cx="1485900" cy="1390649"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6122DCE-F35B-4CDE-8859-3188DE0FC30D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="1114425"/>
+          <a:ext cx="609600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FBD2B5-FE5A-49BA-A807-DD15020EDE3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3400426" y="2886075"/>
+          <a:ext cx="638174" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="557845" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4909B8-BAE6-42AB-8850-EF3E08734F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="923925"/>
+          <a:ext cx="557845" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Head</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437877" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4472563A-FA85-47EA-826B-BBF7DB24829F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="3019425"/>
+          <a:ext cx="437877" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Tail</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390164EC-402D-438A-8CB4-829BA2FF2EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7058025" y="1428750"/>
+          <a:ext cx="1485900" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>338139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="左大括号 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBA6DC-8BB9-4A74-878A-59FC97E2BB63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7689055" y="550070"/>
+          <a:ext cx="214314" cy="1476374"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41120"/>
+            <a:gd name="adj2" fmla="val 49353"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="右大括号 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18B9A24-7FC4-4BF9-B087-B75C7B9D1B55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562974" y="1428749"/>
+          <a:ext cx="209551" cy="1371601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49712"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="267189" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文本框 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4A4FB7-2D8A-4864-A8AC-0D385A9F00EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="847725"/>
+          <a:ext cx="267189" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="265650" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文本框 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854980E9-7452-4133-83DD-ABB3F0E95D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="1924050"/>
+          <a:ext cx="265650" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="540341" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文本框 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22852A3E-CDE3-443E-9F09-A4B642DA64CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7534275" y="2476500"/>
+          <a:ext cx="540341" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>[x, y]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D40949D-21B7-4EB5-A1CB-BA9EC911FD22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11520488" y="393700"/>
+          <a:ext cx="0" cy="4889500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4FC920-B184-4D65-964D-C05A866A5C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10396538" y="400050"/>
+          <a:ext cx="4465637" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA4CAFC-3418-4540-A14B-0AB6688166DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10023475" y="3533775"/>
+          <a:ext cx="5232400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="文本框 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7446053C-952A-43B6-B7D8-5EFF0DBA8A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11299825" y="9525"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>320675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文本框 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246A6E37-0258-4887-A1EF-C5666E1E6352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11356975" y="5254625"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="文本框 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F4CB54-740D-46E7-9D5F-431A1EB5AC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15197138" y="3317875"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文本框 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2588CC11-9AF5-486F-8F57-084B2B679B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9658350" y="3327400"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438069" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="文本框 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A570818-0BB4-4AA2-8B23-32D90E5E6901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9985375" y="4572000"/>
+          <a:ext cx="438069" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379784" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="文本框 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D381C05-DB73-45EC-9901-A0BBE95D5685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="38100"/>
+          <a:ext cx="379784" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90462F9-07B0-45FA-BB88-632A72BC9621}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11525250" y="1419225"/>
+          <a:ext cx="1485900" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42039E3-E729-4F8E-99C0-23F7C70E21F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="2809875"/>
+          <a:ext cx="1838325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F859E1A-F871-4F74-9E94-B35169CD43A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13382625" y="1409700"/>
+          <a:ext cx="1466850" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F06524-C808-4713-A7CC-98C17B28A169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12992100" y="1409700"/>
+          <a:ext cx="1876425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接连接符 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3E886B-36B0-41FF-8DA4-302DAE7C194A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13373100" y="2800350"/>
+          <a:ext cx="1" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCD4160-AFD7-4B4C-B5C2-E788AA9DE243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="1419225"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F366955-DB21-4D86-8687-AD3B166B22AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13354050" y="2133600"/>
+          <a:ext cx="1495425" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接连接符 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDF3684-7702-48E6-A37D-EA6D18CF9932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13011150" y="1428750"/>
+          <a:ext cx="1" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接连接符 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C163271-88C7-4601-A40E-7B7009CA0AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13020675" y="2114550"/>
+          <a:ext cx="1838325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接箭头连接符 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74393B7F-BD78-40DE-AB25-4D6C91269D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11525250" y="1419225"/>
+          <a:ext cx="3333750" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A56DCF-78D5-4E9F-9074-1BF503E3EE6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="3524250"/>
+          <a:ext cx="1847850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直接箭头连接符 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF0AECE-1BA6-4B9A-BD43-33D858E6ACE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13373100" y="2819400"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接箭头连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4D4E41-6D9B-4C99-A49B-BE3FF9AB2D91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13373100" y="1419225"/>
+          <a:ext cx="1485900" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="820417" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="文本框 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCBCC9B-990C-4AAF-BC76-32169B6ED53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12058650" y="3619500"/>
+          <a:ext cx="820417" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>右移</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>单位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="820417" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="文本框 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C23839D-7F22-4619-87DA-B7BB14EA5EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12515850" y="3038475"/>
+          <a:ext cx="820417" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上移</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>单位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="820417" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="文本框 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F722577-F1F1-4A16-9090-2CC345918C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14058900" y="2219325"/>
+          <a:ext cx="820417" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>前移</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>单位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6915,8 +9230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AK27" sqref="AK27"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6932,7 +9247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
@@ -6943,4 +9258,27 @@
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY16" sqref="AY16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
     <sheet name="笛卡尔坐标系" sheetId="2" r:id="rId2"/>
     <sheet name="相机坐标系" sheetId="3" r:id="rId3"/>
     <sheet name="向量" sheetId="4" r:id="rId4"/>
+    <sheet name="几何图元" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -8906,6 +8907,3741 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>单位</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D4ABC4-304E-4A45-B275-85A3B0C74483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="2476500"/>
+          <a:ext cx="4457700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6607BFEE-B935-422D-8C7C-9D1B3F810235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="352425"/>
+          <a:ext cx="0" cy="4248150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="椭圆 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCFB172-155D-4551-8588-61184F502CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="704850"/>
+          <a:ext cx="3714750" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="424603" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0764D9-3CB6-41F6-B43B-CB6F859221BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="2085975"/>
+          <a:ext cx="424603" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>t=0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="424603" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF973FD-DFC0-4F75-8A79-532C774B7C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="2552700"/>
+          <a:ext cx="424603" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>t=1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="567591" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579A9DD4-65F6-4DCA-A11C-8CD72FBE6340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="1019175"/>
+          <a:ext cx="567591" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>t=1/4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="567591" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78006EF8-E82D-4511-AAB3-58C995E95DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="2095500"/>
+          <a:ext cx="567591" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>t=1/2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="567591" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE01BD3E-FDB9-41D4-A5CB-2712D81D11EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095625" y="3638550"/>
+          <a:ext cx="567591" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>t=3/4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C037B86E-0652-43B8-9D8C-F1C0AA62C050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1114425" y="2262726"/>
+          <a:ext cx="285750" cy="204249"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>43603</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>138651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0E57C3-184C-472A-9469-F4FC42E703C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="6" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4501303" y="2253201"/>
+          <a:ext cx="327872" cy="213774"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B9C3A4-0C1E-461E-8CFA-29C80303380B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2971800" y="704850"/>
+          <a:ext cx="257175" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E807756-91B7-4A67-A587-0FDB16AEE505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2971800" y="3981450"/>
+          <a:ext cx="257175" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0C7646-E857-4FDC-AD1B-3BD1C2A03376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6696075" y="1057276"/>
+          <a:ext cx="2590800" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342861</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81F6D12-E3D6-425C-820F-7FBC417A3D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="3181350"/>
+          <a:ext cx="314286" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38055</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>352390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E9487-23F1-41FF-A5B6-FC0283960F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="781050"/>
+          <a:ext cx="361905" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>352424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D32AD4B-FEA3-42B8-8F17-59F2CD84B8CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10410825" y="1066800"/>
+          <a:ext cx="2590800" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342870</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5154DB8-12A8-4F8A-90A3-6E0CCB7562EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="2876550"/>
+          <a:ext cx="238095" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76176</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D529E6-3842-4565-8B6C-632040A688A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11772900" y="2133600"/>
+          <a:ext cx="190476" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="424603" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="文本框 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C212C7-FBB5-41E3-B6AF-7C9434FDBF8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="3133725"/>
+          <a:ext cx="424603" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>t=0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="373692" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="文本框 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C8FB23-FB44-4BAF-9B09-A0C5C8C75271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12973050" y="1047750"/>
+          <a:ext cx="373692" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>t=1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE51F557-4B15-4644-90D7-C8A56A060C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15230475" y="695325"/>
+          <a:ext cx="0" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>369711</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>343058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB2CED-75E1-41C6-B2FE-6B798F2E85B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13742811" y="3162458"/>
+          <a:ext cx="3706989" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8B0154-D5AF-402B-8DA2-EE6C35745623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14116050" y="809625"/>
+          <a:ext cx="2886075" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="文本框 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B2AFDE-B6A6-4680-A71A-2668449D217E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17449800" y="2962275"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="文本框 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A117E7CF-6904-4A22-91D7-158B7841ACD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13354050" y="2981325"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="文本框 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE8B1C8-07E0-470A-9C97-12D15649552A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15011400" y="304800"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2855F5AE-E771-48E7-B72C-374CB2C6B889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15059025" y="4210050"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>240078</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>198072</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334451" cy="738407"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="文本框 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA5B961-5DCF-4A44-9D53-0A051A794BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18746722">
+          <a:off x="15268575" y="1809750"/>
+          <a:ext cx="738407" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>y=ax+b</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直接连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5739E098-357A-4338-9EC0-EE6228D206DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16087725" y="1762125"/>
+          <a:ext cx="638175" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5D1C15-5305-498F-A08F-7F48B1E59AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16716375" y="1114425"/>
+          <a:ext cx="0" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="259302" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="文本框 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9295DA22-3937-4285-988C-61E525E74A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16735425" y="1257300"/>
+          <a:ext cx="259302" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="文本框 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF1F691-AC73-4942-8FC8-60E71302768D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16335375" y="1743075"/>
+          <a:ext cx="256160" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接箭头连接符 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3988CEA-DFB7-4C55-AE11-7B2795660516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="5648325"/>
+          <a:ext cx="0" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>369711</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19208</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D9DBE2-3869-449D-A17A-6E73F50DA6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="3"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="741186" y="8105933"/>
+          <a:ext cx="3706989" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直接连接符 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E23C8EC-9C9F-48B4-A834-5564E68FB0B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="5991225"/>
+          <a:ext cx="2962275" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="文本框 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CA65B1-24DC-43A6-BD93-71C028D06512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="7905750"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="文本框 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7F8889-0F1C-4C89-8B85-82F52EAAB25B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="7924800"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="文本框 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DF7809-63FB-4E51-B77A-09DCDA44BC42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="5257800"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="文本框 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E6DA2A-05CF-489D-B033-F85BE898D528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="9163050"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C160F5A-0C30-4A38-947A-E50B4DD4B0A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1857375" y="7391400"/>
+          <a:ext cx="742950" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直接箭头连接符 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F317768F-5514-43CF-908A-229EA46BC4C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2971800" y="7410450"/>
+          <a:ext cx="371475" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190385</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>314278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="图片 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8B0445-D988-4603-A268-1C8AC8A3C281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="2647728">
+          <a:off x="1866900" y="6629401"/>
+          <a:ext cx="923810" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="274883" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="文本框 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239361A6-E967-442E-9E96-CC72C0CA77BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="7467600"/>
+          <a:ext cx="274883" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>d</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238096</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="图片 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10AF6A8-C0BD-4076-B207-20FABCA9A125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="7343775"/>
+          <a:ext cx="228571" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直接箭头连接符 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41A2D22-8944-464B-944F-0164714F8BC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="5638800"/>
+          <a:ext cx="0" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369711</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>343058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直接箭头连接符 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5737F299-9953-46B8-B6BE-42FB424C9D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="3"/>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5570361" y="8096408"/>
+          <a:ext cx="3706989" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直接连接符 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8015ED1-F864-4E00-99F6-BA2464429C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="5981700"/>
+          <a:ext cx="2962275" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="文本框 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8764F76C-B26E-4D17-B23C-AD4B44E544B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="7896225"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="文本框 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A17F2C6-5EDA-434A-8555-CB38E0CC4099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="7915275"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="文本框 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AE2936-2D9F-4DB4-AFE9-11941AC71D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="5248275"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="文本框 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A00F70-199A-49AE-B603-513B391F5905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="9153525"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直接箭头连接符 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DD615A-08DD-4018-816D-4C4F51166C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7800975" y="7400925"/>
+          <a:ext cx="371475" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238096</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>247611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="图片 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F9B8C0-A20E-4186-B95B-5E2FCA4D832C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="7334250"/>
+          <a:ext cx="228571" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333246</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>342861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="图片 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E74CEC-EA75-4B5F-AF05-F8CD1DABAE73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="2636346">
+          <a:off x="6743698" y="6724650"/>
+          <a:ext cx="1019048" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>26669</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="椭圆 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DC02ED-43EF-46D5-A7DF-FDA9E7953A4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="7372350"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333351</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>266665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="图片 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECD6D20-5ACB-419E-8188-96B9423C1DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="7391400"/>
+          <a:ext cx="190476" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直接连接符 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D599952F-DBDC-46FE-B843-E533AAD20D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10782300" y="5991225"/>
+          <a:ext cx="2219325" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直接箭头连接符 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8771B99-BB57-4283-A0C1-4382F17FA140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="5295900"/>
+          <a:ext cx="2962275" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>26669</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="椭圆 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6899C5D0-FCD3-455E-BE06-2A31D5172891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10753725" y="8086725"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>17144</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26669</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="椭圆 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12973050" y="5972175"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>67495</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>241280</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2159502" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="文本框 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB57CC2-E881-4B7C-92A6-FABEB8FD4640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2624416">
+          <a:off x="10097320" y="5880080"/>
+          <a:ext cx="2159502" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>distance(p, q) = distance(p, r)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="278602" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="文本框 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C179AA-E28B-4A19-9C63-DFD3245127E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10506075" y="8058150"/>
+          <a:ext cx="278602" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>p</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="278410" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="文本框 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F52FA7C-D781-4FA8-9E7C-1BC08CA69CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12992100" y="5676900"/>
+          <a:ext cx="278410" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>q</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9267,7 +13003,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
@@ -9281,4 +13017,24 @@
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ20" sqref="AQ20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -12637,6 +12637,917 @@
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>q</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接箭头连接符 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6787E94-31DE-4838-B4B1-0F33D7F95DDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="12344400"/>
+          <a:ext cx="4457700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直接箭头连接符 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA6976B-0BBD-4CFF-A27B-FDA8A62239B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="10220325"/>
+          <a:ext cx="0" cy="4248150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="椭圆 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A179E359-7FAF-44A9-8201-FF4B246B9B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="10572750"/>
+          <a:ext cx="3714750" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>342901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5C6723-ADB0-4EDC-BED9-F765D11EB69A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="11991976"/>
+          <a:ext cx="3705225" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DD8A6C-8810-42CB-84EC-482453F34183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="495300" y="11830050"/>
+          <a:ext cx="4314825" cy="981076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="文本框 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94103CD-8429-4B53-A3FB-E27B8C5730C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="12125325"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="文本框 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2FD68B-F445-4D2D-941B-75E6D94EE717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="12125325"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="文本框 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B768A36E-60F7-4F17-AF3E-DA1FF96D1D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="14449425"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="文本框 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8730B022-7D46-45CD-968D-C55E1B3F17C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="9858375"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="文本框 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600F8A95-638B-4FC1-BAAB-9A1BF9CA4D09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829175" y="11630025"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438069" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="文本框 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE2A04F-16FA-4DFB-BAC2-7B8290EFF50E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12687300"/>
+          <a:ext cx="438069" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="279051" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC55CA61-11C0-4773-BD3A-E8118C75A78C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="12011025"/>
+          <a:ext cx="279051" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200332</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>242468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E258764-3407-4DC1-B490-84F903AFD571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="12334875"/>
+          <a:ext cx="1314757" cy="242468"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="244426" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6790822C-0751-4B18-9278-38E3E787419E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="12334875"/>
+          <a:ext cx="244426" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>r</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
@@ -13026,8 +13937,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ20" sqref="AQ20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ32" sqref="AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -13558,6 +13558,1634 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="平行四边形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5822950" y="11747500"/>
+          <a:ext cx="3683000" cy="1758950"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50768"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7727950" y="10642600"/>
+          <a:ext cx="6350" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="864147" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7747000" y="10394950"/>
+          <a:ext cx="864147" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Normal</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>305740</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>312912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="665368" cy="708399"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="文本框 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19763802">
+          <a:off x="6566840" y="11692112"/>
+          <a:ext cx="665368" cy="708399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="isometricBottomDown"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Front</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Side</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="610808" cy="708399"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="文本框 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="13881100"/>
+          <a:ext cx="610808" cy="708399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Back</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Side</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="曲线连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="1"/>
+          <a:endCxn id="14" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7664450" y="13506450"/>
+          <a:ext cx="793750" cy="728850"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="平行四边形 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10318750" y="11766550"/>
+          <a:ext cx="3683000" cy="1758950"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50768"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直接箭头连接符 91"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11055350" y="10674350"/>
+          <a:ext cx="6350" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="864147" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="文本框 103"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="10382250"/>
+          <a:ext cx="864147" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Normal</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>204139</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52562</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="665368" cy="708399"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="文本框 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19763802">
+          <a:off x="10516539" y="12854162"/>
+          <a:ext cx="665368" cy="708399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="isometricBottomDown"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Front</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Side</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>42544</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>48894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="椭圆 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12522200" y="12090400"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>245744</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>258444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="椭圆 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="13011150"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>23494</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="椭圆 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12871450" y="12769850"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>36314</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>41734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>355480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>331010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接连接符 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="1"/>
+          <a:endCxn id="106" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12558514" y="12132134"/>
+          <a:ext cx="319166" cy="644876"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>239514</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>216710</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接连接符 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="2"/>
+          <a:endCxn id="107" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11656814" y="12114847"/>
+          <a:ext cx="865386" cy="903463"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>303405</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="图片 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12941301" y="12820650"/>
+          <a:ext cx="252604" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>322943</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>336551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="图片 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12547600" y="11817351"/>
+          <a:ext cx="297543" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>192231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11398250" y="13100050"/>
+          <a:ext cx="228600" cy="249381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>135978</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="图片 88"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12788900" y="12255500"/>
+          <a:ext cx="237578" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>260351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="图片 108"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11836401" y="12350751"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="平行四边形 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14732000" y="11747500"/>
+          <a:ext cx="3683000" cy="1758950"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50768"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直接箭头连接符 113"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16198850" y="12052300"/>
+          <a:ext cx="6350" cy="1098550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>197789</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33512</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="665368" cy="708399"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="文本框 114"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19763802">
+          <a:off x="14929789" y="12835112"/>
+          <a:ext cx="665368" cy="708399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="isometricBottomDown"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Front</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Side</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>42544</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>48894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="椭圆 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16941800" y="13157200"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>42544</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="椭圆 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16941800" y="11023600"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>17264</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>17264</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直接连接符 119"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16959064" y="11030760"/>
+          <a:ext cx="0" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>251959</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>298451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="图片 121"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16281400" y="12192001"/>
+          <a:ext cx="175759" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>299627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="图片 122"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17024351" y="13201651"/>
+          <a:ext cx="196850" cy="255176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>248074</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="图片 123"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17024350" y="10756900"/>
+          <a:ext cx="165524" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>325437</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>241301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="图片 124"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17005300" y="12122151"/>
+          <a:ext cx="261937" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13864,7 +15492,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13881,7 +15509,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13898,7 +15526,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13918,9 +15546,9 @@
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13937,11 +15565,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ32" sqref="AJ32"/>
+    <sheetView tabSelected="1" topLeftCell="J25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ36" sqref="AZ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -68,13 +68,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -113,7 +116,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0D0038-AD14-4A0E-9AF1-454392789326}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -169,7 +172,7 @@
         <xdr:cNvPr id="6" name="直接箭头连接符 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FB4F38-D3BF-4986-82B0-17D8C0E3E7E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -225,7 +228,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62EB5A9-C10F-4669-B5E8-C050584EB3D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -278,7 +281,7 @@
         <xdr:cNvPr id="20" name="图片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678D20F5-B754-42D8-B828-5381168F0D6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -323,7 +326,7 @@
         <xdr:cNvPr id="21" name="文本框 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B872DF-41E6-4F0B-BBA1-F489E4E95412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -394,7 +397,7 @@
         <xdr:cNvPr id="22" name="文本框 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00043E3F-57BB-4E37-858B-6EED3D9612CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -465,7 +468,7 @@
         <xdr:cNvPr id="23" name="文本框 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91FA4E0-A3FE-4E05-A338-45AD3D03BE1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -541,7 +544,7 @@
         <xdr:cNvPr id="25" name="直接箭头连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55055720-C1C0-4D40-9DF4-0D318E8C611E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -597,7 +600,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B230810-C1E7-460E-BF7E-E46F7B2AD5C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -653,7 +656,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726303E5-4617-4EBE-B30C-2357781AD11F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,7 +704,7 @@
         <xdr:cNvPr id="31" name="文本框 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093BC94E-7127-44E0-90F5-B3E2B810FE68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -772,7 +775,7 @@
         <xdr:cNvPr id="32" name="文本框 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632CB577-FD83-472D-B957-57362B44FD27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +846,7 @@
         <xdr:cNvPr id="33" name="文本框 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08539EA5-5254-4825-BC78-75B853432D32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +922,7 @@
         <xdr:cNvPr id="35" name="图片 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C620CAC-9A8C-45BC-A92D-42E3BB90CDC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,7 +967,7 @@
         <xdr:cNvPr id="36" name="文本框 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C96F09-298A-4801-99DD-277809CA125A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1035,7 +1038,7 @@
         <xdr:cNvPr id="38" name="文本框 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A3AB14-F558-4864-A797-B35963A67755}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,7 +1109,7 @@
         <xdr:cNvPr id="26" name="文本框 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBED0D07-9083-4FF6-A508-E9B85EA64F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,7 +1180,7 @@
         <xdr:cNvPr id="29" name="文本框 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0520F645-081A-4CCB-832A-D56D9DE7CF8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1251,7 @@
         <xdr:cNvPr id="30" name="文本框 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEF91B7-CC9E-432B-899E-FAE610DDEC29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1322,7 @@
         <xdr:cNvPr id="34" name="文本框 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F642830C-E359-4FDE-82B5-8347084106F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1393,7 @@
         <xdr:cNvPr id="37" name="文本框 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083EDE3E-A44C-4F1C-9ED6-7828BC3F7F38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1464,7 @@
         <xdr:cNvPr id="39" name="文本框 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11997049-3430-447C-A427-D701505A0237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1545,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1433035D-9085-43A8-87B6-E9393AA12776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1602,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD3D3FC-C9AE-4A4D-83B7-F1AFB75993B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1654,7 @@
         <xdr:cNvPr id="13" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA244BF-E5ED-4E0F-AF46-659C6050D561}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1725,7 @@
         <xdr:cNvPr id="14" name="文本框 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019740F8-8499-4653-B2D4-F26A2D110D1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1796,7 @@
         <xdr:cNvPr id="15" name="文本框 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB9ED94-DB9E-44AD-B945-57A055D6AF56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1867,7 @@
         <xdr:cNvPr id="16" name="文本框 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D20946-2E58-42DA-B098-352F57CD8058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1938,7 @@
         <xdr:cNvPr id="17" name="文本框 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4291F1AE-BE17-46C4-9FB5-50DF1D1CE2BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +2009,7 @@
         <xdr:cNvPr id="19" name="文本框 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C9878D-49ED-42B4-8E63-F33B2DDEA998}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2077,7 +2080,7 @@
         <xdr:cNvPr id="20" name="文本框 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A7FA15-837D-43EA-81F2-4DCF7190EEC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2157,7 @@
         <xdr:cNvPr id="22" name="直接连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7002C572-EC51-4BE8-B269-E87DE7A784FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2207,7 @@
         <xdr:cNvPr id="25" name="文本框 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF82BDBF-7DC2-4586-B628-608B05C1C760}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2283,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA989C5-35B5-4436-ABB6-038FF3268BDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2340,7 @@
         <xdr:cNvPr id="27" name="直接箭头连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C04B99-A745-4AF4-9640-E94F55E0975C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2392,7 @@
         <xdr:cNvPr id="28" name="文本框 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB6AFFD-1F8C-40F6-8329-8D6107C39AD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2468,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC760D57-BEDB-47CF-9A12-FE5E238A7E80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2517,7 @@
         <xdr:cNvPr id="32" name="文本框 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A572C6-0E07-4B1D-A60C-3EC4F4F91EC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2588,7 @@
         <xdr:cNvPr id="33" name="文本框 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB96BB6-2CAA-4A55-B8B6-C6071DAE7B93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2659,7 @@
         <xdr:cNvPr id="34" name="文本框 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CC002D-00BF-437D-9585-639804C00FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2730,7 @@
         <xdr:cNvPr id="35" name="文本框 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7CD48E-CF49-46A6-A086-1498F59C196E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2801,7 @@
         <xdr:cNvPr id="36" name="文本框 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99225E5-5420-4AF5-BB67-530A982882DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,7 +2878,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3B7CAD-DB8E-4934-9743-80162ABEEC9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2933,7 @@
         <xdr:cNvPr id="4" name="直接箭头连接符 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FB9BB5-6FE0-4BF2-8882-62C188AAFF0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +2986,7 @@
         <xdr:cNvPr id="7" name="直接箭头连接符 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACDA880-4605-45C0-9FB6-590ED97E277E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3034,7 @@
         <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07D341D-0846-4D69-8FC2-4397ACE4D2F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3099,7 @@
         <xdr:cNvPr id="10" name="文本框 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C032F4F3-2C5B-4F7A-A9AF-D05EB6658439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,7 +3164,7 @@
         <xdr:cNvPr id="11" name="文本框 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41517C3D-9CD3-4F8A-92A8-669287ED8702}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3229,7 @@
         <xdr:cNvPr id="12" name="文本框 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2682AE15-2AAC-4567-B026-AB94868F5C43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3296,7 +3299,7 @@
         <xdr:cNvPr id="21" name="直接箭头连接符 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89015EBD-FFFC-4E6A-90AC-11965EBCDCD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3356,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EA4EB4-8981-445E-8C69-211B0AAD9406}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3410,7 +3413,7 @@
         <xdr:cNvPr id="30" name="直接箭头连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F55C69-DE15-4F2C-9A86-9168F494350F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3466,7 @@
         <xdr:cNvPr id="40" name="直接箭头连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA441123-AD63-4C55-B52E-6037CFE17C88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3516,7 +3519,7 @@
         <xdr:cNvPr id="41" name="左大括号 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B7204B-FD80-4788-BA0F-33607F1007DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3572,7 +3575,7 @@
         <xdr:cNvPr id="42" name="文本框 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8E2CBD-E557-4999-B3A5-5A83071CA76B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3645,7 @@
         <xdr:cNvPr id="43" name="右大括号 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D720DE-D320-4C91-9772-9C2C63DEB229}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3701,7 @@
         <xdr:cNvPr id="44" name="文本框 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A359A2-D9CC-4B6C-8465-F7112C10316C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,7 +3766,7 @@
         <xdr:cNvPr id="45" name="文本框 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079ABE3A-882C-4461-8DD4-2F35F0A06848}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3828,7 +3831,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF14C7F-5675-4C7D-9706-B3B90C732CD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,7 +3902,7 @@
         <xdr:cNvPr id="47" name="文本框 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0590D5-6F9C-4357-90C3-5BD99FD4200F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3970,7 +3973,7 @@
         <xdr:cNvPr id="48" name="文本框 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE8C6E4D-F2AB-465D-A0C2-729AF7ECF614}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4041,7 +4044,7 @@
         <xdr:cNvPr id="49" name="文本框 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB214E1-6A01-448C-BB3A-8B54FB157D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4117,7 +4120,7 @@
         <xdr:cNvPr id="50" name="直接箭头连接符 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2EC831-6AB0-4207-90A9-47939AA017EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4174,7 +4177,7 @@
         <xdr:cNvPr id="51" name="直接箭头连接符 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4971640D-D985-4E5F-BF3B-23E3FB921271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4228,7 +4231,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03324E65-D9D4-4EF9-BD97-6F0252BB39AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4280,7 +4283,7 @@
         <xdr:cNvPr id="53" name="文本框 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4A0F47-DE0A-4551-BE42-84F7CEB9342A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4351,7 +4354,7 @@
         <xdr:cNvPr id="54" name="文本框 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30112A56-9CF7-456F-9592-0910322BB220}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4422,7 +4425,7 @@
         <xdr:cNvPr id="55" name="文本框 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD89E84-8049-4228-83C9-6A61C56F862A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4493,7 +4496,7 @@
         <xdr:cNvPr id="56" name="文本框 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB8B9D8-1DFA-450B-977E-731345633A1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4564,7 +4567,7 @@
         <xdr:cNvPr id="57" name="文本框 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2F10EC-8E2E-4EBF-850D-BB0D486327A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4640,7 +4643,7 @@
         <xdr:cNvPr id="6" name="直接连接符 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA9F81B-E3DE-4B02-947E-942451A7A73D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4695,7 +4698,7 @@
         <xdr:cNvPr id="18" name="直接连接符 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208D7F61-D770-4365-A282-C7D222D4F9D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4750,7 +4753,7 @@
         <xdr:cNvPr id="29" name="直接连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CF7A1B-8DDB-40DF-9CF5-F64059062B6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4805,7 +4808,7 @@
         <xdr:cNvPr id="39" name="直接连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DD57FF-1DDA-4F89-8013-132ABEF83ECD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4860,7 +4863,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05704266-E673-497C-A70C-6D76E1742299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4915,7 +4918,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE82D591-F4D8-4D3A-A675-A7E4ABE0CCFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4970,7 +4973,7 @@
         <xdr:cNvPr id="67" name="直接连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FE9D4B-6AC1-4A5D-AD56-6B03A127E299}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5025,7 +5028,7 @@
         <xdr:cNvPr id="71" name="直接连接符 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DA0906-BA31-491E-87C8-32FC7F1C8D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5080,7 +5083,7 @@
         <xdr:cNvPr id="74" name="直接连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F7221A-9639-40D8-BED5-A201ACD2AA8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5135,7 +5138,7 @@
         <xdr:cNvPr id="75" name="右大括号 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC2454E-9956-4AC4-98DE-A77893B51240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5191,7 +5194,7 @@
         <xdr:cNvPr id="76" name="文本框 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E196EC-2B2B-40C7-8017-C28439F414C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5261,7 +5264,7 @@
         <xdr:cNvPr id="77" name="左大括号 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8710495-6B31-4F67-B755-CFB34181BD22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5317,7 +5320,7 @@
         <xdr:cNvPr id="78" name="文本框 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAA7812-7BFC-4596-BAA5-45D80EA1A5AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5387,7 +5390,7 @@
         <xdr:cNvPr id="79" name="右大括号 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D22668-E86D-4528-B4DC-56D3615B713C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5443,7 +5446,7 @@
         <xdr:cNvPr id="80" name="文本框 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1EDF5A-87F9-4C73-A456-6F9142A74A25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5508,7 +5511,7 @@
         <xdr:cNvPr id="65" name="文本框 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB9B607-4E56-43B5-9D35-17ECB3938DC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5589,7 +5592,7 @@
         <xdr:cNvPr id="26" name="直接连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419EDA6A-B5EC-41EB-B131-15E7805AB7F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5644,7 +5647,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{653FF320-DA4C-4C53-BCF3-96774F03B101}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5700,7 +5703,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{201A4CCB-5C2F-4869-88DE-290F33283062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5756,7 +5759,7 @@
         <xdr:cNvPr id="18" name="直接连接符 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1571FE-74B0-4AAB-AB0D-52C5392DB55D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5811,7 +5814,7 @@
         <xdr:cNvPr id="20" name="直接连接符 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DB2353-D93A-4422-8FAE-776EBCB36CF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5866,7 +5869,7 @@
         <xdr:cNvPr id="22" name="直接连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDB890B-28D3-481B-8E49-64ACC013E4AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5921,7 +5924,7 @@
         <xdr:cNvPr id="24" name="直接连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12FC96D-AEE8-411E-BC73-7F4F0ADA4622}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5976,7 +5979,7 @@
         <xdr:cNvPr id="28" name="直接连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FBE519-264F-48B6-B929-5C498A14CE73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6031,7 +6034,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9059D1-E2DF-41D8-B24B-8021EDE546A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6081,7 +6084,7 @@
         <xdr:cNvPr id="62" name="文本框 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A705EC2-7505-4A2C-B953-57A7E5CD6D46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6152,7 +6155,7 @@
         <xdr:cNvPr id="63" name="文本框 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07AC967-2E79-4BB7-B444-49275AEEF51A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6223,7 +6226,7 @@
         <xdr:cNvPr id="64" name="文本框 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956F6C07-9D10-431F-8A26-43B52DA3547F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6293,7 +6296,7 @@
         <xdr:cNvPr id="66" name="直接连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09744DE-7EAF-497B-86A8-3147ADB9519C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6348,7 +6351,7 @@
         <xdr:cNvPr id="70" name="图片 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED2BDA1-96F9-4BEA-B5FA-4444B35166A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6392,7 +6395,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E74A1E-2353-45D9-82B4-B22FEA818395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6440,7 +6443,7 @@
         <xdr:cNvPr id="61" name="文本框 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1DA371-9C50-4F1B-94C3-99954AFDAE4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6526,7 +6529,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19491B81-F4A0-4849-9514-2D0DF0BE5A43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6581,7 +6584,7 @@
         <xdr:cNvPr id="72" name="直接连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79E8C4F-1880-4B14-BB04-ECB860897C83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6636,7 +6639,7 @@
         <xdr:cNvPr id="74" name="直接连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5730386C-03A7-416E-B47C-11890D1C46E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6696,7 +6699,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B89CE8A-7361-4598-80EB-A95C895CF91F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6749,7 +6752,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC97EDDF-BBCC-4969-9C35-5EEA0BD0187B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6802,7 +6805,7 @@
         <xdr:cNvPr id="8" name="直接连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6122DCE-F35B-4CDE-8859-3188DE0FC30D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6857,7 +6860,7 @@
         <xdr:cNvPr id="10" name="直接连接符 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FBD2B5-FE5A-49BA-A807-DD15020EDE3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6907,7 +6910,7 @@
         <xdr:cNvPr id="13" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4909B8-BAE6-42AB-8850-EF3E08734F7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6972,7 +6975,7 @@
         <xdr:cNvPr id="14" name="文本框 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4472563A-FA85-47EA-826B-BBF7DB24829F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7042,7 +7045,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390164EC-402D-438A-8CB4-829BA2FF2EF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7095,7 +7098,7 @@
         <xdr:cNvPr id="17" name="左大括号 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEBA6DC-8BB9-4A74-878A-59FC97E2BB63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7161,7 +7164,7 @@
         <xdr:cNvPr id="18" name="右大括号 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D18B9A24-7FC4-4BF9-B087-B75C7B9D1B55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7222,7 +7225,7 @@
         <xdr:cNvPr id="19" name="文本框 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4A4FB7-2D8A-4864-A8AC-0D385A9F00EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7287,7 +7290,7 @@
         <xdr:cNvPr id="20" name="文本框 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854980E9-7452-4133-83DD-ABB3F0E95D0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7352,7 +7355,7 @@
         <xdr:cNvPr id="21" name="文本框 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22852A3E-CDE3-443E-9F09-A4B642DA64CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7422,7 +7425,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D40949D-21B7-4EB5-A1CB-BA9EC911FD22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7479,7 +7482,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4FC920-B184-4D65-964D-C05A866A5C77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7533,7 +7536,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA4CAFC-3418-4540-A14B-0AB6688166DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7585,7 +7588,7 @@
         <xdr:cNvPr id="25" name="文本框 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7446053C-952A-43B6-B7D8-5EFF0DBA8A09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7656,7 +7659,7 @@
         <xdr:cNvPr id="26" name="文本框 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246A6E37-0258-4887-A1EF-C5666E1E6352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7727,7 +7730,7 @@
         <xdr:cNvPr id="27" name="文本框 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F4CB54-740D-46E7-9D5F-431A1EB5AC02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7798,7 +7801,7 @@
         <xdr:cNvPr id="28" name="文本框 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2588CC11-9AF5-486F-8F57-084B2B679B52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7869,7 +7872,7 @@
         <xdr:cNvPr id="29" name="文本框 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A570818-0BB4-4AA2-8B23-32D90E5E6901}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7940,7 +7943,7 @@
         <xdr:cNvPr id="30" name="文本框 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D381C05-DB73-45EC-9901-A0BBE95D5685}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8016,7 +8019,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90462F9-07B0-45FA-BB88-632A72BC9621}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8071,7 +8074,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42039E3-E729-4F8E-99C0-23F7C70E21F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8126,7 +8129,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F859E1A-F871-4F74-9E94-B35169CD43A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8181,7 +8184,7 @@
         <xdr:cNvPr id="39" name="直接连接符 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F06524-C808-4713-A7CC-98C17B28A169}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8236,7 +8239,7 @@
         <xdr:cNvPr id="41" name="直接连接符 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3E886B-36B0-41FF-8DA4-302DAE7C194A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8291,7 +8294,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCD4160-AFD7-4B4C-B5C2-E788AA9DE243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8346,7 +8349,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F366955-DB21-4D86-8687-AD3B166B22AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8401,7 +8404,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDF3684-7702-48E6-A37D-EA6D18CF9932}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8456,7 +8459,7 @@
         <xdr:cNvPr id="56" name="直接连接符 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C163271-88C7-4601-A40E-7B7009CA0AD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8511,7 +8514,7 @@
         <xdr:cNvPr id="61" name="直接箭头连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74393B7F-BD78-40DE-AB25-4D6C91269D5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8564,7 +8567,7 @@
         <xdr:cNvPr id="64" name="直接箭头连接符 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A56DCF-78D5-4E9F-9074-1BF503E3EE6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8620,7 +8623,7 @@
         <xdr:cNvPr id="66" name="直接箭头连接符 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF0AECE-1BA6-4B9A-BD43-33D858E6ACE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8676,7 +8679,7 @@
         <xdr:cNvPr id="68" name="直接箭头连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4D4E41-6D9B-4C99-A49B-BE3FF9AB2D91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8727,7 +8730,7 @@
         <xdr:cNvPr id="69" name="文本框 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCBCC9B-990C-4AAF-BC76-32169B6ED53E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8793,7 +8796,7 @@
         <xdr:cNvPr id="70" name="文本框 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C23839D-7F22-4619-87DA-B7BB14EA5EEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8859,7 +8862,7 @@
         <xdr:cNvPr id="71" name="文本框 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F722577-F1F1-4A16-9090-2CC345918C88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8935,7 +8938,7 @@
         <xdr:cNvPr id="3" name="直接箭头连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D4ABC4-304E-4A45-B275-85A3B0C74483}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8992,7 +8995,7 @@
         <xdr:cNvPr id="5" name="直接箭头连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6607BFEE-B935-422D-8C7C-9D1B3F810235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9049,7 +9052,7 @@
         <xdr:cNvPr id="6" name="椭圆 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCFB172-155D-4551-8588-61184F502CBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9110,7 +9113,7 @@
         <xdr:cNvPr id="7" name="文本框 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0764D9-3CB6-41F6-B43B-CB6F859221BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9171,7 +9174,7 @@
         <xdr:cNvPr id="8" name="文本框 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF973FD-DFC0-4F75-8A79-532C774B7C6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9236,7 +9239,7 @@
         <xdr:cNvPr id="9" name="文本框 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579A9DD4-65F6-4DCA-A11C-8CD72FBE6340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9301,7 +9304,7 @@
         <xdr:cNvPr id="10" name="文本框 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78006EF8-E82D-4511-AAB3-58C995E95DE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9366,7 +9369,7 @@
         <xdr:cNvPr id="11" name="文本框 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE01BD3E-FDB9-41D4-A5CB-2712D81D11EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9436,7 +9439,7 @@
         <xdr:cNvPr id="13" name="直接连接符 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C037B86E-0652-43B8-9D8C-F1C0AA62C050}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9489,7 +9492,7 @@
         <xdr:cNvPr id="15" name="直接连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0E57C3-184C-472A-9469-F4FC42E703C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9542,7 +9545,7 @@
         <xdr:cNvPr id="17" name="直接连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B9C3A4-0C1E-461E-8CFA-29C80303380B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9594,7 +9597,7 @@
         <xdr:cNvPr id="19" name="直接连接符 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E807756-91B7-4A67-A587-0FDB16AEE505}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9646,7 +9649,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0C7646-E857-4FDC-AD1B-3BD1C2A03376}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9699,7 +9702,7 @@
         <xdr:cNvPr id="26" name="图片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81F6D12-E3D6-425C-820F-7FBC417A3D72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9743,7 +9746,7 @@
         <xdr:cNvPr id="27" name="图片 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E9487-23F1-41FF-A5B6-FC0283960F16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9787,7 +9790,7 @@
         <xdr:cNvPr id="28" name="直接箭头连接符 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D32AD4B-FEA3-42B8-8F17-59F2CD84B8CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9840,7 +9843,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5154DB8-12A8-4F8A-90A3-6E0CCB7562EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9884,7 +9887,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D529E6-3842-4565-8B6C-632040A688A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9923,7 +9926,7 @@
         <xdr:cNvPr id="31" name="文本框 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C212C7-FBB5-41E3-B6AF-7C9434FDBF8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9988,7 +9991,7 @@
         <xdr:cNvPr id="32" name="文本框 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C8FB23-FB44-4BAF-9B09-A0C5C8C75271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10052,7 +10055,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE51F557-4B15-4644-90D7-C8A56A060C28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10109,7 +10112,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DB2CED-75E1-41C6-B2FE-6B798F2E85B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10169,7 +10172,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8B0154-D5AF-402B-8DA2-EE6C35745623}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10214,7 +10217,7 @@
         <xdr:cNvPr id="39" name="文本框 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B2AFDE-B6A6-4680-A71A-2668449D217E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10285,7 +10288,7 @@
         <xdr:cNvPr id="40" name="文本框 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A117E7CF-6904-4A22-91D7-158B7841ACD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10356,7 +10359,7 @@
         <xdr:cNvPr id="45" name="文本框 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE8B1C8-07E0-470A-9C97-12D15649552A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10427,7 +10430,7 @@
         <xdr:cNvPr id="46" name="文本框 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2855F5AE-E771-48E7-B72C-374CB2C6B889}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10498,7 +10501,7 @@
         <xdr:cNvPr id="47" name="文本框 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA5B961-5DCF-4A44-9D53-0A051A794BDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10574,7 +10577,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5739E098-357A-4338-9EC0-EE6228D206DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10631,7 +10634,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5D1C15-5305-498F-A08F-7F48B1E59AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10683,7 +10686,7 @@
         <xdr:cNvPr id="53" name="文本框 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9295DA22-3937-4285-988C-61E525E74A01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10758,7 +10761,7 @@
         <xdr:cNvPr id="54" name="文本框 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF1F691-AC73-4942-8FC8-60E71302768D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10838,7 +10841,7 @@
         <xdr:cNvPr id="56" name="直接箭头连接符 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3988CEA-DFB7-4C55-AE11-7B2795660516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10895,7 +10898,7 @@
         <xdr:cNvPr id="57" name="直接箭头连接符 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D9DBE2-3869-449D-A17A-6E73F50DA6DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10955,7 +10958,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E23C8EC-9C9F-48B4-A834-5564E68FB0B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11000,7 +11003,7 @@
         <xdr:cNvPr id="59" name="文本框 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CA65B1-24DC-43A6-BD93-71C028D06512}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11071,7 +11074,7 @@
         <xdr:cNvPr id="60" name="文本框 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7F8889-0F1C-4C89-8B85-82F52EAAB25B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11142,7 +11145,7 @@
         <xdr:cNvPr id="61" name="文本框 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DF7809-63FB-4E51-B77A-09DCDA44BC42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11213,7 +11216,7 @@
         <xdr:cNvPr id="62" name="文本框 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E6DA2A-05CF-489D-B033-F85BE898D528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11289,7 +11292,7 @@
         <xdr:cNvPr id="67" name="直接连接符 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C160F5A-0C30-4A38-947A-E50B4DD4B0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11339,7 +11342,7 @@
         <xdr:cNvPr id="69" name="直接箭头连接符 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F317768F-5514-43CF-908A-229EA46BC4C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000045000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11392,7 +11395,7 @@
         <xdr:cNvPr id="71" name="图片 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8B0445-D988-4603-A268-1C8AC8A3C281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11431,7 +11434,7 @@
         <xdr:cNvPr id="72" name="文本框 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239361A6-E967-442E-9E96-CC72C0CA77BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11501,7 +11504,7 @@
         <xdr:cNvPr id="73" name="图片 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10AF6A8-C0BD-4076-B207-20FABCA9A125}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11545,7 +11548,7 @@
         <xdr:cNvPr id="74" name="直接箭头连接符 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B41A2D22-8944-464B-944F-0164714F8BC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11602,7 +11605,7 @@
         <xdr:cNvPr id="75" name="直接箭头连接符 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5737F299-9953-46B8-B6BE-42FB424C9D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11662,7 +11665,7 @@
         <xdr:cNvPr id="76" name="直接连接符 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8015ED1-F864-4E00-99F6-BA2464429C55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11707,7 +11710,7 @@
         <xdr:cNvPr id="77" name="文本框 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8764F76C-B26E-4D17-B23C-AD4B44E544B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11778,7 +11781,7 @@
         <xdr:cNvPr id="78" name="文本框 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A17F2C6-5EDA-434A-8555-CB38E0CC4099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11849,7 +11852,7 @@
         <xdr:cNvPr id="79" name="文本框 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AE2936-2D9F-4DB4-AFE9-11941AC71D20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11920,7 +11923,7 @@
         <xdr:cNvPr id="80" name="文本框 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A00F70-199A-49AE-B603-513B391F5905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11996,7 +11999,7 @@
         <xdr:cNvPr id="81" name="直接箭头连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DD615A-08DD-4018-816D-4C4F51166C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12049,7 +12052,7 @@
         <xdr:cNvPr id="82" name="图片 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F9B8C0-A20E-4186-B95B-5E2FCA4D832C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12093,7 +12096,7 @@
         <xdr:cNvPr id="83" name="图片 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E74CEC-EA75-4B5F-AF05-F8CD1DABAE73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12137,7 +12140,7 @@
         <xdr:cNvPr id="84" name="椭圆 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DC02ED-43EF-46D5-A7DF-FDA9E7953A4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12197,7 +12200,7 @@
         <xdr:cNvPr id="85" name="图片 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECD6D20-5ACB-419E-8188-96B9423C1DA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12241,7 +12244,7 @@
         <xdr:cNvPr id="87" name="直接连接符 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D599952F-DBDC-46FE-B843-E533AAD20D94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12296,7 +12299,7 @@
         <xdr:cNvPr id="91" name="直接箭头连接符 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8771B99-BB57-4283-A0C1-4382F17FA140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12350,7 +12353,7 @@
         <xdr:cNvPr id="93" name="椭圆 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6899C5D0-FCD3-455E-BE06-2A31D5172891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12410,7 +12413,7 @@
         <xdr:cNvPr id="94" name="椭圆 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12465,7 +12468,7 @@
         <xdr:cNvPr id="95" name="文本框 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB57CC2-E881-4B7C-92A6-FABEB8FD4640}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12530,7 +12533,7 @@
         <xdr:cNvPr id="96" name="文本框 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C179AA-E28B-4A19-9C63-DFD3245127E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12595,7 +12598,7 @@
         <xdr:cNvPr id="97" name="文本框 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F52FA7C-D781-4FA8-9E7C-1BC08CA69CD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12665,7 +12668,7 @@
         <xdr:cNvPr id="70" name="直接箭头连接符 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6787E94-31DE-4838-B4B1-0F33D7F95DDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12722,7 +12725,7 @@
         <xdr:cNvPr id="86" name="直接箭头连接符 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA6976B-0BBD-4CFF-A27B-FDA8A62239B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12779,7 +12782,7 @@
         <xdr:cNvPr id="88" name="椭圆 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A179E359-7FAF-44A9-8201-FF4B246B9B06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12845,7 +12848,7 @@
         <xdr:cNvPr id="2" name="椭圆 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5C6723-ADB0-4EDC-BED9-F765D11EB69A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12911,7 +12914,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DD8A6C-8810-42CB-84EC-482453F34183}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12963,7 +12966,7 @@
         <xdr:cNvPr id="98" name="文本框 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94103CD-8429-4B53-A3FB-E27B8C5730C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13034,7 +13037,7 @@
         <xdr:cNvPr id="99" name="文本框 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2FD68B-F445-4D2D-941B-75E6D94EE717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13105,7 +13108,7 @@
         <xdr:cNvPr id="100" name="文本框 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B768A36E-60F7-4F17-AF3E-DA1FF96D1D5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13176,7 +13179,7 @@
         <xdr:cNvPr id="101" name="文本框 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8730B022-7D46-45CD-968D-C55E1B3F17C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13247,7 +13250,7 @@
         <xdr:cNvPr id="102" name="文本框 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600F8A95-638B-4FC1-BAAB-9A1BF9CA4D09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13318,7 +13321,7 @@
         <xdr:cNvPr id="103" name="文本框 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE2A04F-16FA-4DFB-BAC2-7B8290EFF50E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13389,7 +13392,7 @@
         <xdr:cNvPr id="18" name="文本框 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC55CA61-11C0-4773-BD3A-E8118C75A78C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13459,7 +13462,7 @@
         <xdr:cNvPr id="21" name="直接连接符 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E258764-3407-4DC1-B490-84F903AFD571}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13506,7 +13509,7 @@
         <xdr:cNvPr id="23" name="文本框 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6790822C-0751-4B18-9278-38E3E787419E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13573,7 +13576,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="平行四边形 13"/>
+        <xdr:cNvPr id="14" name="平行四边形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13637,7 +13646,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13679,7 +13694,13 @@
     <xdr:ext cx="864147" cy="400366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvPr id="24" name="文本框 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13744,7 +13765,13 @@
     <xdr:ext cx="665368" cy="708399"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="文本框 24"/>
+        <xdr:cNvPr id="25" name="文本框 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13830,7 +13857,13 @@
     <xdr:ext cx="610808" cy="708399"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="文本框 32"/>
+        <xdr:cNvPr id="33" name="文本框 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -13912,7 +13945,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="曲线连接符 36"/>
+        <xdr:cNvPr id="37" name="曲线连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="1"/>
           <a:endCxn id="14" idx="4"/>
@@ -13962,7 +14001,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="平行四边形 89"/>
+        <xdr:cNvPr id="90" name="平行四边形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14026,7 +14071,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直接箭头连接符 91"/>
+        <xdr:cNvPr id="92" name="直接箭头连接符 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14068,7 +14119,13 @@
     <xdr:ext cx="864147" cy="400366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="文本框 103"/>
+        <xdr:cNvPr id="104" name="文本框 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14133,7 +14190,13 @@
     <xdr:ext cx="665368" cy="708399"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="文本框 104"/>
+        <xdr:cNvPr id="105" name="文本框 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14227,7 +14290,7 @@
         <xdr:cNvPr id="106" name="椭圆 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14287,7 +14350,7 @@
         <xdr:cNvPr id="107" name="椭圆 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14347,7 +14410,7 @@
         <xdr:cNvPr id="108" name="椭圆 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14404,7 +14467,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直接连接符 43"/>
+        <xdr:cNvPr id="44" name="直接连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="108" idx="1"/>
           <a:endCxn id="106" idx="5"/>
@@ -14451,7 +14520,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直接连接符 50"/>
+        <xdr:cNvPr id="51" name="直接连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="106" idx="2"/>
           <a:endCxn id="107" idx="7"/>
@@ -14498,7 +14573,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="图片 63"/>
+        <xdr:cNvPr id="64" name="图片 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14536,7 +14617,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="图片 64"/>
+        <xdr:cNvPr id="65" name="图片 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14574,7 +14661,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPr id="66" name="图片 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14612,7 +14705,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="图片 88"/>
+        <xdr:cNvPr id="89" name="图片 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14650,7 +14749,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="图片 108"/>
+        <xdr:cNvPr id="109" name="图片 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -14688,7 +14793,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="平行四边形 112"/>
+        <xdr:cNvPr id="113" name="平行四边形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14752,7 +14863,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="直接箭头连接符 113"/>
+        <xdr:cNvPr id="114" name="直接箭头连接符 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14794,7 +14911,13 @@
     <xdr:ext cx="665368" cy="708399"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="文本框 114"/>
+        <xdr:cNvPr id="115" name="文本框 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -14888,7 +15011,7 @@
         <xdr:cNvPr id="117" name="椭圆 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14948,7 +15071,7 @@
         <xdr:cNvPr id="118" name="椭圆 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE82351-97A4-4125-9B05-7AA2DECF4C9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15005,7 +15128,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="直接连接符 119"/>
+        <xdr:cNvPr id="120" name="直接连接符 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15049,7 +15178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="122" name="图片 121"/>
+        <xdr:cNvPr id="122" name="图片 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15087,7 +15222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="图片 122"/>
+        <xdr:cNvPr id="123" name="图片 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15125,7 +15266,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="图片 123"/>
+        <xdr:cNvPr id="124" name="图片 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15163,7 +15310,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="图片 124"/>
+        <xdr:cNvPr id="125" name="图片 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15178,6 +15331,2531 @@
         <a:xfrm>
           <a:off x="17005300" y="12122151"/>
           <a:ext cx="261937" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340692</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89074</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>215995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="等腰三角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8099D3FF-1E18-4B72-AE8A-14B92C2F61F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="1455117" y="15645875"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>247623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2DA649-8E13-4435-87C5-A0EA32CEABCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="18707100"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133321</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>333348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E06EE2-D7B9-4818-BD4B-CCCCE27C5C68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="15268575"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352395</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F5EA9B-46E6-4E85-8A30-FD02500B65AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="17554575"/>
+          <a:ext cx="238095" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256085</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>239977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>251411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="弧形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0524BC82-0405-464B-BC5A-773AB535C44A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17259736">
+          <a:off x="3864888" y="18319599"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15864058"/>
+            <a:gd name="adj2" fmla="val 20644207"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84553</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>239297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57887</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="弧形 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5095713F-B8DE-4942-BE1D-CCB1778031BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9492062">
+          <a:off x="2684878" y="15393572"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16312574"/>
+            <a:gd name="adj2" fmla="val 21531377"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97158</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="弧形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED9F430-48B5-4351-A863-AD685ABFB6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2351618">
+          <a:off x="866774" y="17249775"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16312574"/>
+            <a:gd name="adj2" fmla="val 21449785"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371451</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>314300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="图片 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FC534C-59F8-4E32-B57C-12E9BCE67207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="16325850"/>
+          <a:ext cx="190476" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47599</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="图片 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC943A7-2592-43F3-9809-C4DEA5EA8D6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="18221325"/>
+          <a:ext cx="209524" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285724</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="图片 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E944944-5EC4-4B3E-B3A3-0C1132AF5767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="16792575"/>
+          <a:ext cx="209524" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182587</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="图片 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA91F917-0239-4BFE-86A4-F8B992E64D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="18327976"/>
+          <a:ext cx="173062" cy="207674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228572</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76173</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="图片 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784696FA-492B-46FA-92E3-885AFB6F5E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828897" y="15687674"/>
+          <a:ext cx="219076" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361927</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="图片 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC397E1-8A96-4D22-B476-1B4C12622D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="17449800"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57137</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>304774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直接箭头连接符 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4B40B8-8234-4EA3-B27A-BB3DC7040455}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3028937" y="15459049"/>
+          <a:ext cx="1495438" cy="3162326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328598</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直接箭头连接符 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5149AF1C-B4B0-49EB-A334-8469C6391FE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1071548" y="15459075"/>
+          <a:ext cx="1824052" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19020</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直接箭头连接符 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166900D6-2C61-44A2-92D1-0124917D4D52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133445" y="17706961"/>
+          <a:ext cx="3267105" cy="1047764"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="等腰三角形 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AEB2DA-3454-4927-961B-35CA72C5124F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="16925925"/>
+          <a:ext cx="1847849" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="等腰三角形 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2820B4FB-BE4C-4439-8BD5-0DED79CC270E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6867524" y="16925923"/>
+          <a:ext cx="1876425" cy="1409701"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50508"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="直接箭头连接符 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC7F73B-3A2E-423A-95DF-FB6F35769966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="18516600"/>
+          <a:ext cx="1866900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="152" name="直接箭头连接符 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AB8CB6-6BFB-45CB-93A9-A23164D234E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="16906875"/>
+          <a:ext cx="0" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="511807" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="文本框 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605E4FB4-230E-4BA8-B167-615B10844360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="18507075"/>
+          <a:ext cx="511807" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>base</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>211295</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>64931</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="334451" cy="642740"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="文本框 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FF7CF9-A724-451E-BCD6-AE5CE3C62E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5257801" y="17487900"/>
+          <a:ext cx="642740" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>height</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="直接箭头连接符 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB04715-20DF-4F60-BCE3-0EC0370D74DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648825" y="17973675"/>
+          <a:ext cx="3724275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="直接箭头连接符 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927D340F-4F83-4A28-8753-F6358E6FC9D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="15144750"/>
+          <a:ext cx="0" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="直接箭头连接符 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96B0EB1-4CA6-4BD6-B96B-AFAAA4A8CCA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10772775" y="15868650"/>
+          <a:ext cx="1857375" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="矩形 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9214273-2E3B-4612-B76A-CD7CDBE054E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="16573500"/>
+          <a:ext cx="1838325" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>361953</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>352424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="直角三角形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4060EF3F-581F-4DB7-B9F1-C5430CAF86AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="11391902" y="15335248"/>
+          <a:ext cx="676274" cy="1781178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>340692</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>148700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>89074</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>225520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="等腰三角形 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACAB502-763D-4B58-BA32-6E960C662D8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="15199692" y="15655400"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>228575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>257148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="图片 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312DA953-41A6-499C-8B35-5AA5245B9F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18230850" y="18716625"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>133321</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>342873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="图片 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575511FC-59FD-436A-A1EF-736C182B7B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16621125" y="15278100"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>352395</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="图片 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE031E6-50A0-4403-A443-DCFD16323F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14601825" y="17564100"/>
+          <a:ext cx="238095" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>223519</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>67944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="椭圆 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE3B14B-E032-433F-9F7C-2726E6493983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16525875" y="17287875"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="312330"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="文本框 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B84EFAB-2178-4439-B231-8C183F177C4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16783050" y="15240000"/>
+          <a:ext cx="633571" cy="312330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(0, 1, 0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="312330"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="文本框 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31585F33-7CE1-4246-A3D0-C7AEB0B8F82D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15001875" y="17364075"/>
+          <a:ext cx="633571" cy="312330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(0, 0, 1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="312330"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="文本框 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE9FE14-4AF1-497A-9C94-78236A0141AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18164175" y="18392775"/>
+          <a:ext cx="633571" cy="312330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(1, 0, 0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1023485" cy="312330"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="文本框 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6449AED1-B433-42B1-9AA7-D3C525C09769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16059150" y="17316450"/>
+          <a:ext cx="1023485" cy="312330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(1/3, 1/3, 1/3)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="845681" cy="312330"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="文本框 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157489DB-345E-4C7E-8F5C-CF130F507C72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17440275" y="16697325"/>
+          <a:ext cx="845681" cy="312330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> 0.5, 0.5)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>356869</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>144144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="椭圆 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EDA30E-2034-4EFD-8AE0-6482B74EF5A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17402175" y="17011650"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>33019</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>20319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="椭圆 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF2A2A7-4C8F-46E7-AFF7-A71749531051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17078325" y="18297525"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="996107" cy="312330"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="文本框 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC90081-EBC3-4B09-BCF1-7EFF3756A0A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16325850" y="18345150"/>
+          <a:ext cx="996107" cy="312330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(0.25, 0, 0.75)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>204469</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>29844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="椭圆 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47951D4C-EED2-4B8B-89B2-012B1E316D22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15020925" y="15840075"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="689035" cy="312330"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="文本框 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579B699E-0F7D-44D8-8837-5FD6E1562B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14735175" y="15554325"/>
+          <a:ext cx="689035" cy="312330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(6,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> 6, -2)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>247632</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>85681</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>257130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="图片 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B1EB30-E693-4B20-8742-7FD69DAFCD66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18708752">
+          <a:off x="15325726" y="16459200"/>
+          <a:ext cx="514286" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>199956</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="图片 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B56E2A-2B85-4AEC-A57C-D52F786E1E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="1064821">
+          <a:off x="15621000" y="17954624"/>
+          <a:ext cx="552381" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>219055</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>285770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>28532</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="图片 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E721085A-53B2-4D68-9938-9DFA360A644A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="3785256">
+          <a:off x="17516475" y="17364075"/>
+          <a:ext cx="504762" cy="180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15492,7 +18170,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15509,7 +18187,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15526,7 +18204,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15546,9 +18224,9 @@
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="1"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15563,14 +18241,18 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ36" sqref="AZ36"/>
+    <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW58" sqref="AW58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -15725,8 +15725,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371451</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3151</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>314300</xdr:rowOff>
     </xdr:to>
@@ -16203,15 +16203,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:colOff>187324</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:rowOff>15873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>206374</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16226,8 +16226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6867524" y="16925923"/>
-          <a:ext cx="1876425" cy="1409701"/>
+          <a:off x="6816724" y="17084673"/>
+          <a:ext cx="1860550" cy="1422401"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -16630,86 +16630,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>6354</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="163" name="直接箭头连接符 162">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96B0EB1-4CA6-4BD6-B96B-AFAAA4A8CCA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10772775" y="15868650"/>
-          <a:ext cx="1857375" cy="704850"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>41276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>361955</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="矩形 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9214273-2E3B-4612-B76A-CD7CDBE054E6}"/>
+        <xdr:cNvPr id="167" name="直角三角形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4060EF3F-581F-4DB7-B9F1-C5430CAF86AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10782300" y="16573500"/>
-          <a:ext cx="1838325" cy="1390650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:xfrm rot="16200000">
+          <a:off x="11263318" y="15467012"/>
+          <a:ext cx="676274" cy="1828801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rtTriangle">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -16757,33 +16704,88 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>41276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>361953</xdr:colOff>
+      <xdr:colOff>361956</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>352424</xdr:rowOff>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="直接箭头连接符 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96B0EB1-4CA6-4BD6-B96B-AFAAA4A8CCA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="167" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10680700" y="16043276"/>
+          <a:ext cx="1835156" cy="657224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="直角三角形 166">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4060EF3F-581F-4DB7-B9F1-C5430CAF86AD}"/>
+        <xdr:cNvPr id="166" name="矩形 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9214273-2E3B-4612-B76A-CD7CDBE054E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="11391902" y="15335248"/>
-          <a:ext cx="676274" cy="1781178"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
+        <a:xfrm>
+          <a:off x="10782300" y="16573500"/>
+          <a:ext cx="1838325" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -18170,7 +18172,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18187,7 +18189,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18204,7 +18206,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18224,9 +18226,9 @@
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18244,12 +18246,12 @@
   <dimension ref="O45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW58" sqref="AW58"/>
+      <selection activeCell="AJ47" sqref="AJ47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="15:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O45" s="2"/>
     </row>
   </sheetData>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -8923,6 +8923,61 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直接连接符 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1211CE25-3640-45CD-922D-7A5162016F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="21859875"/>
+          <a:ext cx="5486400" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -16515,63 +16570,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="直接箭头连接符 158">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB04715-20DF-4F60-BCE3-0EC0370D74DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9648825" y="17973675"/>
-          <a:ext cx="3724275" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
@@ -16630,13 +16628,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>6354</xdr:colOff>
+      <xdr:colOff>9528</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>41276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>361955</xdr:colOff>
+      <xdr:colOff>361957</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -16653,8 +16651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="11263318" y="15467012"/>
-          <a:ext cx="676274" cy="1828801"/>
+          <a:off x="11366506" y="15316198"/>
+          <a:ext cx="669924" cy="1838329"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
           <a:avLst/>
@@ -16703,16 +16701,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>41276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>361956</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>361958</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16729,8 +16727,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10680700" y="16043276"/>
-          <a:ext cx="1835156" cy="657224"/>
+          <a:off x="10763250" y="15900401"/>
+          <a:ext cx="1857383" cy="682624"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16828,6 +16826,63 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="直接箭头连接符 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB04715-20DF-4F60-BCE3-0EC0370D74DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648825" y="17973675"/>
+          <a:ext cx="3724275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -17399,14 +17454,14 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>(0,</a:t>
+            <a:t>(0.5,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t> 0.5, 0.5)</a:t>
+            <a:t> 0.5, 0)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
@@ -17591,7 +17646,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>(0.25, 0, 0.75)</a:t>
+            <a:t>(0.75, 0, 0.25)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
@@ -17669,7 +17724,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="689035" cy="312330"/>
+    <xdr:ext cx="1007199" cy="312330"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="182" name="文本框 181">
@@ -17684,7 +17739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14735175" y="15554325"/>
-          <a:ext cx="689035" cy="312330"/>
+          <a:ext cx="1007199" cy="312330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17716,14 +17771,14 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>(6,</a:t>
+            <a:t>(-0.2,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t> 6, -2)</a:t>
+            <a:t> 0.6, 0.6)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
@@ -17866,6 +17921,1633 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>57124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="图片 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9245B467-635B-4FBB-BEF6-14B712709AE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="22745701"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66646</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="图片 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68341677-4E47-43CA-A852-5ABEA62B5AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="22078951"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38070</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="图片 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7207566-F3CC-44E7-A7CA-58DBAE4B401F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="22412326"/>
+          <a:ext cx="238095" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B479148F-9E5F-4797-8963-6EAC5F64BDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="20107275"/>
+          <a:ext cx="3114675" cy="4181475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直接连接符 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA926D1-2B2E-4DAD-8627-CB8DB1C13707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="847725" y="20640676"/>
+          <a:ext cx="4733925" cy="3448049"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="直接连接符 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9CE28F-DC6F-4BB4-841E-BA51DFF6D592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1714500" y="21697950"/>
+          <a:ext cx="4591050" cy="3324226"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="187" name="直接连接符 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7287768-AFA9-4DED-B688-3D72DCC5B55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="20097750"/>
+          <a:ext cx="3648075" cy="4905375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74065</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>232684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>153962</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>262141</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="等腰三角形 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968C9D4A-92BB-43BE-954D-6D73C003C0FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="3045865" y="22083034"/>
+          <a:ext cx="1565797" cy="734307"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 33756"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直接连接符 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FC8B76-9A12-425A-A650-DB159F91CF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="21078825"/>
+          <a:ext cx="5486400" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直接连接符 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7343400-E954-4179-9939-A5FD3D5CB808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="733425" y="20097750"/>
+          <a:ext cx="3400425" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直接连接符 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4358204D-2C2D-4D66-9B9C-574FEE918849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="20288250"/>
+          <a:ext cx="5486400" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="直接连接符 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A894200A-86DF-470C-A4F4-A7DD2B5CA360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="21164550"/>
+          <a:ext cx="2857500" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直接连接符 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7033B99C-D8C5-4D6B-9792-E7E596EC6B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="22593300"/>
+          <a:ext cx="5486400" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="193" name="直接连接符 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DCD370-B022-4F5A-8A7F-6567E77DAAF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="20097750"/>
+          <a:ext cx="2857500" cy="3905250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直接连接符 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BE4F81-EECF-4CE8-B68D-D4ABFD8214BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="20050125"/>
+          <a:ext cx="1790700" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="直接连接符 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF78B4C-7064-4739-BA08-0980DC37A869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="23393400"/>
+          <a:ext cx="4943475" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直接连接符 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274173F8-0B92-467D-B077-77BDD3CAAEE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="22621875"/>
+          <a:ext cx="1790700" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="255180"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="文本框 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF307425-C5CC-4173-B07B-579B12F31A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="22869525"/>
+          <a:ext cx="633571" cy="255180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(1, 0, 0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="226605"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="文本框 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6881F92B-BEC1-47CC-B305-C5B57FEC8DB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="22155149"/>
+          <a:ext cx="633571" cy="226605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(0, 0, 1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="226605"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="文本框 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4193783D-2CB2-48D0-8DD9-0E28C069135C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="21593174"/>
+          <a:ext cx="633571" cy="226605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(0, 1, 0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228620</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>209534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371431</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="图片 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56A20F2-0E3D-4744-8BB7-F6A4904F12B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="19385686">
+          <a:off x="3943370" y="21707459"/>
+          <a:ext cx="514286" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276155</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="201" name="图片 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C4E16B-8E0D-4936-AFD5-3A797BBB1635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="1077049">
+          <a:off x="3438524" y="22812375"/>
+          <a:ext cx="552381" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219052</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="图片 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B40C69-19A3-461E-AFAD-A2D0573E7E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="3153993">
+          <a:off x="3962420" y="22402782"/>
+          <a:ext cx="504762" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="226605"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="文本框 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EDFA81-5FEB-4CE2-BEFE-636791D588A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="21326475"/>
+          <a:ext cx="633571" cy="226605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(-1, 1, 1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="226605"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="文本框 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7372A6-CFEA-4E71-9734-BB50D46806AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="21859875"/>
+          <a:ext cx="633571" cy="226605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(-1, 0, 2)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="217080"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="文本框 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDF066B-AC92-48A7-A016-EE4B4C8BF6AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="22669500"/>
+          <a:ext cx="633571" cy="217080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(0, -1, 2)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="217080"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="文本框 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B6D5AB-997E-45CF-BAF0-32CE6C78E630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="23402925"/>
+          <a:ext cx="633571" cy="217080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(1, -1, 1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="217080"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="文本框 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974A9FDE-E51A-4901-B7B7-C01ECAB7AD37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076575" y="23955375"/>
+          <a:ext cx="633571" cy="217080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(1, -2, 2)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="633571" cy="217080"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="文本框 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BE4A11-DA99-48A9-92FC-0CCEF36A941A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="23202900"/>
+          <a:ext cx="633571" cy="217080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>(0, -1, 3)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18172,7 +19854,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18189,7 +19871,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18206,7 +19888,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18226,9 +19908,9 @@
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="1"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -18245,13 +19927,13 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ47" sqref="AJ47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y68" sqref="Y68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="45" spans="15:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O45" s="2"/>
     </row>
   </sheetData>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -8920,6 +8920,50 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>227839</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="图片 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471FCD33-DE1D-48DD-B7BA-30A4AD3D57DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9182100" y="21678900"/>
+          <a:ext cx="704089" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -9766,50 +9810,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6343650" y="3181350"/>
-          <a:ext cx="314286" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>38055</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>352390</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
@@ -9817,8 +9817,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9334500" y="781050"/>
-          <a:ext cx="361905" cy="276190"/>
+          <a:off x="6343650" y="3181350"/>
+          <a:ext cx="314286" cy="295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9827,78 +9827,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>352424</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直接箭头连接符 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10410825" y="1066800"/>
-          <a:ext cx="2590800" cy="2105024"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>342870</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>342864</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38055</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>352390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9914,8 +9861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10134600" y="2876550"/>
-          <a:ext cx="238095" cy="285714"/>
+          <a:off x="9334500" y="781050"/>
+          <a:ext cx="361905" cy="276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9924,25 +9871,78 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>352424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10410825" y="1066800"/>
+          <a:ext cx="2590800" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>76176</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>333336</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342870</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9952,6 +9952,50 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="2876550"/>
+          <a:ext cx="238095" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76176</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11459,7 +11503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11568,7 +11612,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12116,7 +12160,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12160,7 +12204,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12264,7 +12308,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -14640,50 +14684,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12941301" y="12820650"/>
-          <a:ext cx="252604" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>82551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>322943</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>336551</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="图片 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
@@ -14691,8 +14691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12547600" y="11817351"/>
-          <a:ext cx="297543" cy="254000"/>
+          <a:off x="12941301" y="12820650"/>
+          <a:ext cx="252604" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14703,23 +14703,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>298450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>192231</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>322943</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>336551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="图片 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
+        <xdr:cNvPr id="65" name="图片 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14735,8 +14735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11398250" y="13100050"/>
-          <a:ext cx="228600" cy="249381"/>
+          <a:off x="12547600" y="11817351"/>
+          <a:ext cx="297543" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14747,23 +14747,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>135978</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>192231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="图片 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+        <xdr:cNvPr id="66" name="图片 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14779,8 +14779,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12788900" y="12255500"/>
-          <a:ext cx="237578" cy="222250"/>
+          <a:off x="11398250" y="13100050"/>
+          <a:ext cx="228600" cy="249381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14791,23 +14791,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>50801</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>260351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>279401</xdr:colOff>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>135978</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="图片 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D000000}"/>
+        <xdr:cNvPr id="89" name="图片 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14817,6 +14817,50 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12788900" y="12255500"/>
+          <a:ext cx="237578" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>260351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="图片 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -15245,50 +15289,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16281400" y="12192001"/>
-          <a:ext cx="175759" cy="196850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>82551</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>279401</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>299627</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="图片 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
@@ -15296,8 +15296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17024351" y="13201651"/>
-          <a:ext cx="196850" cy="255176"/>
+          <a:off x="16281400" y="12192001"/>
+          <a:ext cx="175759" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15309,22 +15309,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>248074</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>299627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="图片 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007C000000}"/>
+        <xdr:cNvPr id="123" name="图片 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15340,8 +15340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17024350" y="10756900"/>
-          <a:ext cx="165524" cy="215900"/>
+          <a:off x="17024351" y="13201651"/>
+          <a:ext cx="196850" cy="255176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15353,22 +15353,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>325437</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>241301</xdr:rowOff>
+      <xdr:colOff>248074</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="图片 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007D000000}"/>
+        <xdr:cNvPr id="124" name="图片 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15384,8 +15384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17005300" y="12122151"/>
-          <a:ext cx="261937" cy="209550"/>
+          <a:off x="17024350" y="10756900"/>
+          <a:ext cx="165524" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15394,88 +15394,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>340692</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>139175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>89074</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>215995</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="等腰三角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8099D3FF-1E18-4B72-AE8A-14B92C2F61F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1074581">
-          <a:off x="1455117" y="15645875"/>
-          <a:ext cx="3463132" cy="2543795"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31467"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228575</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>247623</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>325437</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>241301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2DA649-8E13-4435-87C5-A0EA32CEABCE}"/>
+        <xdr:cNvPr id="125" name="图片 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15491,8 +15428,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="18707100"/>
-          <a:ext cx="200000" cy="219048"/>
+          <a:off x="17005300" y="12122151"/>
+          <a:ext cx="261937" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15501,25 +15438,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340692</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89074</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>215995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="等腰三角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8099D3FF-1E18-4B72-AE8A-14B92C2F61F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="1455117" y="15645875"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133321</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>333348</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>247623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="图片 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E06EE2-D7B9-4818-BD4B-CCCCE27C5C68}"/>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2DA649-8E13-4435-87C5-A0EA32CEABCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15535,8 +15535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="15268575"/>
-          <a:ext cx="228571" cy="219048"/>
+          <a:off x="4486275" y="18707100"/>
+          <a:ext cx="200000" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15547,23 +15547,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352395</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161896</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133321</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>333348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="图片 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F5EA9B-46E6-4E85-8A30-FD02500B65AD}"/>
+        <xdr:cNvPr id="41" name="图片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E06EE2-D7B9-4818-BD4B-CCCCE27C5C68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15579,8 +15579,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="17554575"/>
-          <a:ext cx="238095" cy="228571"/>
+          <a:off x="2876550" y="15268575"/>
+          <a:ext cx="228571" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15589,208 +15589,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>256085</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>239977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17525</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>251411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="弧形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0524BC82-0405-464B-BC5A-773AB535C44A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="17259736">
-          <a:off x="3864888" y="18319599"/>
-          <a:ext cx="716284" cy="504390"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 15864058"/>
-            <a:gd name="adj2" fmla="val 20644207"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>84553</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>239297</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57887</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38837</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="弧形 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5095713F-B8DE-4942-BE1D-CCB1778031BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="9492062">
-          <a:off x="2684878" y="15393572"/>
-          <a:ext cx="716284" cy="504390"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16312574"/>
-            <a:gd name="adj2" fmla="val 21531377"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>97158</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352395</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>132915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="弧形 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED9F430-48B5-4351-A863-AD685ABFB6AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2351618">
-          <a:off x="866774" y="17249775"/>
-          <a:ext cx="716284" cy="504390"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16312574"/>
-            <a:gd name="adj2" fmla="val 21449785"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3151</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>314300</xdr:rowOff>
+      <xdr:rowOff>161896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="图片 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FC534C-59F8-4E32-B57C-12E9BCE67207}"/>
+        <xdr:cNvPr id="42" name="图片 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F5EA9B-46E6-4E85-8A30-FD02500B65AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15806,8 +15623,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666875" y="16325850"/>
-          <a:ext cx="190476" cy="200000"/>
+          <a:off x="857250" y="17554575"/>
+          <a:ext cx="238095" cy="228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15816,25 +15633,208 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256085</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>239977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>251411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="弧形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0524BC82-0405-464B-BC5A-773AB535C44A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17259736">
+          <a:off x="3864888" y="18319599"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15864058"/>
+            <a:gd name="adj2" fmla="val 20644207"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84553</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>239297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57887</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="弧形 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5095713F-B8DE-4942-BE1D-CCB1778031BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9492062">
+          <a:off x="2684878" y="15393572"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16312574"/>
+            <a:gd name="adj2" fmla="val 21531377"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97158</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="弧形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED9F430-48B5-4351-A863-AD685ABFB6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2351618">
+          <a:off x="866774" y="17249775"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16312574"/>
+            <a:gd name="adj2" fmla="val 21449785"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47599</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76177</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3151</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>314300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="图片 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC943A7-2592-43F3-9809-C4DEA5EA8D6A}"/>
+        <xdr:cNvPr id="129" name="图片 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FC534C-59F8-4E32-B57C-12E9BCE67207}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15850,8 +15850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="18221325"/>
-          <a:ext cx="209524" cy="180952"/>
+          <a:off x="1666875" y="16325850"/>
+          <a:ext cx="190476" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15862,23 +15862,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285724</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76175</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47599</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="图片 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E944944-5EC4-4B3E-B3A3-0C1132AF5767}"/>
+        <xdr:cNvPr id="130" name="图片 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC943A7-2592-43F3-9809-C4DEA5EA8D6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15894,8 +15894,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790950" y="16792575"/>
-          <a:ext cx="209524" cy="200000"/>
+          <a:off x="2438400" y="18221325"/>
+          <a:ext cx="209524" cy="180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15906,23 +15906,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182587</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285724</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="图片 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA91F917-0239-4BFE-86A4-F8B992E64D4F}"/>
+        <xdr:cNvPr id="131" name="图片 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E944944-5EC4-4B3E-B3A3-0C1132AF5767}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15938,8 +15938,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="18327976"/>
-          <a:ext cx="173062" cy="207674"/>
+          <a:off x="3790950" y="16792575"/>
+          <a:ext cx="209524" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15950,23 +15950,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228572</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76173</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182587</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="图片 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784696FA-492B-46FA-92E3-885AFB6F5E9C}"/>
+        <xdr:cNvPr id="132" name="图片 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA91F917-0239-4BFE-86A4-F8B992E64D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15982,8 +15982,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828897" y="15687674"/>
-          <a:ext cx="219076" cy="200025"/>
+          <a:off x="4095750" y="18327976"/>
+          <a:ext cx="173062" cy="207674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15994,23 +15994,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361927</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19026</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228572</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76173</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="134" name="图片 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC397E1-8A96-4D22-B476-1B4C12622D00}"/>
+        <xdr:cNvPr id="133" name="图片 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784696FA-492B-46FA-92E3-885AFB6F5E9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16020,6 +16020,50 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828897" y="15687674"/>
+          <a:ext cx="219076" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361927</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="图片 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC397E1-8A96-4D22-B476-1B4C12622D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16975,50 +17019,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18230850" y="18716625"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>133321</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>342873</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="170" name="图片 169">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575511FC-59FD-436A-A1EF-736C182B7B72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
@@ -17026,8 +17026,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16621125" y="15278100"/>
-          <a:ext cx="228571" cy="219048"/>
+          <a:off x="18230850" y="18716625"/>
+          <a:ext cx="200000" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17038,23 +17038,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>352395</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>171421</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>133321</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>342873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="171" name="图片 170">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE031E6-50A0-4403-A443-DCFD16323F5E}"/>
+        <xdr:cNvPr id="170" name="图片 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575511FC-59FD-436A-A1EF-736C182B7B72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17064,6 +17064,50 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16621125" y="15278100"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>352395</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="图片 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE031E6-50A0-4403-A443-DCFD16323F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17816,59 +17860,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="18708752">
-          <a:off x="15325726" y="16459200"/>
-          <a:ext cx="514286" cy="209524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>199956</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>180949</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="185" name="图片 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B56E2A-2B85-4AEC-A57C-D52F786E1E77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="1064821">
-          <a:off x="15621000" y="17954624"/>
-          <a:ext cx="552381" cy="200000"/>
+        <a:xfrm rot="18708752">
+          <a:off x="15325726" y="16459200"/>
+          <a:ext cx="514286" cy="209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17879,23 +17879,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>219055</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>285770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>28532</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>85682</xdr:rowOff>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>199956</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="186" name="图片 185">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E721085A-53B2-4D68-9938-9DFA360A644A}"/>
+        <xdr:cNvPr id="185" name="图片 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B56E2A-2B85-4AEC-A57C-D52F786E1E77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17910,9 +17910,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="3785256">
-          <a:off x="17516475" y="17364075"/>
-          <a:ext cx="504762" cy="180952"/>
+        <a:xfrm rot="1064821">
+          <a:off x="15621000" y="17954624"/>
+          <a:ext cx="552381" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17923,23 +17923,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209525</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>57124</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>219055</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>285770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>28532</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="160" name="图片 159">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9245B467-635B-4FBB-BEF6-14B712709AE3}"/>
+        <xdr:cNvPr id="186" name="图片 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E721085A-53B2-4D68-9938-9DFA360A644A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17948,15 +17948,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4095750" y="22745701"/>
-          <a:ext cx="200000" cy="219048"/>
+        <a:xfrm rot="3785256">
+          <a:off x="17516475" y="17364075"/>
+          <a:ext cx="504762" cy="180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17967,23 +17967,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66646</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95224</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>57124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="162" name="图片 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68341677-4E47-43CA-A852-5ABEA62B5AE7}"/>
+        <xdr:cNvPr id="160" name="图片 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9245B467-635B-4FBB-BEF6-14B712709AE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17999,8 +17999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3552825" y="22078951"/>
-          <a:ext cx="228571" cy="219048"/>
+          <a:off x="4095750" y="22745701"/>
+          <a:ext cx="200000" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18011,23 +18011,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66646</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38070</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>85697</xdr:rowOff>
+      <xdr:rowOff>95224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="图片 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7207566-F3CC-44E7-A7CA-58DBAE4B401F}"/>
+        <xdr:cNvPr id="162" name="图片 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68341677-4E47-43CA-A852-5ABEA62B5AE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18037,6 +18037,50 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="22078951"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38070</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="图片 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7207566-F3CC-44E7-A7CA-58DBAE4B401F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19053,59 +19097,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="19385686">
-          <a:off x="3943370" y="21707459"/>
-          <a:ext cx="514286" cy="209524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>276155</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>104750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="201" name="图片 200">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C4E16B-8E0D-4936-AFD5-3A797BBB1635}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="1077049">
-          <a:off x="3438524" y="22812375"/>
-          <a:ext cx="552381" cy="200000"/>
+        <a:xfrm rot="19385686">
+          <a:off x="3943370" y="21707459"/>
+          <a:ext cx="514286" cy="209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19116,23 +19116,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219052</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>190439</xdr:rowOff>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276155</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="202" name="图片 201">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B40C69-19A3-461E-AFAD-A2D0573E7E52}"/>
+        <xdr:cNvPr id="201" name="图片 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C4E16B-8E0D-4936-AFD5-3A797BBB1635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19142,6 +19142,50 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="1077049">
+          <a:off x="3438524" y="22812375"/>
+          <a:ext cx="552381" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219052</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="图片 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B40C69-19A3-461E-AFAD-A2D0573E7E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19548,6 +19592,1378 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>312117</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>167750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>60499</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>244570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="209" name="等腰三角形 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B613182-1A7B-403D-A3CC-A75E50D943CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="7741617" y="20255975"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>200000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>276198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="210" name="图片 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F17BB4-4079-4B73-AAEE-C001EC30EDE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="23317200"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104746</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="211" name="图片 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA69513-36B7-4C8D-A1AF-BAE5E12E9247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9163050" y="19878675"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323820</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="212" name="图片 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6004B13C-A9FC-4936-BB62-E85B5DB4DC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="22164675"/>
+          <a:ext cx="238095" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>32012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>338193</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9144000" y="20120237"/>
+          <a:ext cx="109593" cy="1758688"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4894</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>2875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1876A2BC-F1BB-442D-947F-A4E387BB9824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7434394" y="21869400"/>
+          <a:ext cx="1709606" cy="336250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>328411</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>10574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直接连接符 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87826C85-A987-4C33-A807-6DAAF1D20943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9144000" y="21869400"/>
+          <a:ext cx="1585711" cy="1401224"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>252094</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>48894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="椭圆 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="21850350"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114276</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="图片 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C644265-3B72-4EAB-A300-A05EE8FFC898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="21364575"/>
+          <a:ext cx="190476" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>276204</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>247626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="图片 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C119F6C-A57E-4C43-B3CB-50DF797C1D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="22259925"/>
+          <a:ext cx="171429" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361930</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="图片 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0A0E4A-6DBF-4764-BCE6-746EF1640A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="21383625"/>
+          <a:ext cx="161905" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209531</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>352398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="图片 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9257B6F4-9C52-484C-8BE6-9126FD724C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="21631275"/>
+          <a:ext cx="152381" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="217" name="图片 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF382CF6-F4FE-471C-86C4-6FD2B8CA90E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858750" y="22040850"/>
+          <a:ext cx="200000" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142850</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="218" name="图片 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A3E6B3-CB08-4F3B-A896-A66296F26A89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="21088350"/>
+          <a:ext cx="200000" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>209526</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="219" name="图片 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0803E5-BE6C-44AC-9DB3-F1D685B51CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14135100" y="22098000"/>
+          <a:ext cx="190476" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>312117</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>167750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>60499</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>244570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="等腰三角形 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25785A3-7C92-45FE-88D4-72717B48F8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="12199317" y="20255975"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>200000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>276198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="221" name="图片 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB97923-F785-4F26-9F53-330E76302ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15230475" y="23317200"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>104746</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="图片 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F99B172-2C7E-4608-8706-2051498AB5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13620750" y="19878675"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>323820</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="223" name="图片 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50CB420-91D1-46EA-A7FA-15A5D4DDDB42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11601450" y="22164675"/>
+          <a:ext cx="238095" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>98401</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="224" name="图片 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4D7256-0C29-4144-95EE-11B7A01EBC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12534900" y="20974050"/>
+          <a:ext cx="193651" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76174</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="225" name="图片 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE05428-612E-43B3-ADB9-BBBC8F1862CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239750" y="22755225"/>
+          <a:ext cx="209524" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161899</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="226" name="图片 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA792043-FA3E-4C1D-8A2D-E8DA6BD86945}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14439900" y="21440775"/>
+          <a:ext cx="209524" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114276</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="227" name="图片 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B49512-AFD3-4A59-A5D7-EC9604D1C3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12925425" y="21364575"/>
+          <a:ext cx="190476" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>276204</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>247626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="228" name="图片 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E11135E-F183-4AC4-B824-1843BEB89833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13477875" y="22259925"/>
+          <a:ext cx="171429" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>47605</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="229" name="图片 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6186BB-8192-4206-85FA-EC61EE948523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14001750" y="21707475"/>
+          <a:ext cx="161905" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209531</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>352398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="230" name="图片 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80AF55C2-C6FF-4A14-8391-8B117787607C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13430250" y="21631275"/>
+          <a:ext cx="152381" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>223706</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>333299</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="直接连接符 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C11E6DB-2A62-40C6-A820-3B9408B41623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13596806" y="20107275"/>
+          <a:ext cx="109593" cy="1758688"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>6088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>223706</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>342338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直接连接符 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D9549F-FADC-4BE5-8A28-AD6BE9417C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11887200" y="21856438"/>
+          <a:ext cx="1709606" cy="336250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>223706</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>6088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>323517</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>350037</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="直接连接符 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D88D2A-E47D-474B-82A1-AA071775D634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13596806" y="21856438"/>
+          <a:ext cx="1585711" cy="1401224"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19927,8 +21343,8 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y68" sqref="Y68"/>
+    <sheetView tabSelected="1" topLeftCell="G49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS61" sqref="AS61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="几何图元" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8920,6 +8921,61 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="椭圆 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5461000" y="27127200"/>
+          <a:ext cx="1822450" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
@@ -20962,6 +21018,1635 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327992</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>164575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76374</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>241395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="等腰三角形 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B613182-1A7B-403D-A3CC-A75E50D943CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="1064592" y="26478975"/>
+          <a:ext cx="3431382" cy="2566020"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>273023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="图片 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F17BB4-4079-4B73-AAEE-C001EC30EDE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="29568775"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120621</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>6323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="234" name="图片 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA69513-36B7-4C8D-A1AF-BAE5E12E9247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2473325" y="26098500"/>
+          <a:ext cx="225396" cy="222223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>339695</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>187296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="235" name="图片 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6004B13C-A9FC-4936-BB62-E85B5DB4DC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="469900" y="28403550"/>
+          <a:ext cx="238095" cy="231746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>41537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354069</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="直接连接符 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2393950" y="26355937"/>
+          <a:ext cx="169919" cy="2612763"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16582</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>191206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347598</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>7219</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="237" name="直接连接符 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1876A2BC-F1BB-442D-947F-A4E387BB9824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="214" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="753182" y="27928006"/>
+          <a:ext cx="2540816" cy="527213"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188245</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>341112</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>4224</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="238" name="直接连接符 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87826C85-A987-4C33-A807-6DAAF1D20943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="214" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1661445" y="27400401"/>
+          <a:ext cx="2362667" cy="2118623"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258444</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>36194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="239" name="椭圆 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2425700" y="28079700"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321643</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>151874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>70025</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>228694</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="等腰三角形 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B613182-1A7B-403D-A3CC-A75E50D943CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="5109543" y="26466274"/>
+          <a:ext cx="3431382" cy="2566020"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209526</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>260322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="241" name="图片 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F17BB4-4079-4B73-AAEE-C001EC30EDE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8112126" y="29556074"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114272</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>349222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="242" name="图片 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA69513-36B7-4C8D-A1AF-BAE5E12E9247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6518276" y="26085799"/>
+          <a:ext cx="225396" cy="222223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>298449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333346</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>174595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="243" name="图片 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6004B13C-A9FC-4936-BB62-E85B5DB4DC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514851" y="28390849"/>
+          <a:ext cx="238095" cy="231746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137794</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>296544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="椭圆 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6356350" y="27984450"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>292910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101480</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="247" name="直接连接符 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6089650" y="28029710"/>
+          <a:ext cx="272930" cy="811990"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>131564</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>254810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="248" name="直接连接符 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="244" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6392664" y="27654250"/>
+          <a:ext cx="820936" cy="337360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101480</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>254810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="直接连接符 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="244" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5670550" y="27444700"/>
+          <a:ext cx="692030" cy="546910"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>327991</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>158225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76373</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>235045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="等腰三角形 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B613182-1A7B-403D-A3CC-A75E50D943CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="9535491" y="26472625"/>
+          <a:ext cx="3431382" cy="2566020"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>215874</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>266673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="251" name="图片 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F17BB4-4079-4B73-AAEE-C001EC30EDE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12538074" y="29562425"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>263524</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>120620</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>355573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="252" name="图片 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA69513-36B7-4C8D-A1AF-BAE5E12E9247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944224" y="26092150"/>
+          <a:ext cx="225396" cy="222223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>339694</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="253" name="图片 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6004B13C-A9FC-4936-BB62-E85B5DB4DC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8940799" y="28397200"/>
+          <a:ext cx="238095" cy="231746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="椭圆 253"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9207500" y="26333450"/>
+          <a:ext cx="3714750" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>23494</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>207644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="椭圆 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11029950" y="28251150"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>354070</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>355480</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>165910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="直接连接符 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="256" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11034770" y="26333450"/>
+          <a:ext cx="1410" cy="1924860"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16581</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>183197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>869</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="直接连接符 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="256" idx="2"/>
+          <a:endCxn id="250" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9224081" y="28275597"/>
+          <a:ext cx="1805869" cy="173272"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>17264</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>200484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>335287</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>344878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="直接连接符 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="256" idx="5"/>
+          <a:endCxn id="250" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11066264" y="28292884"/>
+          <a:ext cx="1422923" cy="1211194"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="立方体 275"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1111250" y="31756350"/>
+          <a:ext cx="2127250" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 29505"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="277" name="椭圆 276"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1022350" y="30956250"/>
+          <a:ext cx="2343150" cy="2298700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17144</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="278" name="椭圆 277">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2184400" y="32035750"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28702</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>47752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="立方体 286"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="31191200"/>
+          <a:ext cx="1216152" cy="1216152"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="289" name="椭圆 288"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4806950" y="30949900"/>
+          <a:ext cx="1822450" cy="1758950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213994</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>220344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="椭圆 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="31819850"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21270,7 +22955,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21283,11 +22968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21304,7 +22989,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21320,13 +23005,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -21343,13 +23028,13 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS61" sqref="AS61"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y92" sqref="Y92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="15:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O45" s="2"/>
     </row>
   </sheetData>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="几何图元" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -8921,80 +8920,25 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="椭圆 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5461000" y="27127200"/>
-          <a:ext cx="1822450" cy="1765300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>227839</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>361905</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="图片 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471FCD33-DE1D-48DD-B7BA-30A4AD3D57DE}"/>
+        <xdr:cNvPr id="264" name="图片 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1911DAE8-A1FB-46EE-B0D4-AD9CBA3B188F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9010,6 +8954,419 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="10772775" y="27136725"/>
+          <a:ext cx="361905" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19006</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>209523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="263" name="图片 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2057B7-7897-4D98-BB67-A1E94753D8A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11182350" y="27832050"/>
+          <a:ext cx="352381" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219040</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="261" name="图片 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B274B2-C868-4B8F-83E7-11C7A677808E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257925" y="28155900"/>
+          <a:ext cx="276190" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76179</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="图片 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF392508-E49C-42F3-86EA-2372B86B4081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="27241500"/>
+          <a:ext cx="171429" cy="257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266677</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>314294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0B3530-5C37-48E2-A030-8102EADAE8E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029325" y="28613100"/>
+          <a:ext cx="180952" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161901</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="255" name="图片 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F3A98D-3693-481B-8432-DC669BFBDDD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="26955750"/>
+          <a:ext cx="190476" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276189</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>219048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="246" name="图片 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478D9213-3C23-4300-95AD-2CF48594BF1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="27489150"/>
+          <a:ext cx="285714" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295229</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>314296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="245" name="图片 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA50951-C023-47BB-9572-E452BFDC5B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="27574875"/>
+          <a:ext cx="371429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="椭圆 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5461000" y="27127200"/>
+          <a:ext cx="1822450" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>227839</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="图片 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="9182100" y="21678900"/>
           <a:ext cx="704089" cy="200025"/>
         </a:xfrm>
@@ -9038,7 +9395,7 @@
         <xdr:cNvPr id="128" name="直接连接符 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1211CE25-3640-45CD-922D-7A5162016F62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9866,7 +10223,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9910,7 +10267,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10007,7 +10364,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10051,7 +10408,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11559,7 +11916,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11668,7 +12025,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12216,7 +12573,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12260,7 +12617,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12364,7 +12721,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -14740,7 +15097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -14784,7 +15141,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -14828,7 +15185,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -14872,7 +15229,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -14916,7 +15273,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -15345,604 +15702,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16281400" y="12192001"/>
-          <a:ext cx="175759" cy="196850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>82551</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>279401</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>299627</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="图片 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17024351" y="13201651"/>
-          <a:ext cx="196850" cy="255176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>248074</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="图片 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17024350" y="10756900"/>
-          <a:ext cx="165524" cy="215900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>325437</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>241301</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="图片 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17005300" y="12122151"/>
-          <a:ext cx="261937" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>340692</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>139175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>89074</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>215995</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="等腰三角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8099D3FF-1E18-4B72-AE8A-14B92C2F61F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1074581">
-          <a:off x="1455117" y="15645875"/>
-          <a:ext cx="3463132" cy="2543795"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31467"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228575</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>247623</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2DA649-8E13-4435-87C5-A0EA32CEABCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4486275" y="18707100"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133321</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>333348</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="图片 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E06EE2-D7B9-4818-BD4B-CCCCE27C5C68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2876550" y="15268575"/>
-          <a:ext cx="228571" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352395</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161896</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="图片 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F5EA9B-46E6-4E85-8A30-FD02500B65AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="17554575"/>
-          <a:ext cx="238095" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>256085</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>239977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17525</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>251411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="弧形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0524BC82-0405-464B-BC5A-773AB535C44A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="17259736">
-          <a:off x="3864888" y="18319599"/>
-          <a:ext cx="716284" cy="504390"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 15864058"/>
-            <a:gd name="adj2" fmla="val 20644207"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>84553</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>239297</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57887</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38837</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="弧形 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5095713F-B8DE-4942-BE1D-CCB1778031BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="9492062">
-          <a:off x="2684878" y="15393572"/>
-          <a:ext cx="716284" cy="504390"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16312574"/>
-            <a:gd name="adj2" fmla="val 21531377"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>97158</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>132915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="弧形 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED9F430-48B5-4351-A863-AD685ABFB6AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2351618">
-          <a:off x="866774" y="17249775"/>
-          <a:ext cx="716284" cy="504390"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16312574"/>
-            <a:gd name="adj2" fmla="val 21449785"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3151</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>314300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="图片 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FC534C-59F8-4E32-B57C-12E9BCE67207}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1666875" y="16325850"/>
-          <a:ext cx="190476" cy="200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47599</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76177</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="图片 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC943A7-2592-43F3-9809-C4DEA5EA8D6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
@@ -15950,8 +15709,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="18221325"/>
-          <a:ext cx="209524" cy="180952"/>
+          <a:off x="16281400" y="12192001"/>
+          <a:ext cx="175759" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15962,23 +15721,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285724</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76175</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>299627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="图片 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E944944-5EC4-4B3E-B3A3-0C1132AF5767}"/>
+        <xdr:cNvPr id="123" name="图片 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15994,8 +15753,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790950" y="16792575"/>
-          <a:ext cx="209524" cy="200000"/>
+          <a:off x="17024351" y="13201651"/>
+          <a:ext cx="196850" cy="255176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16006,23 +15765,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182587</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>248074</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="图片 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA91F917-0239-4BFE-86A4-F8B992E64D4F}"/>
+        <xdr:cNvPr id="124" name="图片 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16038,8 +15797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="18327976"/>
-          <a:ext cx="173062" cy="207674"/>
+          <a:off x="17024350" y="10756900"/>
+          <a:ext cx="165524" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16050,23 +15809,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228572</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76173</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>325437</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>241301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="图片 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784696FA-492B-46FA-92E3-885AFB6F5E9C}"/>
+        <xdr:cNvPr id="125" name="图片 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16082,8 +15841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828897" y="15687674"/>
-          <a:ext cx="219076" cy="200025"/>
+          <a:off x="17005300" y="12122151"/>
+          <a:ext cx="261937" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16092,25 +15851,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340692</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89074</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>215995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="等腰三角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="1455117" y="15645875"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361927</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19026</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>247623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="134" name="图片 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC397E1-8A96-4D22-B476-1B4C12622D00}"/>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16126,8 +15948,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295400" y="17449800"/>
-          <a:ext cx="180952" cy="190476"/>
+          <a:off x="4486275" y="18707100"/>
+          <a:ext cx="200000" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16136,212 +15958,142 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133321</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>333348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="15268575"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352395</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="17554575"/>
+          <a:ext cx="238095" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57137</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>304774</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256085</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>239977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直接箭头连接符 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD4B40B8-8234-4EA3-B27A-BB3DC7040455}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3028937" y="15459049"/>
-          <a:ext cx="1495438" cy="3162326"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>328598</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="直接箭头连接符 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5149AF1C-B4B0-49EB-A334-8469C6391FE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1071548" y="15459075"/>
-          <a:ext cx="1824052" cy="2057400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19020</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85711</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>17525</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="直接箭头连接符 142">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166900D6-2C61-44A2-92D1-0124917D4D52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1133445" y="17706961"/>
-          <a:ext cx="3267105" cy="1047764"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>251411</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="等腰三角形 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78AEB2DA-3454-4927-961B-35CA72C5124F}"/>
+        <xdr:cNvPr id="43" name="弧形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5943600" y="16925925"/>
-          <a:ext cx="1847849" cy="1409700"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+        <a:xfrm rot="17259736">
+          <a:off x="3864888" y="18319599"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15864058"/>
+            <a:gd name="adj2" fmla="val 20644207"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -16357,54 +16109,52 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>187324</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>15873</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>206374</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84553</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>239297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57887</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38837</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="等腰三角形 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2820B4FB-BE4C-4439-8BD5-0DED79CC270E}"/>
+        <xdr:cNvPr id="116" name="弧形 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6816724" y="17084673"/>
-          <a:ext cx="1860550" cy="1422401"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
+        <a:xfrm rot="9492062">
+          <a:off x="2684878" y="15393572"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
           <a:avLst>
-            <a:gd name="adj" fmla="val 50508"/>
+            <a:gd name="adj1" fmla="val 16312574"/>
+            <a:gd name="adj2" fmla="val 21531377"/>
           </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -16420,6 +16170,613 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97158</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="弧形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2351618">
+          <a:off x="866774" y="17249775"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16312574"/>
+            <a:gd name="adj2" fmla="val 21449785"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3151</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>314300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="图片 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="16325850"/>
+          <a:ext cx="190476" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47599</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="图片 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="18221325"/>
+          <a:ext cx="209524" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285724</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="图片 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="16792575"/>
+          <a:ext cx="209524" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182587</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="图片 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="18327976"/>
+          <a:ext cx="173062" cy="207674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228572</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76173</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="图片 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828897" y="15687674"/>
+          <a:ext cx="219076" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361927</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="图片 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="17449800"/>
+          <a:ext cx="180952" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57137</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>304774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直接箭头连接符 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3028937" y="15459049"/>
+          <a:ext cx="1495438" cy="3162326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>328598</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直接箭头连接符 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1071548" y="15459075"/>
+          <a:ext cx="1824052" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19020</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直接箭头连接符 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133445" y="17706961"/>
+          <a:ext cx="3267105" cy="1047764"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="等腰三角形 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="16925925"/>
+          <a:ext cx="1847849" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>187324</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="等腰三角形 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6816724" y="17084673"/>
+          <a:ext cx="1860550" cy="1422401"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50508"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>52</xdr:row>
@@ -16436,7 +16793,7 @@
         <xdr:cNvPr id="150" name="直接箭头连接符 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC7F73B-3A2E-423A-95DF-FB6F35769966}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16490,7 +16847,7 @@
         <xdr:cNvPr id="152" name="直接箭头连接符 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AB8CB6-6BFB-45CB-93A9-A23164D234E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16539,7 +16896,7 @@
         <xdr:cNvPr id="154" name="文本框 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605E4FB4-230E-4BA8-B167-615B10844360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16610,7 +16967,7 @@
         <xdr:cNvPr id="155" name="文本框 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FF7CF9-A724-451E-BCD6-AE5CE3C62E36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16686,7 +17043,7 @@
         <xdr:cNvPr id="161" name="直接箭头连接符 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927D340F-4F83-4A28-8753-F6358E6FC9D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16743,7 +17100,7 @@
         <xdr:cNvPr id="167" name="直角三角形 166">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4060EF3F-581F-4DB7-B9F1-C5430CAF86AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16817,7 +17174,7 @@
         <xdr:cNvPr id="163" name="直接箭头连接符 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96B0EB1-4CA6-4BD6-B96B-AFAAA4A8CCA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16872,7 +17229,7 @@
         <xdr:cNvPr id="166" name="矩形 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9214273-2E3B-4612-B76A-CD7CDBE054E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16946,7 +17303,7 @@
         <xdr:cNvPr id="159" name="直接箭头连接符 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB04715-20DF-4F60-BCE3-0EC0370D74DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17003,7 +17360,7 @@
         <xdr:cNvPr id="168" name="等腰三角形 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACAB502-763D-4B58-BA32-6E960C662D8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17066,7 +17423,7 @@
         <xdr:cNvPr id="169" name="图片 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312DA953-41A6-499C-8B35-5AA5245B9F99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17075,7 +17432,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17110,7 +17467,7 @@
         <xdr:cNvPr id="170" name="图片 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575511FC-59FD-436A-A1EF-736C182B7B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17119,7 +17476,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17154,7 +17511,7 @@
         <xdr:cNvPr id="171" name="图片 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE031E6-50A0-4403-A443-DCFD16323F5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17163,7 +17520,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17198,7 +17555,7 @@
         <xdr:cNvPr id="172" name="椭圆 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE3B14B-E032-433F-9F7C-2726E6493983}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17253,7 +17610,7 @@
         <xdr:cNvPr id="173" name="文本框 172">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B84EFAB-2178-4439-B231-8C183F177C4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17318,7 +17675,7 @@
         <xdr:cNvPr id="174" name="文本框 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31585F33-7CE1-4246-A3D0-C7AEB0B8F82D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17383,7 +17740,7 @@
         <xdr:cNvPr id="175" name="文本框 174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE9FE14-4AF1-497A-9C94-78236A0141AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000AF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17448,7 +17805,7 @@
         <xdr:cNvPr id="176" name="文本框 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6449AED1-B433-42B1-9AA7-D3C525C09769}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17513,7 +17870,7 @@
         <xdr:cNvPr id="177" name="文本框 176">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157489DB-345E-4C7E-8F5C-CF130F507C72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17590,7 +17947,7 @@
         <xdr:cNvPr id="178" name="椭圆 177">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EDA30E-2034-4EFD-8AE0-6482B74EF5A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17650,7 +18007,7 @@
         <xdr:cNvPr id="179" name="椭圆 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF2A2A7-4C8F-46E7-AFF7-A71749531051}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17705,7 +18062,7 @@
         <xdr:cNvPr id="180" name="文本框 179">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC90081-EBC3-4B09-BCF1-7EFF3756A0A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17775,7 +18132,7 @@
         <xdr:cNvPr id="181" name="椭圆 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47951D4C-EED2-4B8B-89B2-012B1E316D22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17830,7 +18187,7 @@
         <xdr:cNvPr id="182" name="文本框 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579B699E-0F7D-44D8-8837-5FD6E1562B25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17907,7 +18264,183 @@
         <xdr:cNvPr id="184" name="图片 183">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B1EB30-E693-4B20-8742-7FD69DAFCD66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18708752">
+          <a:off x="15325726" y="16459200"/>
+          <a:ext cx="514286" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>199956</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="图片 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="1064821">
+          <a:off x="15621000" y="17954624"/>
+          <a:ext cx="552381" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>219055</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>285770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>28532</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="图片 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="3785256">
+          <a:off x="17516475" y="17364075"/>
+          <a:ext cx="504762" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>57124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="160" name="图片 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="22745701"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66646</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="图片 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17922,9 +18455,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="18708752">
-          <a:off x="15325726" y="16459200"/>
-          <a:ext cx="514286" cy="209524"/>
+        <a:xfrm>
+          <a:off x="3552825" y="22078951"/>
+          <a:ext cx="228571" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17935,23 +18468,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>333374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>199956</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>180949</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38070</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="185" name="图片 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B56E2A-2B85-4AEC-A57C-D52F786E1E77}"/>
+        <xdr:cNvPr id="164" name="图片 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17966,182 +18499,6 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="1064821">
-          <a:off x="15621000" y="17954624"/>
-          <a:ext cx="552381" cy="200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>219055</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>285770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>28532</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>85682</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="186" name="图片 185">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E721085A-53B2-4D68-9938-9DFA360A644A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="3785256">
-          <a:off x="17516475" y="17364075"/>
-          <a:ext cx="504762" cy="180952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209525</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>57124</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="160" name="图片 159">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9245B467-635B-4FBB-BEF6-14B712709AE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4095750" y="22745701"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66646</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95224</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="162" name="图片 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68341677-4E47-43CA-A852-5ABEA62B5AE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3552825" y="22078951"/>
-          <a:ext cx="228571" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38070</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>85697</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="图片 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7207566-F3CC-44E7-A7CA-58DBAE4B401F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
         <a:xfrm>
           <a:off x="3143250" y="22412326"/>
           <a:ext cx="238095" cy="228571"/>
@@ -18171,7 +18528,7 @@
         <xdr:cNvPr id="68" name="直接连接符 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B479148F-9E5F-4797-8963-6EAC5F64BDEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18226,7 +18583,7 @@
         <xdr:cNvPr id="126" name="直接连接符 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA926D1-2B2E-4DAD-8627-CB8DB1C13707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18281,7 +18638,7 @@
         <xdr:cNvPr id="183" name="直接连接符 182">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9CE28F-DC6F-4BB4-841E-BA51DFF6D592}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18336,7 +18693,7 @@
         <xdr:cNvPr id="187" name="直接连接符 186">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7287768-AFA9-4DED-B688-3D72DCC5B55F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18391,7 +18748,7 @@
         <xdr:cNvPr id="158" name="等腰三角形 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968C9D4A-92BB-43BE-954D-6D73C003C0FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18454,7 +18811,7 @@
         <xdr:cNvPr id="188" name="直接连接符 187">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FC8B76-9A12-425A-A650-DB159F91CF1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18509,7 +18866,7 @@
         <xdr:cNvPr id="189" name="直接连接符 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7343400-E954-4179-9939-A5FD3D5CB808}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18564,7 +18921,7 @@
         <xdr:cNvPr id="190" name="直接连接符 189">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4358204D-2C2D-4D66-9B9C-574FEE918849}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18619,7 +18976,7 @@
         <xdr:cNvPr id="191" name="直接连接符 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A894200A-86DF-470C-A4F4-A7DD2B5CA360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000BF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18674,7 +19031,7 @@
         <xdr:cNvPr id="192" name="直接连接符 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7033B99C-D8C5-4D6B-9792-E7E596EC6B5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18729,7 +19086,7 @@
         <xdr:cNvPr id="193" name="直接连接符 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DCD370-B022-4F5A-8A7F-6567E77DAAF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18784,7 +19141,7 @@
         <xdr:cNvPr id="194" name="直接连接符 193">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39BE4F81-EECF-4CE8-B68D-D4ABFD8214BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18839,7 +19196,7 @@
         <xdr:cNvPr id="195" name="直接连接符 194">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF78B4C-7064-4739-BA08-0980DC37A869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18894,7 +19251,7 @@
         <xdr:cNvPr id="196" name="直接连接符 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274173F8-0B92-467D-B077-77BDD3CAAEE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18944,7 +19301,7 @@
         <xdr:cNvPr id="197" name="文本框 196">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF307425-C5CC-4173-B07B-579B12F31A63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19009,7 +19366,7 @@
         <xdr:cNvPr id="198" name="文本框 197">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6881F92B-BEC1-47CC-B305-C5B57FEC8DB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19074,7 +19431,7 @@
         <xdr:cNvPr id="199" name="文本框 198">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4193783D-2CB2-48D0-8DD9-0E28C069135C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19144,7 +19501,7 @@
         <xdr:cNvPr id="200" name="图片 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56A20F2-0E3D-4744-8BB7-F6A4904F12B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19153,7 +19510,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19188,7 +19545,7 @@
         <xdr:cNvPr id="201" name="图片 200">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C4E16B-8E0D-4936-AFD5-3A797BBB1635}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000C9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19197,7 +19554,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19232,7 +19589,7 @@
         <xdr:cNvPr id="202" name="图片 201">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B40C69-19A3-461E-AFAD-A2D0573E7E52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19241,7 +19598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19271,7 +19628,7 @@
         <xdr:cNvPr id="203" name="文本框 202">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EDFA81-5FEB-4CE2-BEFE-636791D588A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19336,7 +19693,7 @@
         <xdr:cNvPr id="204" name="文本框 203">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7372A6-CFEA-4E71-9734-BB50D46806AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19401,7 +19758,7 @@
         <xdr:cNvPr id="205" name="文本框 204">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDF066B-AC92-48A7-A016-EE4B4C8BF6AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19466,7 +19823,7 @@
         <xdr:cNvPr id="206" name="文本框 205">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B6D5AB-997E-45CF-BAF0-32CE6C78E630}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19531,7 +19888,7 @@
         <xdr:cNvPr id="207" name="文本框 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974A9FDE-E51A-4901-B7B7-C01ECAB7AD37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19596,7 +19953,7 @@
         <xdr:cNvPr id="208" name="文本框 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BE4A11-DA99-48A9-92FC-0CCEF36A941A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19666,7 +20023,7 @@
         <xdr:cNvPr id="209" name="等腰三角形 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B613182-1A7B-403D-A3CC-A75E50D943CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19729,7 +20086,7 @@
         <xdr:cNvPr id="210" name="图片 209">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F17BB4-4079-4B73-AAEE-C001EC30EDE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19738,7 +20095,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19773,7 +20130,7 @@
         <xdr:cNvPr id="211" name="图片 210">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA69513-36B7-4C8D-A1AF-BAE5E12E9247}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19782,7 +20139,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19817,7 +20174,7 @@
         <xdr:cNvPr id="212" name="图片 211">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6004B13C-A9FC-4936-BB62-E85B5DB4DC62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19826,7 +20183,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19861,7 +20218,7 @@
         <xdr:cNvPr id="48" name="直接连接符 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19913,7 +20270,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1876A2BC-F1BB-442D-947F-A4E387BB9824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19965,7 +20322,7 @@
         <xdr:cNvPr id="110" name="直接连接符 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87826C85-A987-4C33-A807-6DAAF1D20943}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20017,7 +20374,7 @@
         <xdr:cNvPr id="216" name="椭圆 215">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20077,7 +20434,554 @@
         <xdr:cNvPr id="140" name="图片 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C644265-3B72-4EAB-A300-A05EE8FFC898}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="21364575"/>
+          <a:ext cx="190476" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>276204</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>247626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="图片 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="22259925"/>
+          <a:ext cx="171429" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361930</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="图片 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="21383625"/>
+          <a:ext cx="161905" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209531</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>352398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="图片 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="21631275"/>
+          <a:ext cx="152381" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="217" name="图片 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858750" y="22040850"/>
+          <a:ext cx="200000" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142850</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="218" name="图片 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="21088350"/>
+          <a:ext cx="200000" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>209526</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="219" name="图片 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14135100" y="22098000"/>
+          <a:ext cx="190476" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>312117</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>167750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>60499</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>244570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="等腰三角形 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="12199317" y="20255975"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>200000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>276198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="221" name="图片 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15230475" y="23317200"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>104746</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="222" name="图片 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13620750" y="19878675"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>323820</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="223" name="图片 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11601450" y="22164675"/>
+          <a:ext cx="238095" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>98401</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="224" name="图片 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12534900" y="20974050"/>
+          <a:ext cx="193651" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76174</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="225" name="图片 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20093,8 +20997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8467725" y="21364575"/>
-          <a:ext cx="190476" cy="200000"/>
+          <a:off x="13239750" y="22755225"/>
+          <a:ext cx="209524" cy="180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20105,23 +21009,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>276204</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>247626</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161899</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="图片 140">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C119F6C-A57E-4C43-B3CB-50DF797C1D50}"/>
+        <xdr:cNvPr id="226" name="图片 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20137,8 +21041,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9020175" y="22259925"/>
-          <a:ext cx="171429" cy="190476"/>
+          <a:off x="14439900" y="21440775"/>
+          <a:ext cx="209524" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20149,23 +21053,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361930</xdr:colOff>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114276</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>76176</xdr:rowOff>
+      <xdr:rowOff>66650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="144" name="图片 143">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0A0E4A-6DBF-4764-BCE6-746EF1640A77}"/>
+        <xdr:cNvPr id="227" name="图片 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20174,15 +21078,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9486900" y="21383625"/>
-          <a:ext cx="161905" cy="190476"/>
+          <a:off x="12925425" y="21364575"/>
+          <a:ext cx="190476" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20193,23 +21097,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209531</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>352398</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>276204</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>247626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="图片 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9257B6F4-9C52-484C-8BE6-9126FD724C05}"/>
+        <xdr:cNvPr id="228" name="图片 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20218,15 +21122,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8972550" y="21631275"/>
-          <a:ext cx="152381" cy="219048"/>
+          <a:off x="13477875" y="22259925"/>
+          <a:ext cx="171429" cy="190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20237,23 +21141,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>47605</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>57125</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76170</xdr:rowOff>
+      <xdr:rowOff>47601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="217" name="图片 216">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF382CF6-F4FE-471C-86C4-6FD2B8CA90E7}"/>
+        <xdr:cNvPr id="229" name="图片 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20262,15 +21166,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12858750" y="22040850"/>
-          <a:ext cx="200000" cy="238095"/>
+          <a:off x="14001750" y="21707475"/>
+          <a:ext cx="161905" cy="190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20282,22 +21186,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>142850</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152374</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209531</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>352398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="218" name="图片 217">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A3E6B3-CB08-4F3B-A896-A66296F26A89}"/>
+        <xdr:cNvPr id="230" name="图片 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20306,15 +21210,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13687425" y="21088350"/>
-          <a:ext cx="200000" cy="209524"/>
+          <a:off x="13430250" y="21631275"/>
+          <a:ext cx="152381" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20323,69 +21227,175 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>223706</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>333299</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>209526</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>133320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="219" name="图片 218">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0803E5-BE6C-44AC-9DB3-F1D685B51CF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14135100" y="22098000"/>
-          <a:ext cx="190476" cy="238095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:rowOff>15613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="直接连接符 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13596806" y="20107275"/>
+          <a:ext cx="109593" cy="1758688"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>312117</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>167750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>60499</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>244570</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>6088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>223706</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>342338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直接连接符 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11887200" y="21856438"/>
+          <a:ext cx="1709606" cy="336250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>223706</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>6088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>323517</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>350037</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="直接连接符 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13596806" y="21856438"/>
+          <a:ext cx="1585711" cy="1401224"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327992</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>164575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76374</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>241395</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="220" name="等腰三角形 219">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25785A3-7C92-45FE-88D4-72717B48F8CD}"/>
+        <xdr:cNvPr id="214" name="等腰三角形 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20393,8 +21403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="1074581">
-          <a:off x="12199317" y="20255975"/>
-          <a:ext cx="3463132" cy="2543795"/>
+          <a:off x="1064592" y="26478975"/>
+          <a:ext cx="3431382" cy="2566020"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -20432,23 +21442,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>200000</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>276198</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>273023</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="221" name="图片 220">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB97923-F785-4F26-9F53-330E76302ED3}"/>
+        <xdr:cNvPr id="215" name="图片 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20457,14 +21467,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15230475" y="23317200"/>
+          <a:off x="4067175" y="29568775"/>
           <a:ext cx="200000" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20476,23 +21486,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>104746</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9498</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120621</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>6323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="222" name="图片 221">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F99B172-2C7E-4608-8706-2051498AB5CC}"/>
+        <xdr:cNvPr id="234" name="图片 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20501,15 +21511,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13620750" y="19878675"/>
-          <a:ext cx="228571" cy="219048"/>
+          <a:off x="2473325" y="26098500"/>
+          <a:ext cx="225396" cy="222223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20520,23 +21530,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>323820</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>190471</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>339695</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>187296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="223" name="图片 222">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50CB420-91D1-46EA-A7FA-15A5D4DDDB42}"/>
+        <xdr:cNvPr id="235" name="图片 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20545,15 +21555,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11601450" y="22164675"/>
-          <a:ext cx="238095" cy="228571"/>
+          <a:off x="469900" y="28403550"/>
+          <a:ext cx="238095" cy="231746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20562,333 +21572,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>98401</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="224" name="图片 223">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4D7256-0C29-4144-95EE-11B7A01EBC99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12534900" y="20974050"/>
-          <a:ext cx="193651" cy="200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>76174</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="225" name="图片 224">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE05428-612E-43B3-ADB9-BBBC8F1862CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13239750" y="22755225"/>
-          <a:ext cx="209524" cy="180952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>161899</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>142850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="226" name="图片 225">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA792043-FA3E-4C1D-8A2D-E8DA6BD86945}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14439900" y="21440775"/>
-          <a:ext cx="209524" cy="200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>114276</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="227" name="图片 226">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B49512-AFD3-4A59-A5D7-EC9604D1C3C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12925425" y="21364575"/>
-          <a:ext cx="190476" cy="200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>276204</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>247626</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="228" name="图片 227">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E11135E-F183-4AC4-B824-1843BEB89833}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13477875" y="22259925"/>
-          <a:ext cx="171429" cy="190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>47605</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>47601</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="229" name="图片 228">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6186BB-8192-4206-85FA-EC61EE948523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14001750" y="21707475"/>
-          <a:ext cx="161905" cy="190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>209531</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>352398</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="230" name="图片 229">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80AF55C2-C6FF-4A14-8391-8B117787607C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13430250" y="21631275"/>
-          <a:ext cx="152381" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>223706</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>333299</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>15613</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>41537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354069</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="231" name="直接连接符 230">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C11E6DB-2A62-40C6-A820-3B9408B41623}"/>
+        <xdr:cNvPr id="236" name="直接连接符 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20896,8 +21598,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13596806" y="20107275"/>
-          <a:ext cx="109593" cy="1758688"/>
+          <a:off x="2393950" y="26355937"/>
+          <a:ext cx="169919" cy="2612763"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -20922,32 +21624,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>6088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>223706</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>342338</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16582</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>191206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347598</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>7219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="232" name="直接连接符 231">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D9549F-FADC-4BE5-8A28-AD6BE9417C59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="237" name="直接连接符 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000ED000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="214" idx="5"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11887200" y="21856438"/>
-          <a:ext cx="1709606" cy="336250"/>
+          <a:off x="753182" y="27928006"/>
+          <a:ext cx="2540816" cy="527213"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -20972,32 +21677,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>223706</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>6088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>323517</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>350037</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188245</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>341112</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>4224</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="233" name="直接连接符 232">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D88D2A-E47D-474B-82A1-AA071775D634}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="238" name="直接连接符 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="214" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13596806" y="21856438"/>
-          <a:ext cx="1585711" cy="1401224"/>
+          <a:off x="1661445" y="27400401"/>
+          <a:ext cx="2362667" cy="2118623"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -21022,39 +21729,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>327992</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>164575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76374</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>241395</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258444</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>36194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="等腰三角形 213">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B613182-1A7B-403D-A3CC-A75E50D943CB}"/>
+        <xdr:cNvPr id="239" name="椭圆 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1074581">
-          <a:off x="1064592" y="26478975"/>
-          <a:ext cx="3431382" cy="2566020"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31467"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
+        <a:xfrm>
+          <a:off x="2425700" y="28079700"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21083,325 +21787,41 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215875</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>273023</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="215" name="图片 214">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F17BB4-4079-4B73-AAEE-C001EC30EDE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4067175" y="29568775"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120621</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321643</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>6323</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="234" name="图片 233">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA69513-36B7-4C8D-A1AF-BAE5E12E9247}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2473325" y="26098500"/>
-          <a:ext cx="225396" cy="222223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>311150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>339695</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>187296</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="235" name="图片 234">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6004B13C-A9FC-4936-BB62-E85B5DB4DC62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="469900" y="28403550"/>
-          <a:ext cx="238095" cy="231746"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>41537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>354069</xdr:colOff>
+      <xdr:rowOff>151874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>70025</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="236" name="直接连接符 235">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2393950" y="26355937"/>
-          <a:ext cx="169919" cy="2612763"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16582</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>191206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347598</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>7219</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="237" name="直接连接符 236">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1876A2BC-F1BB-442D-947F-A4E387BB9824}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="214" idx="2"/>
-          <a:endCxn id="214" idx="5"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="753182" y="27928006"/>
-          <a:ext cx="2540816" cy="527213"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>188245</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>19201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>341112</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>4224</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="238" name="直接连接符 237">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87826C85-A987-4C33-A807-6DAAF1D20943}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="214" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1661445" y="27400401"/>
-          <a:ext cx="2362667" cy="2118623"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>258444</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>36194</xdr:rowOff>
+      <xdr:rowOff>228694</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="椭圆 238">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+        <xdr:cNvPr id="240" name="等腰三角形 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2425700" y="28079700"/>
-          <a:ext cx="42544" cy="48894"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm rot="1074581">
+          <a:off x="5109543" y="26466274"/>
+          <a:ext cx="3431382" cy="2566020"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21430,41 +21850,170 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209526</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>260322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="241" name="图片 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8112126" y="29556074"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114272</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>349222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="242" name="图片 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6518276" y="26085799"/>
+          <a:ext cx="225396" cy="222223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>298449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333346</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>174595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="243" name="图片 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514851" y="28390849"/>
+          <a:ext cx="238095" cy="231746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>321643</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>151874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>70025</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>228694</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137794</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>296544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="等腰三角形 239">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B613182-1A7B-403D-A3CC-A75E50D943CB}"/>
+        <xdr:cNvPr id="244" name="椭圆 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1074581">
-          <a:off x="5109543" y="26466274"/>
-          <a:ext cx="3431382" cy="2566020"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31467"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
+        <a:xfrm>
+          <a:off x="6356350" y="27984450"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21493,170 +22042,195 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209526</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>260322</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="241" name="图片 240">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F17BB4-4079-4B73-AAEE-C001EC30EDE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8112126" y="29556074"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>292910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114272</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>349222</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="242" name="图片 241">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA69513-36B7-4C8D-A1AF-BAE5E12E9247}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6518276" y="26085799"/>
-          <a:ext cx="225396" cy="222223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>298449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333346</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>174595</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="243" name="图片 242">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6004B13C-A9FC-4936-BB62-E85B5DB4DC62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4514851" y="28390849"/>
-          <a:ext cx="238095" cy="231746"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:colOff>101480</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="247" name="直接连接符 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6089650" y="28029710"/>
+          <a:ext cx="272930" cy="811990"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>131564</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:rowOff>254810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="248" name="直接连接符 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="244" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6392664" y="27654250"/>
+          <a:ext cx="820936" cy="337360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>137794</xdr:colOff>
+      <xdr:colOff>101480</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>296544</xdr:rowOff>
+      <xdr:rowOff>254810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="直接连接符 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="244" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5670550" y="27444700"/>
+          <a:ext cx="692030" cy="546910"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>327991</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>158225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76373</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>235045</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="椭圆 243">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+        <xdr:cNvPr id="250" name="等腰三角形 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6356350" y="27984450"/>
-          <a:ext cx="42544" cy="48894"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm rot="1074581">
+          <a:off x="9535491" y="26472625"/>
+          <a:ext cx="3431382" cy="2566020"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21685,193 +22259,169 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>215874</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>266673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="251" name="图片 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12538074" y="29562425"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>263524</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>120620</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>355573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="252" name="图片 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944224" y="26092150"/>
+          <a:ext cx="225396" cy="222223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>339694</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="253" name="图片 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8940799" y="28397200"/>
+          <a:ext cx="238095" cy="231746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>292910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101480</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="247" name="直接连接符 246">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6089650" y="28029710"/>
-          <a:ext cx="272930" cy="811990"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>131564</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>273050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>254810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="248" name="直接连接符 247">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="244" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6392664" y="27654250"/>
-          <a:ext cx="820936" cy="337360"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101480</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>254810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="249" name="直接连接符 248">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="244" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5670550" y="27444700"/>
-          <a:ext cx="692030" cy="546910"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>327991</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>158225</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>76373</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>235045</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="250" name="等腰三角形 249">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B613182-1A7B-403D-A3CC-A75E50D943CB}"/>
+        <xdr:cNvPr id="254" name="椭圆 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1074581">
-          <a:off x="9535491" y="26472625"/>
-          <a:ext cx="3431382" cy="2566020"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31467"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="9207500" y="26333450"/>
+          <a:ext cx="3714750" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
       </xdr:spPr>
@@ -21902,165 +22452,38 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>215874</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>266673</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="251" name="图片 250">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F17BB4-4079-4B73-AAEE-C001EC30EDE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12538074" y="29562425"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>263524</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>120620</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>355573</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="252" name="图片 251">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA69513-36B7-4C8D-A1AF-BAE5E12E9247}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10944224" y="26092150"/>
-          <a:ext cx="225396" cy="222223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>101599</xdr:colOff>
+      <xdr:colOff>23494</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>339694</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>180946</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="253" name="图片 252">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6004B13C-A9FC-4936-BB62-E85B5DB4DC62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8940799" y="28397200"/>
-          <a:ext cx="238095" cy="231746"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>349250</xdr:rowOff>
+      <xdr:rowOff>207644</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="椭圆 253"/>
+        <xdr:cNvPr id="256" name="椭圆 255">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000000010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9207500" y="26333450"/>
-          <a:ext cx="3714750" cy="3886200"/>
+          <a:off x="11029950" y="28251150"/>
+          <a:ext cx="42544" cy="48894"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22092,22 +22515,181 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>354067</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>22487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>23494</xdr:colOff>
+      <xdr:colOff>635</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>207644</xdr:rowOff>
     </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="直接连接符 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="250" idx="0"/>
+          <a:endCxn id="256" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11126842" y="26101937"/>
+          <a:ext cx="18043" cy="1947282"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16581</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>183197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>869</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="直接连接符 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="256" idx="2"/>
+          <a:endCxn id="250" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9224081" y="28275597"/>
+          <a:ext cx="1805869" cy="173272"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>17264</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>200484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>335287</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>344878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="直接连接符 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="256" idx="5"/>
+          <a:endCxn id="250" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11066264" y="28292884"/>
+          <a:ext cx="1422923" cy="1211194"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="256" name="椭圆 255">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+        <xdr:cNvPr id="276" name="立方体 275">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22115,12 +22697,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11029950" y="28251150"/>
-          <a:ext cx="42544" cy="48894"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="1111250" y="31756350"/>
+          <a:ext cx="2127250" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 29505"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22151,191 +22736,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>354070</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>355480</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>165910</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="259" name="直接连接符 258">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="256" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11034770" y="26333450"/>
-          <a:ext cx="1410" cy="1924860"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>16581</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>183197</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>869</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="262" name="直接连接符 261">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="256" idx="2"/>
-          <a:endCxn id="250" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9224081" y="28275597"/>
-          <a:ext cx="1805869" cy="173272"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>17264</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>200484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>335287</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>344878</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="266" name="直接连接符 265">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319B2415-8C05-467E-8BCE-2B940EEB63FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="256" idx="5"/>
-          <a:endCxn id="250" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11066264" y="28292884"/>
-          <a:ext cx="1422923" cy="1211194"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>349250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="立方体 275"/>
+        <xdr:cNvPr id="277" name="椭圆 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1111250" y="31756350"/>
-          <a:ext cx="2127250" cy="596900"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 29505"/>
-          </a:avLst>
+          <a:off x="1022350" y="30956250"/>
+          <a:ext cx="2343150" cy="2298700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22366,31 +22802,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17144</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>80644</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="277" name="椭圆 276"/>
+        <xdr:cNvPr id="278" name="椭圆 277">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1022350" y="30956250"/>
-          <a:ext cx="2343150" cy="2298700"/>
+          <a:off x="2184400" y="32035750"/>
+          <a:ext cx="42544" cy="48894"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22421,23 +22862,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17144</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>80644</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76327</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>266827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="278" name="椭圆 277">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+        <xdr:cNvPr id="287" name="立方体 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22445,12 +22886,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2184400" y="32035750"/>
-          <a:ext cx="42544" cy="48894"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="4048125" y="31134050"/>
+          <a:ext cx="1228852" cy="1203452"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22481,31 +22923,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28702</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>47752</xdr:rowOff>
+      <xdr:rowOff>231775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="287" name="立方体 286"/>
+        <xdr:cNvPr id="289" name="椭圆 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5073650" y="31191200"/>
-          <a:ext cx="1216152" cy="1216152"/>
-        </a:xfrm>
-        <a:prstGeom prst="cube">
+          <a:off x="3781425" y="30892750"/>
+          <a:ext cx="1838325" cy="1746250"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22536,78 +22989,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>349250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="289" name="椭圆 288"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4806950" y="30949900"/>
-          <a:ext cx="1822450" cy="1758950"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213994</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>220344</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>261619</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>86994</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="290" name="椭圆 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E31E42-4DAD-4DB7-8C2C-0FE9715574F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22615,7 +23013,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5695950" y="31819850"/>
+          <a:off x="4676775" y="31756350"/>
           <a:ext cx="42544" cy="48894"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -22955,7 +23353,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22972,7 +23370,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22989,7 +23387,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23009,9 +23407,9 @@
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="1"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -23028,13 +23426,13 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y92" sqref="Y92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE94" sqref="AE94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="45" spans="15:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O45" s="2"/>
     </row>
   </sheetData>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -8967,15 +8967,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>19006</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>209523</xdr:rowOff>
+      <xdr:colOff>9481</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8998,7 +8998,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11182350" y="27832050"/>
+          <a:off x="11172825" y="28051125"/>
           <a:ext cx="352381" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22478,8 +22478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11029950" y="28251150"/>
-          <a:ext cx="42544" cy="48894"/>
+          <a:off x="11122025" y="28000325"/>
+          <a:ext cx="45719" cy="48894"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -22514,69 +22514,74 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>354067</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>22487</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>16799</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>187981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>349176</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>165910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="259" name="直接连接符 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="250" idx="5"/>
+          <a:endCxn id="256" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11161049" y="27677131"/>
+          <a:ext cx="703852" cy="330354"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>187417</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>7919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>635</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>207644</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="259" name="直接连接符 258">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003010000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="250" idx="0"/>
-          <a:endCxn id="256" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11126842" y="26101937"/>
-          <a:ext cx="18043" cy="1947282"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>16581</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>183197</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>869</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22588,18 +22593,23 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="256" idx="2"/>
-          <a:endCxn id="250" idx="2"/>
+          <a:stCxn id="256" idx="0"/>
+          <a:endCxn id="250" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9224081" y="28275597"/>
-          <a:ext cx="1805869" cy="173272"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10217242" y="27144644"/>
+          <a:ext cx="927643" cy="855681"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -22620,16 +22630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>207644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>17264</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>200484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>335287</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>344878</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22641,18 +22651,22 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="256" idx="5"/>
-          <a:endCxn id="250" idx="4"/>
+          <a:stCxn id="256" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11066264" y="28292884"/>
-          <a:ext cx="1422923" cy="1211194"/>
+        <a:xfrm flipH="1">
+          <a:off x="10925175" y="28049219"/>
+          <a:ext cx="219710" cy="659131"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -23045,6 +23059,59 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>354067</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>22487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="直接连接符 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4B4E25-8D51-4146-8122-D0F8438AF0AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="256" idx="0"/>
+          <a:endCxn id="250" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11126842" y="26101937"/>
+          <a:ext cx="18043" cy="1898388"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -23426,8 +23493,8 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE94" sqref="AE94"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM78" sqref="AM78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -23114,6 +23114,588 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="等腰三角形 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0563E967-79F0-4CCD-83A6-A73FA2844CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6686550" y="30318075"/>
+          <a:ext cx="3324225" cy="2458069"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 66764"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="310983" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="258" name="文本框 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DAC1BD-5EC5-4FEA-A255-39956B1D2AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="29937075"/>
+          <a:ext cx="310983" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="297325" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="文本框 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0831D1A2-CAF2-4661-BB7C-20D59DDF650F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="32775525"/>
+          <a:ext cx="297325" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="310983" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="文本框 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6EAAC9-6B51-4668-A26B-902714BC5FC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="32775525"/>
+          <a:ext cx="310983" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>90169</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>277494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="椭圆 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EB6E93-6EB6-4F70-AD9C-64FB9BB658A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="31946850"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>83939</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>362011</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>235760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="269" name="直接连接符 268">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B048AC19-E125-4637-A0C2-93065D693F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="267" idx="7"/>
+          <a:endCxn id="257" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8627864" y="30318075"/>
+          <a:ext cx="278072" cy="1635935"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>83939</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>270334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="270" name="直接连接符 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE260EE-1C85-4D87-8485-7CAAF7B10A17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="257" idx="4"/>
+          <a:endCxn id="267" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8627864" y="31988584"/>
+          <a:ext cx="1382911" cy="787560"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>270334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53855</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="273" name="直接连接符 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E0F000-43C3-4139-B32A-A8D558E3E9C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="267" idx="3"/>
+          <a:endCxn id="257" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6686550" y="31988584"/>
+          <a:ext cx="1911230" cy="787560"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="294504" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="279" name="文本框 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBCE974-394B-49CD-84A8-9AE1C85A5624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="31956375"/>
+          <a:ext cx="294504" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23493,8 +24075,8 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM78" sqref="AM78"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG90" sqref="AG90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -8922,23 +8922,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>361905</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>180952</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114271</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>342870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="264" name="图片 263">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1911DAE8-A1FB-46EE-B0D4-AD9CBA3B188F}"/>
+        <xdr:cNvPr id="121" name="图片 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D39A09E-807A-48AA-8346-8C8438336AA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8954,8 +8954,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772775" y="27136725"/>
-          <a:ext cx="361905" cy="180952"/>
+          <a:off x="4343400" y="35699700"/>
+          <a:ext cx="228571" cy="238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8966,23 +8966,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9481</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>76173</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257145</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="263" name="图片 262">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2057B7-7897-4D98-BB67-A1E94753D8A8}"/>
+        <xdr:cNvPr id="319" name="图片 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C930AF-E393-4C48-8003-85FB078F964B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8998,8 +8998,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11172825" y="28051125"/>
-          <a:ext cx="352381" cy="219048"/>
+          <a:off x="5219700" y="34671000"/>
+          <a:ext cx="238095" cy="238095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9010,23 +9010,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219040</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>180948</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>361905</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="261" name="图片 260">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B274B2-C868-4B8F-83E7-11C7A677808E}"/>
+        <xdr:cNvPr id="264" name="图片 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1911DAE8-A1FB-46EE-B0D4-AD9CBA3B188F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9042,8 +9042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6257925" y="28155900"/>
-          <a:ext cx="276190" cy="219048"/>
+          <a:off x="10772775" y="27136725"/>
+          <a:ext cx="361905" cy="180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9054,23 +9054,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76179</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>9493</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9481</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="图片 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF392508-E49C-42F3-86EA-2372B86B4081}"/>
+        <xdr:cNvPr id="263" name="图片 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2057B7-7897-4D98-BB67-A1E94753D8A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9086,8 +9086,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334250" y="27241500"/>
-          <a:ext cx="171429" cy="257143"/>
+          <a:off x="11172825" y="28051125"/>
+          <a:ext cx="352381" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9099,22 +9099,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266677</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>314294</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219040</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180948</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="图片 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0B3530-5C37-48E2-A030-8102EADAE8E6}"/>
+        <xdr:cNvPr id="261" name="图片 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B274B2-C868-4B8F-83E7-11C7A677808E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9130,8 +9130,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6029325" y="28613100"/>
-          <a:ext cx="180952" cy="247619"/>
+          <a:off x="6257925" y="28155900"/>
+          <a:ext cx="276190" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9142,23 +9142,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161901</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>57120</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76179</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="255" name="图片 254">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F3A98D-3693-481B-8432-DC669BFBDDD5}"/>
+        <xdr:cNvPr id="63" name="图片 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF392508-E49C-42F3-86EA-2372B86B4081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9174,8 +9174,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5543550" y="26955750"/>
-          <a:ext cx="190476" cy="238095"/>
+          <a:off x="7334250" y="27241500"/>
+          <a:ext cx="171429" cy="257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9187,22 +9187,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>276189</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>219048</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266677</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>314294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="246" name="图片 245">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478D9213-3C23-4300-95AD-2CF48594BF1C}"/>
+        <xdr:cNvPr id="50" name="图片 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0B3530-5C37-48E2-A030-8102EADAE8E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9218,8 +9218,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6305550" y="27489150"/>
-          <a:ext cx="285714" cy="219048"/>
+          <a:off x="6029325" y="28613100"/>
+          <a:ext cx="180952" cy="247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9230,23 +9230,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295229</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>314296</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161901</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="245" name="图片 244">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA50951-C023-47BB-9572-E452BFDC5B49}"/>
+        <xdr:cNvPr id="255" name="图片 254">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F3A98D-3693-481B-8432-DC669BFBDDD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9262,6 +9262,94 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="5543550" y="26955750"/>
+          <a:ext cx="190476" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276189</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>219048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="246" name="图片 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478D9213-3C23-4300-95AD-2CF48594BF1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="27489150"/>
+          <a:ext cx="285714" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295229</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>314296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="245" name="图片 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA50951-C023-47BB-9572-E452BFDC5B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="2524125" y="27574875"/>
           <a:ext cx="371429" cy="228571"/>
         </a:xfrm>
@@ -9360,7 +9448,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10223,147 +10311,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6343650" y="3181350"/>
-          <a:ext cx="314286" cy="295238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>38055</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>352390</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9334500" y="781050"/>
-          <a:ext cx="361905" cy="276190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>352424</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直接箭头连接符 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10410825" y="1066800"/>
-          <a:ext cx="2590800" cy="2105024"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>342870</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>342864</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
@@ -10371,8 +10318,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10134600" y="2876550"/>
-          <a:ext cx="238095" cy="285714"/>
+          <a:off x="6343650" y="3181350"/>
+          <a:ext cx="314286" cy="295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10383,23 +10330,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>76176</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>333336</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38055</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>352390</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+        <xdr:cNvPr id="27" name="图片 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10409,6 +10356,147 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="781050"/>
+          <a:ext cx="361905" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>352424</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10410825" y="1066800"/>
+          <a:ext cx="2590800" cy="2105024"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342870</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="2876550"/>
+          <a:ext cx="238095" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76176</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>333336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11916,7 +12004,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12025,7 +12113,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12573,7 +12661,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12617,7 +12705,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12721,7 +12809,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -15097,94 +15185,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12941301" y="12820650"/>
-          <a:ext cx="252604" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>82551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>322943</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>336551</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="图片 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12547600" y="11817351"/>
-          <a:ext cx="297543" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>298450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>192231</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="图片 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
@@ -15192,8 +15192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11398250" y="13100050"/>
-          <a:ext cx="228600" cy="249381"/>
+          <a:off x="12941301" y="12820650"/>
+          <a:ext cx="252604" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15205,22 +15205,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>135978</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>322943</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>336551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="图片 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+        <xdr:cNvPr id="65" name="图片 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15236,8 +15236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12788900" y="12255500"/>
-          <a:ext cx="237578" cy="222250"/>
+          <a:off x="12547600" y="11817351"/>
+          <a:ext cx="297543" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15248,23 +15248,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>50801</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>260351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>279401</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>192231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="图片 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D000000}"/>
+        <xdr:cNvPr id="66" name="图片 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15274,6 +15274,94 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11398250" y="13100050"/>
+          <a:ext cx="228600" cy="249381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>135978</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="图片 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12788900" y="12255500"/>
+          <a:ext cx="237578" cy="222250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>260351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="图片 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -15702,94 +15790,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16281400" y="12192001"/>
-          <a:ext cx="175759" cy="196850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>82551</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>44451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>279401</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>299627</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="图片 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17024351" y="13201651"/>
-          <a:ext cx="196850" cy="255176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>248074</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="图片 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
@@ -15797,8 +15797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17024350" y="10756900"/>
-          <a:ext cx="165524" cy="215900"/>
+          <a:off x="16281400" y="12192001"/>
+          <a:ext cx="175759" cy="196850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15810,22 +15810,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>325437</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>241301</xdr:rowOff>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>299627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="图片 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007D000000}"/>
+        <xdr:cNvPr id="123" name="图片 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15841,8 +15841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17005300" y="12122151"/>
-          <a:ext cx="261937" cy="209550"/>
+          <a:off x="17024351" y="13201651"/>
+          <a:ext cx="196850" cy="255176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15851,88 +15851,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>340692</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>139175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>89074</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>215995</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="等腰三角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1074581">
-          <a:off x="1455117" y="15645875"/>
-          <a:ext cx="3463132" cy="2543795"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31467"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228575</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>247623</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>248074</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+        <xdr:cNvPr id="124" name="图片 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15948,8 +15885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="18707100"/>
-          <a:ext cx="200000" cy="219048"/>
+          <a:off x="17024350" y="10756900"/>
+          <a:ext cx="165524" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15960,23 +15897,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133321</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>333348</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>325437</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>241301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="图片 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+        <xdr:cNvPr id="125" name="图片 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15992,8 +15929,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="15268575"/>
-          <a:ext cx="228571" cy="219048"/>
+          <a:off x="17005300" y="12122151"/>
+          <a:ext cx="261937" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16002,25 +15939,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340692</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89074</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>215995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="等腰三角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="1455117" y="15645875"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>352395</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161896</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228575</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>247623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="图片 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16036,8 +16036,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857250" y="17554575"/>
-          <a:ext cx="238095" cy="228571"/>
+          <a:off x="4486275" y="18707100"/>
+          <a:ext cx="200000" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16046,208 +16046,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>256085</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>239977</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17525</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>251411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="弧形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="17259736">
-          <a:off x="3864888" y="18319599"/>
-          <a:ext cx="716284" cy="504390"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 15864058"/>
-            <a:gd name="adj2" fmla="val 20644207"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>84553</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>239297</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57887</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38837</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="弧形 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="9492062">
-          <a:off x="2684878" y="15393572"/>
-          <a:ext cx="716284" cy="504390"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16312574"/>
-            <a:gd name="adj2" fmla="val 21531377"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>97158</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>132915</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="弧形 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="2351618">
-          <a:off x="866774" y="17249775"/>
-          <a:ext cx="716284" cy="504390"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16312574"/>
-            <a:gd name="adj2" fmla="val 21449785"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>46</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3151</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>314300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133321</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>333348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="图片 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000081000000}"/>
+        <xdr:cNvPr id="41" name="图片 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16263,8 +16080,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666875" y="16325850"/>
-          <a:ext cx="190476" cy="200000"/>
+          <a:off x="2876550" y="15268575"/>
+          <a:ext cx="228571" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16275,23 +16092,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47599</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76177</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352395</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="图片 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000082000000}"/>
+        <xdr:cNvPr id="42" name="图片 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16307,8 +16124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="18221325"/>
-          <a:ext cx="209524" cy="180952"/>
+          <a:off x="857250" y="17554575"/>
+          <a:ext cx="238095" cy="228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16317,25 +16134,208 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256085</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>239977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>251411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="弧形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17259736">
+          <a:off x="3864888" y="18319599"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15864058"/>
+            <a:gd name="adj2" fmla="val 20644207"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>84553</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>239297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57887</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="弧形 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="9492062">
+          <a:off x="2684878" y="15393572"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16312574"/>
+            <a:gd name="adj2" fmla="val 21531377"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97158</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132915</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="弧形 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2351618">
+          <a:off x="866774" y="17249775"/>
+          <a:ext cx="716284" cy="504390"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16312574"/>
+            <a:gd name="adj2" fmla="val 21449785"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285724</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76175</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3151</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>314300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="图片 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000083000000}"/>
+        <xdr:cNvPr id="129" name="图片 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16351,8 +16351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790950" y="16792575"/>
-          <a:ext cx="209524" cy="200000"/>
+          <a:off x="1666875" y="16325850"/>
+          <a:ext cx="190476" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16363,23 +16363,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47599</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>1876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182587</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>76177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="图片 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000084000000}"/>
+        <xdr:cNvPr id="130" name="图片 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16395,8 +16395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4095750" y="18327976"/>
-          <a:ext cx="173062" cy="207674"/>
+          <a:off x="2438400" y="18221325"/>
+          <a:ext cx="209524" cy="180952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16407,23 +16407,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228572</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76173</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285724</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="图片 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000085000000}"/>
+        <xdr:cNvPr id="131" name="图片 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16439,8 +16439,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828897" y="15687674"/>
-          <a:ext cx="219076" cy="200025"/>
+          <a:off x="3790950" y="16792575"/>
+          <a:ext cx="209524" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16451,23 +16451,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361927</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19026</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182587</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="134" name="图片 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000086000000}"/>
+        <xdr:cNvPr id="132" name="图片 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16477,6 +16477,94 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="18327976"/>
+          <a:ext cx="173062" cy="207674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228572</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76173</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="图片 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828897" y="15687674"/>
+          <a:ext cx="219076" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361927</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="图片 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17432,7 +17520,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17476,7 +17564,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17520,7 +17608,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18273,7 +18361,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18317,7 +18405,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18361,7 +18449,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -18397,94 +18485,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4095750" y="22745701"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66646</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>95224</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="162" name="图片 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3552825" y="22078951"/>
-          <a:ext cx="228571" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38070</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>85697</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="图片 163">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18494,6 +18494,94 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="22745701"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66646</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="162" name="图片 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="22078951"/>
+          <a:ext cx="228571" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38070</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="164" name="图片 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19510,7 +19598,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19554,7 +19642,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -19598,7 +19686,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -20095,7 +20183,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -20139,7 +20227,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -20175,6 +20263,637 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="22164675"/>
+          <a:ext cx="238095" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>32012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>338193</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9144000" y="20120237"/>
+          <a:ext cx="109593" cy="1758688"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4894</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>2875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7434394" y="21869400"/>
+          <a:ext cx="1709606" cy="336250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>328411</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>10574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直接连接符 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="209" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9144000" y="21869400"/>
+          <a:ext cx="1585711" cy="1401224"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>252094</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>48894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="椭圆 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="21850350"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114276</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="图片 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="21364575"/>
+          <a:ext cx="190476" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>276204</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>247626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="141" name="图片 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="22259925"/>
+          <a:ext cx="171429" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361930</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="144" name="图片 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="21383625"/>
+          <a:ext cx="161905" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209531</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>352398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="图片 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="21631275"/>
+          <a:ext cx="152381" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="217" name="图片 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858750" y="22040850"/>
+          <a:ext cx="200000" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142850</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="218" name="图片 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="21088350"/>
+          <a:ext cx="200000" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>209526</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="219" name="图片 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14135100" y="22098000"/>
+          <a:ext cx="190476" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>312117</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>167750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>60499</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>244570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="等腰三角形 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="12199317" y="20255975"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>200000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>276198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="221" name="图片 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20190,8 +20909,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7143750" y="22164675"/>
-          <a:ext cx="238095" cy="228571"/>
+          <a:off x="15230475" y="23317200"/>
+          <a:ext cx="200000" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20200,241 +20919,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>104746</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>32012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>338193</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直接连接符 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="209" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9144000" y="20120237"/>
-          <a:ext cx="109593" cy="1758688"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>4894</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>2875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直接连接符 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="209" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7434394" y="21869400"/>
-          <a:ext cx="1709606" cy="336250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>328411</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>10574</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直接连接符 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="209" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9144000" y="21869400"/>
-          <a:ext cx="1585711" cy="1401224"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>252094</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>48894</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="216" name="椭圆 215">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9124950" y="21850350"/>
-          <a:ext cx="42544" cy="48894"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>114276</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66650</xdr:rowOff>
+      <xdr:rowOff>9498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="140" name="图片 139">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C000000}"/>
+        <xdr:cNvPr id="222" name="图片 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20443,15 +20946,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8467725" y="21364575"/>
-          <a:ext cx="190476" cy="200000"/>
+          <a:off x="13620750" y="19878675"/>
+          <a:ext cx="228571" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20462,23 +20965,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>323820</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>276204</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>247626</xdr:rowOff>
+      <xdr:rowOff>190471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="图片 140">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D000000}"/>
+        <xdr:cNvPr id="223" name="图片 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20487,15 +20990,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9020175" y="22259925"/>
-          <a:ext cx="171429" cy="190476"/>
+          <a:off x="11601450" y="22164675"/>
+          <a:ext cx="238095" cy="228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20506,23 +21009,155 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>98401</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361930</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76176</xdr:rowOff>
+      <xdr:rowOff>28550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="144" name="图片 143">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000090000000}"/>
+        <xdr:cNvPr id="224" name="图片 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12534900" y="20974050"/>
+          <a:ext cx="193651" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76174</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="225" name="图片 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13239750" y="22755225"/>
+          <a:ext cx="209524" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161899</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="226" name="图片 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14439900" y="21440775"/>
+          <a:ext cx="209524" cy="200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>114276</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="227" name="图片 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20538,8 +21173,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9486900" y="21383625"/>
-          <a:ext cx="161905" cy="190476"/>
+          <a:off x="12925425" y="21364575"/>
+          <a:ext cx="190476" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20550,23 +21185,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209531</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>352398</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>276204</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>247626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="图片 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000091000000}"/>
+        <xdr:cNvPr id="228" name="图片 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20582,8 +21217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8972550" y="21631275"/>
-          <a:ext cx="152381" cy="219048"/>
+          <a:off x="13477875" y="22259925"/>
+          <a:ext cx="171429" cy="190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20594,23 +21229,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>47605</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>57125</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>76170</xdr:rowOff>
+      <xdr:rowOff>47601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="217" name="图片 216">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D9000000}"/>
+        <xdr:cNvPr id="229" name="图片 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20626,8 +21261,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12858750" y="22040850"/>
-          <a:ext cx="200000" cy="238095"/>
+          <a:off x="14001750" y="21707475"/>
+          <a:ext cx="161905" cy="190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20639,22 +21274,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>142850</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152374</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209531</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>352398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="218" name="图片 217">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DA000000}"/>
+        <xdr:cNvPr id="230" name="图片 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20670,8 +21305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13687425" y="21088350"/>
-          <a:ext cx="200000" cy="209524"/>
+          <a:off x="13430250" y="21631275"/>
+          <a:ext cx="152381" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20680,69 +21315,175 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>223706</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>333299</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>209526</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>133320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="219" name="图片 218">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DB000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14135100" y="22098000"/>
-          <a:ext cx="190476" cy="238095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      <xdr:rowOff>15613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="直接连接符 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13596806" y="20107275"/>
+          <a:ext cx="109593" cy="1758688"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>312117</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>167750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>60499</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>244570</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>6088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>223706</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>342338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直接连接符 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11887200" y="21856438"/>
+          <a:ext cx="1709606" cy="336250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>223706</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>6088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>323517</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>350037</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="直接连接符 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13596806" y="21856438"/>
+          <a:ext cx="1585711" cy="1401224"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327992</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>164575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76374</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>241395</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="220" name="等腰三角形 219">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DC000000}"/>
+        <xdr:cNvPr id="214" name="等腰三角形 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20750,8 +21491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="1074581">
-          <a:off x="12199317" y="20255975"/>
-          <a:ext cx="3463132" cy="2543795"/>
+          <a:off x="1064592" y="26478975"/>
+          <a:ext cx="3431382" cy="2566020"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
@@ -20789,111 +21530,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>200000</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>276198</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215875</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>273023</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="221" name="图片 220">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DD000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15230475" y="23317200"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>104746</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>9498</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="222" name="图片 221">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DE000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13620750" y="19878675"/>
-          <a:ext cx="228571" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>323820</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>190471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="223" name="图片 222">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000DF000000}"/>
+        <xdr:cNvPr id="215" name="图片 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20909,8 +21562,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11601450" y="22164675"/>
-          <a:ext cx="238095" cy="228571"/>
+          <a:off x="4067175" y="29568775"/>
+          <a:ext cx="200000" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20921,23 +21574,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>98401</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28550</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120621</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>6323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="224" name="图片 223">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E0000000}"/>
+        <xdr:cNvPr id="234" name="图片 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20953,8 +21606,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12534900" y="20974050"/>
-          <a:ext cx="193651" cy="200000"/>
+          <a:off x="2473325" y="26098500"/>
+          <a:ext cx="225396" cy="222223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20965,23 +21618,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>76174</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28552</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>339695</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>187296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="225" name="图片 224">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E1000000}"/>
+        <xdr:cNvPr id="235" name="图片 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20997,8 +21650,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13239750" y="22755225"/>
-          <a:ext cx="209524" cy="180952"/>
+          <a:off x="469900" y="28403550"/>
+          <a:ext cx="238095" cy="231746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21007,245 +21660,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>161899</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>142850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="226" name="图片 225">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14439900" y="21440775"/>
-          <a:ext cx="209524" cy="200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>114276</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="227" name="图片 226">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E3000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12925425" y="21364575"/>
-          <a:ext cx="190476" cy="200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>276204</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>247626</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="228" name="图片 227">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13477875" y="22259925"/>
-          <a:ext cx="171429" cy="190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>47605</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>47601</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="229" name="图片 228">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E5000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14001750" y="21707475"/>
-          <a:ext cx="161905" cy="190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>209531</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>352398</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="230" name="图片 229">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E6000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13430250" y="21631275"/>
-          <a:ext cx="152381" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>223706</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>333299</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>15613</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>41537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354069</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="231" name="直接连接符 230">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E7000000}"/>
+        <xdr:cNvPr id="236" name="直接连接符 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21253,8 +21686,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13596806" y="20107275"/>
-          <a:ext cx="109593" cy="1758688"/>
+          <a:off x="2393950" y="26355937"/>
+          <a:ext cx="169919" cy="2612763"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -21279,32 +21712,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>6088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>223706</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>342338</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16582</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>191206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347598</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>7219</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="232" name="直接连接符 231">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="237" name="直接连接符 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000ED000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="2"/>
+          <a:endCxn id="214" idx="5"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11887200" y="21856438"/>
-          <a:ext cx="1709606" cy="336250"/>
+          <a:off x="753182" y="27928006"/>
+          <a:ext cx="2540816" cy="527213"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -21329,32 +21765,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>223706</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>6088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>323517</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>350037</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>188245</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>341112</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>4224</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="233" name="直接连接符 232">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000E9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="238" name="直接连接符 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="214" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13596806" y="21856438"/>
-          <a:ext cx="1585711" cy="1401224"/>
+          <a:off x="1661445" y="27400401"/>
+          <a:ext cx="2362667" cy="2118623"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -21379,39 +21817,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>327992</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>164575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76374</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>241395</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258444</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>36194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="等腰三角形 213">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D6000000}"/>
+        <xdr:cNvPr id="239" name="椭圆 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="1074581">
-          <a:off x="1064592" y="26478975"/>
-          <a:ext cx="3431382" cy="2566020"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31467"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
+        <a:xfrm>
+          <a:off x="2425700" y="28079700"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21440,113 +21875,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321643</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>151874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>70025</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>228694</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="等腰三角形 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="5109543" y="26466274"/>
+          <a:ext cx="3431382" cy="2566020"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215875</xdr:colOff>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209526</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>273023</xdr:rowOff>
+      <xdr:rowOff>260322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="215" name="图片 214">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000D7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4067175" y="29568775"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>120621</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>6323</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="234" name="图片 233">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EA000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2473325" y="26098500"/>
-          <a:ext cx="225396" cy="222223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>311150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>339695</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>187296</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="235" name="图片 234">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EB000000}"/>
+        <xdr:cNvPr id="241" name="图片 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21562,7 +21972,95 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="469900" y="28403550"/>
+          <a:off x="8112126" y="29556074"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114272</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>349222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="242" name="图片 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6518276" y="26085799"/>
+          <a:ext cx="225396" cy="222223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>298449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333346</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>174595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="243" name="图片 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514851" y="28390849"/>
           <a:ext cx="238095" cy="231746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21574,178 +22072,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>41537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>354069</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="236" name="直接连接符 235">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EC000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2393950" y="26355937"/>
-          <a:ext cx="169919" cy="2612763"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16582</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>191206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347598</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>7219</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="237" name="直接连接符 236">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000ED000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="214" idx="2"/>
-          <a:endCxn id="214" idx="5"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="753182" y="27928006"/>
-          <a:ext cx="2540816" cy="527213"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>188245</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>19201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>341112</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>4224</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="238" name="直接连接符 237">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EE000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="214" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1661445" y="27400401"/>
-          <a:ext cx="2362667" cy="2118623"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137794</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>258444</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>36194</xdr:rowOff>
+      <xdr:rowOff>296544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="椭圆 238">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000EF000000}"/>
+        <xdr:cNvPr id="244" name="椭圆 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21753,7 +22096,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425700" y="28079700"/>
+          <a:off x="6356350" y="27984450"/>
           <a:ext cx="42544" cy="48894"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -21789,23 +22132,177 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>321643</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>292910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101480</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="247" name="直接连接符 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6089650" y="28029710"/>
+          <a:ext cx="272930" cy="811990"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>131564</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>254810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="248" name="直接连接符 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="244" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6392664" y="27654250"/>
+          <a:ext cx="820936" cy="337360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101480</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>254810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="直接连接符 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="244" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5670550" y="27444700"/>
+          <a:ext cx="692030" cy="546910"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>327991</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>151874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>70025</xdr:colOff>
+      <xdr:rowOff>158225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76373</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>228694</xdr:rowOff>
+      <xdr:rowOff>235045</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="等腰三角形 239">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F0000000}"/>
+        <xdr:cNvPr id="250" name="等腰三角形 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21813,7 +22310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="1074581">
-          <a:off x="5109543" y="26466274"/>
+          <a:off x="9535491" y="26472625"/>
           <a:ext cx="3431382" cy="2566020"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -21852,111 +22349,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209526</xdr:colOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>215874</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>260322</xdr:rowOff>
+      <xdr:rowOff>266673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="241" name="图片 240">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F1000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8112126" y="29556074"/>
-          <a:ext cx="200000" cy="219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114272</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>349222</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="242" name="图片 241">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6518276" y="26085799"/>
-          <a:ext cx="225396" cy="222223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>298449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>333346</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>174595</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="243" name="图片 242">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F3000000}"/>
+        <xdr:cNvPr id="251" name="图片 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FB000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21972,8 +22381,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4514851" y="28390849"/>
-          <a:ext cx="238095" cy="231746"/>
+          <a:off x="12538074" y="29562425"/>
+          <a:ext cx="200000" cy="219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21982,302 +22391,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>137794</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>296544</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="椭圆 243">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6356350" y="27984450"/>
-          <a:ext cx="42544" cy="48894"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>292910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101480</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="247" name="直接连接符 246">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6089650" y="28029710"/>
-          <a:ext cx="272930" cy="811990"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>131564</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>273050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>254810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="248" name="直接连接符 247">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="244" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6392664" y="27654250"/>
-          <a:ext cx="820936" cy="337360"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101480</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>254810</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="249" name="直接连接符 248">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="244" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5670550" y="27444700"/>
-          <a:ext cx="692030" cy="546910"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>327991</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>158225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>76373</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>235045</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="250" name="等腰三角形 249">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FA000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1074581">
-          <a:off x="9535491" y="26472625"/>
-          <a:ext cx="3431382" cy="2566020"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 31467"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>215874</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>266673</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>263524</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>120620</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>355573</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="251" name="图片 250">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FB000000}"/>
+        <xdr:cNvPr id="252" name="图片 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22286,15 +22418,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12538074" y="29562425"/>
-          <a:ext cx="200000" cy="219048"/>
+          <a:off x="10944224" y="26092150"/>
+          <a:ext cx="225396" cy="222223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22305,23 +22437,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>263524</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>120620</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>355573</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>101599</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>339694</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="252" name="图片 251">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FC000000}"/>
+        <xdr:cNvPr id="253" name="图片 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22330,51 +22462,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10944224" y="26092150"/>
-          <a:ext cx="225396" cy="222223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>101599</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>339694</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>180946</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="253" name="图片 252">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FD000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -23688,6 +23776,1471 @@
                 <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>22226</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>12656</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152377</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="282" name="图片 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EADBD94-E4C5-4888-B24B-2D2273187615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12652376" y="31689675"/>
+          <a:ext cx="361905" cy="180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>250826</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>231732</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>333348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="283" name="图片 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D86CD1-7E23-48C7-82F7-F80F8F2AE336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13252451" y="32537400"/>
+          <a:ext cx="352381" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>350217</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>129650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>98599</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>206470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="284" name="等腰三角形 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD46FB21-30DA-4735-835E-3991F40AF60A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1074581">
+          <a:off x="11494467" y="30790625"/>
+          <a:ext cx="3463132" cy="2543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 31467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238100</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>238098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="285" name="图片 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684053B7-B055-459C-B7A5-8DAD5547D4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14525625" y="33851850"/>
+          <a:ext cx="200000" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>142846</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>326998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="286" name="图片 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC49A481-6B9B-4EB7-95AA-5F6EE2AEF3A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="30413325"/>
+          <a:ext cx="228571" cy="222223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>361920</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>152371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="288" name="图片 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF64B5A-18E2-4489-B2A8-138639765288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="32699325"/>
+          <a:ext cx="238095" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>22226</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>53976</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>320675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="椭圆 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F7213F5-EB25-406F-A999-62BE85ADBED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11166476" y="30651450"/>
+          <a:ext cx="3746500" cy="3854450"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>4818</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>346337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="293" name="直接连接符 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E8037C-C680-4221-AABB-8137EB7FDF86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="292" idx="0"/>
+          <a:endCxn id="284" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13006443" y="30654887"/>
+          <a:ext cx="18043" cy="1898388"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>42994</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>154622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>317200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="直接连接符 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A8E611-FEC6-45B6-9E75-EAA6ED742EAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="284" idx="2"/>
+          <a:endCxn id="292" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11187244" y="32577722"/>
+          <a:ext cx="1814382" cy="162578"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>154622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="297" name="直接连接符 296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC16FAD-BF24-4F63-9209-18A088553D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="292" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13047345" y="32577722"/>
+          <a:ext cx="1430655" cy="1216978"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>365668</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>122256</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="298" name="直接连接符 297">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22428942-1125-4C8E-A5A2-9DADBDB0BC09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12068175" y="31689675"/>
+          <a:ext cx="927643" cy="855681"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>116206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="303" name="直接连接符 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F701D4-04B7-418E-BB86-446F6FCD9877}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12801600" y="32585025"/>
+          <a:ext cx="219710" cy="659131"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>18052</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>139854</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="304" name="直接连接符 303">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1152A8F3-DC78-4926-AFB6-FFBAA018CBFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13058775" y="32232600"/>
+          <a:ext cx="703852" cy="330354"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>179069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="椭圆 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D958A3A-DBB1-4B43-ABA4-2BA98DF5AA0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13001626" y="32553275"/>
+          <a:ext cx="45719" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>57126</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="305" name="图片 304">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E09FA5B-9A82-47DD-909B-765410D64C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="31632525"/>
+          <a:ext cx="190476" cy="238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>85702</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="306" name="图片 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00477DD-8BB2-4B56-99D0-28BE1D0BEAEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12906375" y="33375600"/>
+          <a:ext cx="180952" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>76179</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>266668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="307" name="图片 306">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A62624-E77A-4DCB-8813-2567F0A2B61D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13649325" y="31727775"/>
+          <a:ext cx="171429" cy="257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="308" name="椭圆 307">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3020A129-DEDE-4EAD-B4F8-A26BAF55D6EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="34899599"/>
+          <a:ext cx="2228850" cy="2105026"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23494</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>29844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="309" name="椭圆 308">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951D1B42-4B5F-47FF-B688-A3F751C369CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="35928300"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2222</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>29844</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="311" name="直接连接符 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8DD371-0C80-4022-B980-A7284FB88FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="309" idx="4"/>
+          <a:endCxn id="308" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4086225" y="34899599"/>
+          <a:ext cx="2222" cy="1077595"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23494</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>39369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="椭圆 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A19B8BA-0FA1-45EC-898D-450CECE56307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="34880550"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23494</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>14922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>5397</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="316" name="直接连接符 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DFDAB9-FEA4-413D-9C23-328E2629F957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="309" idx="6"/>
+          <a:endCxn id="312" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4109719" y="34904997"/>
+          <a:ext cx="1071881" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="243400" cy="356316"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="文本框 316">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4A04BE-DF79-498F-822E-0A039AA12F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3867150" y="35252025"/>
+          <a:ext cx="243400" cy="356316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>r</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223519</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>201294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="椭圆 319">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A58DF5D-DEA3-4DF1-8998-31EAB7C6B978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="35747325"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361931</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>228574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="图片 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DB324B-F6BE-49AB-B45F-9BFB95B84A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="35966400"/>
+          <a:ext cx="152381" cy="209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="椭圆 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B8CA8-C3EB-4089-842E-DA2222DEEFB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971799" y="34547174"/>
+          <a:ext cx="2600325" cy="2476501"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="282834" cy="356316"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="文本框 320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C3EE79-34F7-4198-BC40-DE7C245C8154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="35337750"/>
+          <a:ext cx="282834" cy="356316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>r'</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
@@ -24075,8 +25628,8 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG90" sqref="AG90"/>
+    <sheetView tabSelected="1" topLeftCell="C92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X102" sqref="X102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -25241,6 +25241,1157 @@
             <a:t>r'</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="274" name="直接连接符 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD9721E-9FD8-4500-8278-E97461726262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7077075" y="34556700"/>
+          <a:ext cx="723900" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="294" name="直接连接符 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318F0CE5-0FBE-405C-9FE1-A74DB410CBE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7800975" y="34566225"/>
+          <a:ext cx="742950" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="299" name="直接连接符 298">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A5E844-FF79-495B-B4AA-F97798AEBD3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="36633150"/>
+          <a:ext cx="1476375" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>363141</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>5954</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="301" name="直接连接符 300">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D6A2AA-4F45-4B16-8545-778B1B0A83AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7756922" y="34444781"/>
+          <a:ext cx="1464469" cy="1738314"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5954</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>345282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="310" name="直接连接符 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A76393-7C22-4BC0-9450-2BCD6B4AD412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8489156" y="36189047"/>
+          <a:ext cx="744142" cy="1035844"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="314" name="直接连接符 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3844370E-30B6-4165-A123-B02598B1D0AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7041356" y="36189047"/>
+          <a:ext cx="2185988" cy="321469"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217885</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>347663</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="310983" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="文本框 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF87000-DC82-4753-848B-9842A429E35E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7647385" y="34180463"/>
+          <a:ext cx="310983" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="228600" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="文本框 322">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3095C724-AAB4-4E64-AAF6-68476DFC534C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9267825" y="36099750"/>
+          <a:ext cx="228600" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>110728</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304763" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="文本框 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C5A8FC-B07E-447B-909E-613B66ADECAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6797278" y="36452175"/>
+          <a:ext cx="304763" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="321435" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="文本框 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B83E13-CD99-4D8B-A797-22107D40581C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410575" y="37309425"/>
+          <a:ext cx="321435" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>223519</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>239394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="椭圆 325">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D6876D-B063-4A65-B2B5-9A371BB0AC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981950" y="36137850"/>
+          <a:ext cx="42544" cy="48894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>214947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>327421</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="328" name="直接连接符 327">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDA7BA9-64A9-4AB2-A394-CA548A26F295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="326" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7036594" y="36040853"/>
+          <a:ext cx="895350" cy="463709"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>223519</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>214947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="334" name="直接连接符 333">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FF8830-5B23-4D9D-BF21-E7BCCBED1D4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="326" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7974488" y="36040853"/>
+          <a:ext cx="1252856" cy="148194"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>202247</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="348" name="直接连接符 347">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E753195-C4FD-4B98-9EAB-29D1333CCC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="326" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7750969" y="34456687"/>
+          <a:ext cx="202247" cy="1559719"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>217289</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>232234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>365961</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>340894</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="直接连接符 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF0B4C4-5209-419A-90B7-FE7098DC8599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="326" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8007736" y="36026181"/>
+          <a:ext cx="519646" cy="1161424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="330988" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="文本框 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F92346E-C329-48E3-975A-B49FB0AB3154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="35852100"/>
+          <a:ext cx="330988" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>O</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="283924" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="文本框 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B93AA02-55DB-40F1-AEBB-33D01AE0C041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="35623500"/>
+          <a:ext cx="283924" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="299313" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="352" name="文本框 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CEB171-CD36-4E50-B04E-A63D499F7DC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867775" y="36718875"/>
+          <a:ext cx="299313" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>b</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="274691" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="353" name="文本框 352">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5386DDFE-CBEF-4E20-B672-F18D413753C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="36937950"/>
+          <a:ext cx="274691" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>c</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
@@ -25628,8 +26779,8 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X102" sqref="X102"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK104" sqref="AK104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -5576,6 +5576,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接连接符 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9702800" y="2476500"/>
+          <a:ext cx="241300" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>369278</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -6668,6 +6712,1449 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>11410</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4089</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>344369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8482310" y="4281854"/>
+          <a:ext cx="1097579" cy="329715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11411</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4088</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9218911" y="3556000"/>
+          <a:ext cx="360977" cy="1066803"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7015</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>350228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9569450" y="3213100"/>
+          <a:ext cx="13365" cy="1404328"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6282</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>4083</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582082" y="365125"/>
+          <a:ext cx="4417401" cy="701675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4084</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4083</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9579884" y="355600"/>
+          <a:ext cx="368299" cy="2140927"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>664</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>350229</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9576464" y="4146550"/>
+          <a:ext cx="1529686" cy="470879"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>74840</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="383567" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="文本框 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877301" y="3275240"/>
+          <a:ext cx="383567" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390813" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="文本框 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8140700" y="4088493"/>
+          <a:ext cx="390813" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>208191</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="618824" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="文本框 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8679091" y="4908550"/>
+          <a:ext cx="618824" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Origin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(0, 0, 0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>303440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>346982</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9176658" y="4656818"/>
+          <a:ext cx="334282" cy="312964"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7014</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>18737</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9582814" y="3556000"/>
+          <a:ext cx="748323" cy="1054101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4083</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438069" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="文本框 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9948183" y="3241221"/>
+          <a:ext cx="438069" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>4083</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="2495550"/>
+          <a:ext cx="4423683" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>367322</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>346075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接连接符 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14001750" y="1066800"/>
+          <a:ext cx="360972" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>332642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接连接符 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9582150" y="3905250"/>
+          <a:ext cx="120650" cy="694592"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直接连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9575800" y="3492500"/>
+          <a:ext cx="1409700" cy="1141536"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="3213100"/>
+          <a:ext cx="1397000" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10991850" y="3492500"/>
+          <a:ext cx="120650" cy="654050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>336550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9575800" y="3225800"/>
+          <a:ext cx="120650" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9690100" y="3898900"/>
+          <a:ext cx="1416050" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直接连接符 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9569450" y="349250"/>
+          <a:ext cx="12700" cy="2870200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>298450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接连接符 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10985500" y="1073150"/>
+          <a:ext cx="3009900" cy="2425700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接连接符 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11118850" y="3194050"/>
+          <a:ext cx="3244850" cy="946150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1372492" cy="356316"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="文本框 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11353800" y="4279900"/>
+          <a:ext cx="1372492" cy="356316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Near Clip Plane</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190858</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直接连接符 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10744200" y="3943350"/>
+          <a:ext cx="609600" cy="514708"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>207063</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>221505</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1405837" cy="356316"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="文本框 76"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14202463" y="577105"/>
+          <a:ext cx="1405837" cy="356316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Far</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> Clip Plane</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直接连接符 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12172951" y="825500"/>
+          <a:ext cx="2025649" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -26706,7 +28193,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26723,7 +28210,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26736,11 +28223,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26760,9 +28247,9 @@
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26779,13 +28266,13 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK104" sqref="AK104"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="15:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O45" s="2"/>
     </row>
   </sheetData>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -5589,7 +5589,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直接连接符 66"/>
+        <xdr:cNvPr id="67" name="直接连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6738,7 +6744,7 @@
         <xdr:cNvPr id="21" name="直接箭头连接符 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6794,7 +6800,7 @@
         <xdr:cNvPr id="23" name="直接箭头连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6850,7 +6856,7 @@
         <xdr:cNvPr id="25" name="直接连接符 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6901,7 +6907,7 @@
         <xdr:cNvPr id="27" name="直接连接符 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6952,7 +6958,7 @@
         <xdr:cNvPr id="29" name="直接连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7003,7 +7009,7 @@
         <xdr:cNvPr id="31" name="直接连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7049,7 +7055,7 @@
         <xdr:cNvPr id="33" name="文本框 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7120,7 +7126,7 @@
         <xdr:cNvPr id="34" name="文本框 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7191,7 +7197,7 @@
         <xdr:cNvPr id="35" name="文本框 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7261,7 +7267,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7316,7 +7322,7 @@
         <xdr:cNvPr id="37" name="直接箭头连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7364,7 +7370,7 @@
         <xdr:cNvPr id="38" name="文本框 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7450,7 +7456,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7501,7 +7507,7 @@
         <xdr:cNvPr id="41" name="直接连接符 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7552,7 +7558,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7603,7 +7609,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7651,7 +7657,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直接连接符 5"/>
+        <xdr:cNvPr id="6" name="直接连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7696,7 +7708,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接连接符 8"/>
+        <xdr:cNvPr id="9" name="直接连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7741,7 +7759,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接连接符 10"/>
+        <xdr:cNvPr id="11" name="直接连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7786,7 +7810,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直接连接符 12"/>
+        <xdr:cNvPr id="13" name="直接连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7831,7 +7861,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直接连接符 49"/>
+        <xdr:cNvPr id="50" name="直接连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7875,7 +7911,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直接连接符 51"/>
+        <xdr:cNvPr id="52" name="直接连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7919,7 +7961,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直接连接符 54"/>
+        <xdr:cNvPr id="55" name="直接连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7958,7 +8006,13 @@
     <xdr:ext cx="1372492" cy="356316"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="文本框 70"/>
+        <xdr:cNvPr id="71" name="文本框 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8022,7 +8076,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直接连接符 74"/>
+        <xdr:cNvPr id="75" name="直接连接符 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="71" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -8055,21 +8115,27 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>207063</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>221505</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1405837" cy="356316"/>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>368988</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66129</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1405837" cy="400366"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="文本框 76"/>
+        <xdr:cNvPr id="77" name="文本框 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14202463" y="577105"/>
-          <a:ext cx="1405837" cy="356316"/>
+        <a:xfrm rot="21181310">
+          <a:off x="10770288" y="1475829"/>
+          <a:ext cx="1405837" cy="400366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8093,24 +8159,28 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="perspectiveContrastingLeftFacing"/>
+            <a:lightRig rig="threePt" dir="t"/>
+          </a:scene3d>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>Far</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1" baseline="0">
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t> Clip Plane</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
@@ -8119,50 +8189,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直接连接符 78"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12172951" y="825500"/>
-          <a:ext cx="2025649" cy="863600"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10425,7 +10451,7 @@
         <xdr:cNvPr id="121" name="图片 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D39A09E-807A-48AA-8346-8C8438336AA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10469,7 +10495,7 @@
         <xdr:cNvPr id="319" name="图片 318">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C930AF-E393-4C48-8003-85FB078F964B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10513,7 +10539,7 @@
         <xdr:cNvPr id="264" name="图片 263">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1911DAE8-A1FB-46EE-B0D4-AD9CBA3B188F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10557,7 +10583,7 @@
         <xdr:cNvPr id="263" name="图片 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2057B7-7897-4D98-BB67-A1E94753D8A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10601,7 +10627,7 @@
         <xdr:cNvPr id="261" name="图片 260">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B274B2-C868-4B8F-83E7-11C7A677808E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10645,7 +10671,7 @@
         <xdr:cNvPr id="63" name="图片 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF392508-E49C-42F3-86EA-2372B86B4081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10689,7 +10715,7 @@
         <xdr:cNvPr id="50" name="图片 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0B3530-5C37-48E2-A030-8102EADAE8E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10733,7 +10759,7 @@
         <xdr:cNvPr id="255" name="图片 254">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F3A98D-3693-481B-8432-DC669BFBDDD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000FF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10777,7 +10803,7 @@
         <xdr:cNvPr id="246" name="图片 245">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478D9213-3C23-4300-95AD-2CF48594BF1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10821,7 +10847,7 @@
         <xdr:cNvPr id="245" name="图片 244">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA50951-C023-47BB-9572-E452BFDC5B49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000F5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24654,7 +24680,7 @@
         <xdr:cNvPr id="280" name="直接连接符 279">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4B4E25-8D51-4146-8122-D0F8438AF0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24707,7 +24733,7 @@
         <xdr:cNvPr id="257" name="等腰三角形 256">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0563E967-79F0-4CCD-83A6-A73FA2844CF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24765,7 +24791,7 @@
         <xdr:cNvPr id="258" name="文本框 257">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DAC1BD-5EC5-4FEA-A255-39956B1D2AEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24840,7 +24866,7 @@
         <xdr:cNvPr id="260" name="文本框 259">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0831D1A2-CAF2-4661-BB7C-20D59DDF650F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24915,7 +24941,7 @@
         <xdr:cNvPr id="265" name="文本框 264">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6EAAC9-6B51-4668-A26B-902714BC5FC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24995,7 +25021,7 @@
         <xdr:cNvPr id="267" name="椭圆 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EB6E93-6EB6-4F70-AD9C-64FB9BB658A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25055,7 +25081,7 @@
         <xdr:cNvPr id="269" name="直接连接符 268">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B048AC19-E125-4637-A0C2-93065D693F9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25108,7 +25134,7 @@
         <xdr:cNvPr id="270" name="直接连接符 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE260EE-1C85-4D87-8485-7CAAF7B10A17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25161,7 +25187,7 @@
         <xdr:cNvPr id="273" name="直接连接符 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E0F000-43C3-4139-B32A-A8D558E3E9C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25209,7 +25235,7 @@
         <xdr:cNvPr id="279" name="文本框 278">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBCE974-394B-49CD-84A8-9AE1C85A5624}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25289,7 +25315,7 @@
         <xdr:cNvPr id="282" name="图片 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EADBD94-E4C5-4888-B24B-2D2273187615}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25333,7 +25359,7 @@
         <xdr:cNvPr id="283" name="图片 282">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D86CD1-7E23-48C7-82F7-F80F8F2AE336}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25377,7 +25403,7 @@
         <xdr:cNvPr id="284" name="等腰三角形 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD46FB21-30DA-4735-835E-3991F40AF60A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25440,7 +25466,7 @@
         <xdr:cNvPr id="285" name="图片 284">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684053B7-B055-459C-B7A5-8DAD5547D4FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25484,7 +25510,7 @@
         <xdr:cNvPr id="286" name="图片 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC49A481-6B9B-4EB7-95AA-5F6EE2AEF3A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25528,7 +25554,7 @@
         <xdr:cNvPr id="288" name="图片 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF64B5A-18E2-4489-B2A8-138639765288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25572,7 +25598,7 @@
         <xdr:cNvPr id="291" name="椭圆 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F7213F5-EB25-406F-A999-62BE85ADBED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25633,7 +25659,7 @@
         <xdr:cNvPr id="293" name="直接连接符 292">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E8037C-C680-4221-AABB-8137EB7FDF86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25686,7 +25712,7 @@
         <xdr:cNvPr id="295" name="直接连接符 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A8E611-FEC6-45B6-9E75-EAA6ED742EAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25739,7 +25765,7 @@
         <xdr:cNvPr id="297" name="直接连接符 296">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC16FAD-BF24-4F63-9209-18A088553D10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25791,7 +25817,7 @@
         <xdr:cNvPr id="298" name="直接连接符 297">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22428942-1125-4C8E-A5A2-9DADBDB0BC09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25846,7 +25872,7 @@
         <xdr:cNvPr id="303" name="直接连接符 302">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F701D4-04B7-418E-BB86-446F6FCD9877}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25901,7 +25927,7 @@
         <xdr:cNvPr id="304" name="直接连接符 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1152A8F3-DC78-4926-AFB6-FFBAA018CBFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25956,7 +25982,7 @@
         <xdr:cNvPr id="292" name="椭圆 291">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D958A3A-DBB1-4B43-ABA4-2BA98DF5AA0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26016,7 +26042,7 @@
         <xdr:cNvPr id="305" name="图片 304">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E09FA5B-9A82-47DD-909B-765410D64C54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26060,7 +26086,7 @@
         <xdr:cNvPr id="306" name="图片 305">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00477DD-8BB2-4B56-99D0-28BE1D0BEAEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26104,7 +26130,7 @@
         <xdr:cNvPr id="307" name="图片 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A62624-E77A-4DCB-8813-2567F0A2B61D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26148,7 +26174,7 @@
         <xdr:cNvPr id="308" name="椭圆 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3020A129-DEDE-4EAD-B4F8-A26BAF55D6EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26209,7 +26235,7 @@
         <xdr:cNvPr id="309" name="椭圆 308">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951D1B42-4B5F-47FF-B688-A3F751C369CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26269,7 +26295,7 @@
         <xdr:cNvPr id="311" name="直接连接符 310">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8DD371-0C80-4022-B980-A7284FB88FF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000037010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26322,7 +26348,7 @@
         <xdr:cNvPr id="312" name="椭圆 311">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A19B8BA-0FA1-45EC-898D-450CECE56307}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26382,7 +26408,7 @@
         <xdr:cNvPr id="316" name="直接连接符 315">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DFDAB9-FEA4-413D-9C23-328E2629F957}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26435,7 +26461,7 @@
         <xdr:cNvPr id="317" name="文本框 316">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4A04BE-DF79-498F-822E-0A039AA12F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26511,7 +26537,7 @@
         <xdr:cNvPr id="320" name="椭圆 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A58DF5D-DEA3-4DF1-8998-31EAB7C6B978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26579,7 +26605,7 @@
         <xdr:cNvPr id="112" name="图片 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55DB324B-F6BE-49AB-B45F-9BFB95B84A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26623,7 +26649,7 @@
         <xdr:cNvPr id="127" name="椭圆 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5B8CA8-C3EB-4089-842E-DA2222DEEFB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26684,7 +26710,7 @@
         <xdr:cNvPr id="321" name="文本框 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C3EE79-34F7-4198-BC40-DE7C245C8154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000041010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26754,7 +26780,7 @@
         <xdr:cNvPr id="274" name="直接连接符 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD9721E-9FD8-4500-8278-E97461726262}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26804,7 +26830,7 @@
         <xdr:cNvPr id="294" name="直接连接符 293">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318F0CE5-0FBE-405C-9FE1-A74DB410CBE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26854,7 +26880,7 @@
         <xdr:cNvPr id="299" name="直接连接符 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A5E844-FF79-495B-B4AA-F97798AEBD3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26904,7 +26930,7 @@
         <xdr:cNvPr id="301" name="直接连接符 300">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D6A2AA-4F45-4B16-8545-778B1B0A83AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26954,7 +26980,7 @@
         <xdr:cNvPr id="310" name="直接连接符 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05A76393-7C22-4BC0-9450-2BCD6B4AD412}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27004,7 +27030,7 @@
         <xdr:cNvPr id="314" name="直接连接符 313">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3844370E-30B6-4165-A123-B02598B1D0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27052,7 +27078,7 @@
         <xdr:cNvPr id="318" name="文本框 317">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF87000-DC82-4753-848B-9842A429E35E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27123,7 +27149,7 @@
         <xdr:cNvPr id="323" name="文本框 322">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3095C724-AAB4-4E64-AAF6-68476DFC534C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000043010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27194,7 +27220,7 @@
         <xdr:cNvPr id="324" name="文本框 323">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C5A8FC-B07E-447B-909E-613B66ADECAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000044010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27265,7 +27291,7 @@
         <xdr:cNvPr id="325" name="文本框 324">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B83E13-CD99-4D8B-A797-22107D40581C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000045010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27341,7 +27367,7 @@
         <xdr:cNvPr id="326" name="椭圆 325">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D6876D-B063-4A65-B2B5-9A371BB0AC1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000046010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27401,7 +27427,7 @@
         <xdr:cNvPr id="328" name="直接连接符 327">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDA7BA9-64A9-4AB2-A394-CA548A26F295}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27456,7 +27482,7 @@
         <xdr:cNvPr id="334" name="直接连接符 333">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FF8830-5B23-4D9D-BF21-E7BCCBED1D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27511,7 +27537,7 @@
         <xdr:cNvPr id="348" name="直接连接符 347">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E753195-C4FD-4B98-9EAB-29D1333CCC9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27566,7 +27592,7 @@
         <xdr:cNvPr id="149" name="直接连接符 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF0B4C4-5209-419A-90B7-FE7098DC8599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27616,7 +27642,7 @@
         <xdr:cNvPr id="151" name="文本框 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F92346E-C329-48E3-975A-B49FB0AB3154}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27687,7 +27713,7 @@
         <xdr:cNvPr id="156" name="文本框 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B93AA02-55DB-40F1-AEBB-33D01AE0C041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27758,7 +27784,7 @@
         <xdr:cNvPr id="352" name="文本框 351">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CEB171-CD36-4E50-B04E-A63D499F7DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000060010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27829,7 +27855,7 @@
         <xdr:cNvPr id="353" name="文本框 352">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5386DDFE-CBEF-4E20-B672-F18D413753C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000061010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28193,7 +28219,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28206,11 +28232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28223,11 +28249,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO8" sqref="AO8"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28247,9 +28273,9 @@
       <selection activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="1"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -28266,13 +28292,13 @@
   </sheetPr>
   <dimension ref="O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="45" spans="15:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O45" s="2"/>
     </row>
   </sheetData>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -10423,6 +10423,666 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>单位</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1466850" y="4622800"/>
+          <a:ext cx="1473200" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1828800" y="4622800"/>
+          <a:ext cx="1485900" cy="1416050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4413250" y="4622800"/>
+          <a:ext cx="6350" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4787900" y="4622800"/>
+          <a:ext cx="6350" cy="1765300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直接箭头连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1473200" y="7105650"/>
+          <a:ext cx="3314700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1473200" y="7461250"/>
+          <a:ext cx="3314700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="481286" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="文本框 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2698750" y="4356100"/>
+          <a:ext cx="481286" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[4,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> 4]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="567720" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="文本框 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549400" y="6045200"/>
+          <a:ext cx="567720" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[-4,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> -4]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="481286" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="文本框 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4178300" y="4356100"/>
+          <a:ext cx="481286" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> 5]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="524503" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="文本框 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546600" y="6407150"/>
+          <a:ext cx="524503" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> -5]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="481286" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="文本框 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="6965950"/>
+          <a:ext cx="481286" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[9, 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="524503" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="文本框 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="7334250"/>
+          <a:ext cx="524503" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>[-9, 0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -28219,7 +28879,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28236,7 +28896,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28249,11 +28909,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28269,13 +28929,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY16" sqref="AY16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -28296,9 +28956,9 @@
       <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="15:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O45" s="2"/>
     </row>
   </sheetData>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -10446,7 +10446,7 @@
         <xdr:cNvPr id="40" name="直接箭头连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10499,7 +10499,7 @@
         <xdr:cNvPr id="42" name="直接箭头连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10552,7 +10552,7 @@
         <xdr:cNvPr id="44" name="直接箭头连接符 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10605,7 +10605,7 @@
         <xdr:cNvPr id="46" name="直接箭头连接符 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10658,7 +10658,7 @@
         <xdr:cNvPr id="49" name="直接箭头连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10711,7 +10711,7 @@
         <xdr:cNvPr id="52" name="直接箭头连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10756,7 +10756,13 @@
     <xdr:ext cx="481286" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="文本框 47"/>
+        <xdr:cNvPr id="48" name="文本框 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10813,7 +10819,13 @@
     <xdr:ext cx="567720" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="文本框 59"/>
+        <xdr:cNvPr id="60" name="文本框 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10870,7 +10882,13 @@
     <xdr:ext cx="481286" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="文本框 61"/>
+        <xdr:cNvPr id="62" name="文本框 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10927,7 +10945,13 @@
     <xdr:ext cx="524503" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="文本框 62"/>
+        <xdr:cNvPr id="63" name="文本框 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10984,7 +11008,13 @@
     <xdr:ext cx="481286" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="文本框 64"/>
+        <xdr:cNvPr id="65" name="文本框 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11041,7 +11071,13 @@
     <xdr:ext cx="524503" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="文本框 66"/>
+        <xdr:cNvPr id="67" name="文本框 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11083,6 +11119,4486 @@
             <a:t>]</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FF2FE7-E0E3-427F-9C55-016D301386B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="6762750"/>
+          <a:ext cx="190500" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB03866-6221-4E34-9CE6-F728CB73CF42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="5362575"/>
+          <a:ext cx="185738" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5516069A-AFD7-450A-AB49-AE97F82AE43F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7448550" y="5667376"/>
+          <a:ext cx="2219325" cy="1390649"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0BF531-02F9-4E94-981E-42EEC530AD6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7439025" y="7048500"/>
+          <a:ext cx="2219325" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F16D3E-05AD-4948-B734-0734A0668BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9658350" y="5667375"/>
+          <a:ext cx="0" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76015C12-9094-4BDC-9BBA-4C918A17EACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9658350" y="5657850"/>
+          <a:ext cx="361950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接连接符 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A0D511-26A9-41CB-AB27-D3360405B7D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9658350" y="7048500"/>
+          <a:ext cx="361950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直接连接符 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8234346A-B2E8-4CB0-8535-5C083E68691C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="7058025"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直接连接符 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBF0435-081E-4AB4-9228-DCE7A021DE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9658350" y="7048500"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直接连接符 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78146CA3-4CF2-4BCA-B364-13C83250856B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7391400" y="5543550"/>
+          <a:ext cx="2085975" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直接连接符 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47B9838-DDBC-4CA7-94F9-F33CF33D4D31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9839325" y="5734052"/>
+          <a:ext cx="1" cy="1238248"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直接连接符 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDD1F85-1303-4723-BD46-FDC8935504F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7496175" y="7239000"/>
+          <a:ext cx="2095501" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76149</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="图片 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE82CE5C-D14D-4A86-AC2E-499EFD1E6BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="19702003">
+          <a:off x="8201026" y="6067425"/>
+          <a:ext cx="419048" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>199977</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="图片 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124DDA03-8183-4563-8F99-D50DD8BBE132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="7105650"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28527</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="图片 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC4E008-445D-492B-9A1C-7FEDBBA1AFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="6210300"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="矩形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051985B7-930A-4613-B244-596226D4A3AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="5181600"/>
+          <a:ext cx="3467100" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直接箭头连接符 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBAD525-45D8-41A3-B5A2-314ABC4E0827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13001625" y="6000750"/>
+          <a:ext cx="752475" cy="1409701"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直接箭头连接符 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505B3E78-5882-4003-99A2-6D033F71532A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13744575" y="4581525"/>
+          <a:ext cx="1495425" cy="2828927"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直接箭头连接符 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B85653-E320-43FC-8CED-17AF642A953C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14487525" y="6705600"/>
+          <a:ext cx="371475" cy="704852"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直接箭头连接符 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBC80EA-A81B-438D-977F-7E5C7AF37EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15240000" y="6000750"/>
+          <a:ext cx="733425" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161889</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="图片 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6A024A-AEB9-4CAC-A2E7-30E418719952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="7429500"/>
+          <a:ext cx="285714" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142839</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="图片 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6517E79C-31F8-4AF6-B45A-C637C039A106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13601700" y="7429500"/>
+          <a:ext cx="285714" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>104661</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="图片 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E6F4AB-5C3E-415F-B2EC-B38C3E773808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14049375" y="7429500"/>
+          <a:ext cx="914286" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>219027</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="图片 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060F84AE-8479-425D-B150-C171202646BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15068550" y="7429500"/>
+          <a:ext cx="380952" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直接箭头连接符 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE5CED3-2DCC-4027-B0C3-14E4BF2AFB9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="9172576"/>
+          <a:ext cx="733425" cy="1400174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="椭圆 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3EAA16-62D5-4EDE-9DDA-DF710FEA155D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="10220325"/>
+          <a:ext cx="733425" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直接箭头连接符 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90648F1D-09BD-45AC-A0B9-52EEF0FF9236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="10267950"/>
+          <a:ext cx="171450" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直接箭头连接符 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43410449-AD74-4B2F-B731-FF4F0765A348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="10229850"/>
+          <a:ext cx="733425" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直接箭头连接符 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156B7302-8BA8-4D3D-8284-B27C0EA43839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="10429876"/>
+          <a:ext cx="333375" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直接箭头连接符 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAA7AEA-4BF3-449F-88DA-733D96B3C65A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="10572750"/>
+          <a:ext cx="733425" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>264067</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>249202</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直接箭头连接符 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8F8C7E-01DE-4169-8997-EB458031981F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="110" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="10582275"/>
+          <a:ext cx="254542" cy="239677"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直接箭头连接符 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B61B940-998B-4DB4-A257-4FC57F603CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2981325" y="9877425"/>
+          <a:ext cx="361952" cy="695326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>221708</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直接箭头连接符 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5711309A-1340-4917-A5A5-F069DB75139F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3193508" y="10275924"/>
+          <a:ext cx="159292" cy="296826"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直接箭头连接符 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A292BC2A-7B58-4CB2-A451-127E753FDCD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1866900" y="10572750"/>
+          <a:ext cx="1485900" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直接箭头连接符 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEFF2CD-9C7A-4D4A-BFB2-EC8685DA14B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3009900" y="10572750"/>
+          <a:ext cx="342900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直接箭头连接符 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E50015-AAAB-4D11-9EC2-8764296B8302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2609850" y="10572750"/>
+          <a:ext cx="742950" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>116933</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>249202</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="直接箭头连接符 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E61FEC-62F5-4AE9-BF66-9887AB41C394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="110" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3088733" y="10572750"/>
+          <a:ext cx="264067" cy="249202"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直接箭头连接符 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA4030B-322A-4B70-B545-8461A5DFEEEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="10572750"/>
+          <a:ext cx="1847850" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="直接箭头连接符 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9889E6A-81D8-43A7-8019-E58C884EBD8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="10572750"/>
+          <a:ext cx="361951" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="直接箭头连接符 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E6D72C-BBBE-4952-AFF4-7945DA572964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7429500" y="9172575"/>
+          <a:ext cx="1123950" cy="1057278"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="直接箭头连接符 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A0C9EF-9BCF-4DB3-BCA0-B0701730BDB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="10220325"/>
+          <a:ext cx="1857375" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直接箭头连接符 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1006688A-7329-436E-992A-580CD7F45D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8553450" y="9172575"/>
+          <a:ext cx="733425" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="直接箭头连接符 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64215948-8C99-48E6-BF85-86A4918C4AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9667875" y="8820150"/>
+          <a:ext cx="1485900" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="直接箭头连接符 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0AB8E5-C02E-4892-A0BA-155ECE411C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9658350" y="9525000"/>
+          <a:ext cx="1104900" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直接箭头连接符 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1F0109-DCA6-480D-A86D-97DBE4874681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10772775" y="8820150"/>
+          <a:ext cx="381000" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>199965</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="图片 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14522A99-79A4-4EA3-A239-92621DD78FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="9439275"/>
+          <a:ext cx="476190" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>333315</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>199996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="图片 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EA3518-1988-403C-A39C-7BA5777E3BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11001375" y="9486900"/>
+          <a:ext cx="476190" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314301</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="图片 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E45698-0BD7-4129-9474-B9DB326BE480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296275" y="10229850"/>
+          <a:ext cx="190476" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190479</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="图片 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E740FB8-9E39-4312-B05D-DF24FFD6D98F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="9477375"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342876</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="图片 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB576D5-252A-433C-8AA4-AA40D1CB03FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="8953500"/>
+          <a:ext cx="190476" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171429</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>238096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="图片 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB34C687-3450-42E6-A1A5-0A110199CFEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="9877425"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="直接箭头连接符 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A78DD0F-C429-42DE-8C77-D033E846E293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="10934700"/>
+          <a:ext cx="1857375" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>342901</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直接箭头连接符 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D530FEB-965F-46EA-85C2-A21313C2B508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7429500" y="10934700"/>
+          <a:ext cx="742950" cy="1038226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直接箭头连接符 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1C6B32-F7DD-4DD3-8BE4-1D7B7113F1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8172450" y="10925176"/>
+          <a:ext cx="1114426" cy="1057274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>323821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="200" name="图片 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E930D3B-0FEC-465D-8DBA-A3C9F329BE40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="10668000"/>
+          <a:ext cx="476190" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>38076</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="201" name="图片 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37D8365-A5EF-42B2-9458-04EBA72DA0F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="11430000"/>
+          <a:ext cx="190476" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333354</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="202" name="图片 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E43ED91-214B-44EB-A211-8C1FBDE5475E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="11420475"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="203" name="直接箭头连接符 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D036F415-7DE6-46FE-A5A9-1D73186B01CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9658350" y="10944224"/>
+          <a:ext cx="1857375" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="204" name="直接箭头连接符 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5868F9-0083-45B4-9CBC-0843F99C1198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9658350" y="10944224"/>
+          <a:ext cx="742950" cy="1038226"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="205" name="直接箭头连接符 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E780EEA9-4AB9-458D-893D-752434F93F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10401300" y="10934700"/>
+          <a:ext cx="1114426" cy="1057274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>85665</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>323821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="207" name="图片 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17856DD4-F76A-4D77-8E6E-CCFBC43112BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="10668000"/>
+          <a:ext cx="476190" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66654</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="图片 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB65C37-1FBE-43A3-9B3D-F6EC5C11D4B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11039475" y="11449050"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>352401</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="图片 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED20F967-31B3-4799-8C6B-7A2E0D2A69EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="11449050"/>
+          <a:ext cx="190476" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>339725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="210" name="直接箭头连接符 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9A16AB-A571-49B7-AB5C-EA69F28D6881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18578513" y="736600"/>
+          <a:ext cx="0" cy="4889500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直接箭头连接符 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157B3D09-C689-4D44-97DF-8F72BBE3E2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17454563" y="742950"/>
+          <a:ext cx="4465637" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="直接箭头连接符 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA0B4D5-DF7C-4564-978B-05F9A2029994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17081500" y="3876675"/>
+          <a:ext cx="5232400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="文本框 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A80D8-73DC-481D-86A0-CA80A490B8F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18357850" y="352425"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>311150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="文本框 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D51D97-1D3C-478E-A9E3-1CEC7A00ED52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18415000" y="5597525"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="文本框 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AA4F76-A79A-4D76-A4B9-BF3014D17C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16716375" y="3670300"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438069" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="文本框 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74AFB4DB-EF2A-4FD4-B9A7-08DF86645674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17043400" y="4914900"/>
+          <a:ext cx="438069" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379784" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="文本框 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3064A3E1-0FE9-411C-BFAE-266E81F784C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21917025" y="381000"/>
+          <a:ext cx="379784" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Z</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="218" name="直接连接符 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4442E18-2417-4BB8-A717-2048008797EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18583275" y="1762125"/>
+          <a:ext cx="1485900" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="直接连接符 218">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7181298-2849-4386-B5C3-ECD026735F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18592800" y="3152775"/>
+          <a:ext cx="1838325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="直接连接符 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEAE51D-78A6-40C2-8350-297E07131A50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20050125" y="1752600"/>
+          <a:ext cx="1876425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="直接连接符 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB31806-22A5-43F7-83E3-0F5928809415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21917025" y="1762125"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="222" name="直接连接符 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B720B33-D34D-49EA-90B0-9BFCDC443787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20412075" y="2476500"/>
+          <a:ext cx="1495425" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="直接连接符 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCEE0A7-7309-46B5-935F-7807CC1B84D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="20069175" y="1771650"/>
+          <a:ext cx="1" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="224" name="直接连接符 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F189F56-5D6B-4C32-AAD9-9EBCB10A36A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20078700" y="2457450"/>
+          <a:ext cx="1838325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="直接箭头连接符 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED321F6-3BE8-47C1-9C21-D3BD8AFEEF45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18583275" y="1762125"/>
+          <a:ext cx="3333750" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="226" name="直接箭头连接符 225">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB614739-847A-4175-8EDC-4735C7168654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18583275" y="3867150"/>
+          <a:ext cx="1847850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="227" name="直接箭头连接符 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7464D0FD-1A8C-4668-8449-7B278E27F57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20431125" y="3162300"/>
+          <a:ext cx="0" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="228" name="直接箭头连接符 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5967AD5F-DB6F-47E5-8914-5F6C86F4F8FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20431125" y="1762125"/>
+          <a:ext cx="1485900" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1384674" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="文本框 228">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC83116-5500-4A13-A24B-210F00959696}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19116675" y="3962400"/>
+          <a:ext cx="1384674" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>第一步，右移</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>单位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1384674" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="文本框 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FFF0C5-1BA9-4A7B-967B-270F59727CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20421600" y="3286125"/>
+          <a:ext cx="1384674" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>第二步，上移</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>单位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1384674" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="文本框 230">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A07952E-FE5C-4548-AE32-8A22F2EA2D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21116925" y="2562225"/>
+          <a:ext cx="1384674" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>第三步，前移</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>单位</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -28879,7 +33395,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28896,7 +33412,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28913,7 +33429,7 @@
       <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28929,13 +33445,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="1"/>
+    <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -28956,9 +33472,9 @@
       <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="45" spans="15:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O45" s="2"/>
     </row>
   </sheetData>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -15604,6 +15604,766 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="文本框 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22110700" y="3708400"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直接箭头连接符 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9A16AB-A571-49B7-AB5C-EA69F28D6881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13627100" y="8559800"/>
+          <a:ext cx="4763" cy="3517900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直接箭头连接符 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA0B4D5-DF7C-4564-978B-05F9A2029994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12522200" y="10655300"/>
+          <a:ext cx="3683000" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="437749" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="文本框 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1A80D8-73DC-481D-86A0-CA80A490B8F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13414375" y="8172450"/>
+          <a:ext cx="437749" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="379463" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="文本框 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D51D97-1D3C-478E-A9E3-1CEC7A00ED52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13465175" y="12065000"/>
+          <a:ext cx="379463" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="388761" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="文本框 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AA4F76-A79A-4D76-A4B9-BF3014D17C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="10464800"/>
+          <a:ext cx="388761" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>-X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="447045" cy="400366"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="文本框 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16154400" y="10471150"/>
+          <a:ext cx="447045" cy="400366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>+X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直接箭头连接符 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D036F415-7DE6-46FE-A5A9-1D73186B01CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15100300" y="9239250"/>
+          <a:ext cx="736600" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直接箭头连接符 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64215948-8C99-48E6-BF85-86A4918C4AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13633450" y="9245600"/>
+          <a:ext cx="1466850" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直接箭头连接符 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A0C9EF-9BCF-4DB3-BCA0-B0701730BDB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13633450" y="10674350"/>
+          <a:ext cx="2203450" cy="1060450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>126940</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>336521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="图片 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17856DD4-F76A-4D77-8E6E-CCFBC43112BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15494000" y="10064750"/>
+          <a:ext cx="469840" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>57126</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>257146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="图片 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB576D5-252A-433C-8AA4-AA40D1CB03FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14230350" y="9626600"/>
+          <a:ext cx="190476" cy="231746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>3154</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>98396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="图片 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB65C37-1FBE-43A3-9B3D-F6EC5C11D4B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14566900" y="11245850"/>
+          <a:ext cx="168254" cy="231746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -33395,7 +34155,7 @@
       <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33412,7 +34172,7 @@
       <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33429,7 +34189,7 @@
       <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33445,13 +34205,13 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BM12" sqref="BM12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV31" sqref="AV31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -33472,9 +34232,9 @@
       <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="28.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="45" spans="15:15" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="15:15" ht="28.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O45" s="2"/>
     </row>
   </sheetData>

--- a/doc/images/painter.xlsx
+++ b/doc/images/painter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaronwang\workspace\projects\private\Tiny3D\steps\doc\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\MyGame\Tiny3D\steps\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="左右手坐标系" sheetId="1" r:id="rId1"/>
@@ -8196,6 +8196,331 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>358609</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>348629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>34445</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>317774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="平行四边形 253">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8C0D485-A1C4-42C5-92D7-580CAC6E9D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20945152">
+          <a:off x="10388434" y="14093204"/>
+          <a:ext cx="418786" cy="321570"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 18666"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>217344</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>303271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>55413</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="平行四边形 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468C32B4-6400-4EF0-8F37-0B017660BB88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18961482">
+          <a:off x="10247169" y="14047846"/>
+          <a:ext cx="581019" cy="226804"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 99277"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>133326</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="180" name="图片 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65EA82D-7560-4BCA-8732-BE85497D7F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11458575" y="14287500"/>
+          <a:ext cx="190476" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123804</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>219046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="181" name="图片 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95E5B22-79C3-4A0D-8DC6-0D18344E6995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725150" y="13735050"/>
+          <a:ext cx="171429" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>266671</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="图片 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA7323D-2E8D-47BA-89A9-6EC7DF0DB972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10810875" y="14049375"/>
+          <a:ext cx="228571" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="直接箭头连接符 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D09F56-B425-472B-834B-B2875C44EC91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4838700" y="14106525"/>
+          <a:ext cx="3343275" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -11142,7 +11467,7 @@
         <xdr:cNvPr id="6" name="直接连接符 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FF2FE7-E0E3-427F-9C55-016D301386B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11192,7 +11517,7 @@
         <xdr:cNvPr id="9" name="直接连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB03866-6221-4E34-9CE6-F728CB73CF42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11242,7 +11567,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5516069A-AFD7-450A-AB49-AE97F82AE43F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11295,7 +11620,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0BF531-02F9-4E94-981E-42EEC530AD6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11345,7 +11670,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F16D3E-05AD-4948-B734-0734A0668BF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11395,7 +11720,7 @@
         <xdr:cNvPr id="51" name="直接连接符 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76015C12-9094-4BDC-9BBA-4C918A17EACB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11445,7 +11770,7 @@
         <xdr:cNvPr id="72" name="直接连接符 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A0D511-26A9-41CB-AB27-D3360405B7D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11495,7 +11820,7 @@
         <xdr:cNvPr id="73" name="直接连接符 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8234346A-B2E8-4CB0-8535-5C083E68691C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11545,7 +11870,7 @@
         <xdr:cNvPr id="77" name="直接连接符 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBF0435-081E-4AB4-9228-DCE7A021DE1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11595,7 +11920,7 @@
         <xdr:cNvPr id="79" name="直接连接符 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78146CA3-4CF2-4BCA-B364-13C83250856B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11645,7 +11970,7 @@
         <xdr:cNvPr id="81" name="直接连接符 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47B9838-DDBC-4CA7-94F9-F33CF33D4D31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11695,7 +12020,7 @@
         <xdr:cNvPr id="85" name="直接连接符 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDD1F85-1303-4723-BD46-FDC8935504F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11745,7 +12070,1799 @@
         <xdr:cNvPr id="89" name="图片 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE82CE5C-D14D-4A86-AC2E-499EFD1E6BFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="19702003">
+          <a:off x="8201026" y="6067425"/>
+          <a:ext cx="419048" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>199977</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="图片 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="7105650"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28527</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="图片 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="6210300"/>
+          <a:ext cx="380952" cy="285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="矩形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="5181600"/>
+          <a:ext cx="3467100" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直接箭头连接符 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13001625" y="6000750"/>
+          <a:ext cx="752475" cy="1409701"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直接箭头连接符 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13744575" y="4581525"/>
+          <a:ext cx="1495425" cy="2828927"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直接箭头连接符 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14487525" y="6705600"/>
+          <a:ext cx="371475" cy="704852"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直接箭头连接符 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15240000" y="6000750"/>
+          <a:ext cx="733425" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>161889</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="图片 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="7429500"/>
+          <a:ext cx="285714" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>142839</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="图片 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13601700" y="7429500"/>
+          <a:ext cx="285714" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>104661</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="图片 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14049375" y="7429500"/>
+          <a:ext cx="914286" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>219027</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>257146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="图片 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15068550" y="7429500"/>
+          <a:ext cx="380952" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直接箭头连接符 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="9172576"/>
+          <a:ext cx="733425" cy="1400174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="椭圆 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="10220325"/>
+          <a:ext cx="733425" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直接箭头连接符 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="10267950"/>
+          <a:ext cx="171450" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直接箭头连接符 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="10229850"/>
+          <a:ext cx="733425" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直接箭头连接符 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3352800" y="10429876"/>
+          <a:ext cx="333375" cy="142874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直接箭头连接符 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="10572750"/>
+          <a:ext cx="733425" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>264067</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>249202</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直接箭头连接符 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="110" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="10582275"/>
+          <a:ext cx="254542" cy="239677"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直接箭头连接符 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2981325" y="9877425"/>
+          <a:ext cx="361952" cy="695326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>221708</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直接箭头连接符 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3193508" y="10275924"/>
+          <a:ext cx="159292" cy="296826"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直接箭头连接符 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1866900" y="10572750"/>
+          <a:ext cx="1485900" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直接箭头连接符 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3009900" y="10572750"/>
+          <a:ext cx="342900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直接箭头连接符 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2609850" y="10572750"/>
+          <a:ext cx="742950" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>116933</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>249202</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="直接箭头连接符 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="110" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3088733" y="10572750"/>
+          <a:ext cx="264067" cy="249202"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直接箭头连接符 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="10572750"/>
+          <a:ext cx="1847850" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="直接箭头连接符 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="10572750"/>
+          <a:ext cx="361951" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9528</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="直接箭头连接符 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7429500" y="9172575"/>
+          <a:ext cx="1123950" cy="1057278"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="163" name="直接箭头连接符 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="10220325"/>
+          <a:ext cx="1857375" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直接箭头连接符 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8553450" y="9172575"/>
+          <a:ext cx="733425" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="直接箭头连接符 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9667875" y="8820150"/>
+          <a:ext cx="1485900" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="172" name="直接箭头连接符 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000AC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9658350" y="9525000"/>
+          <a:ext cx="1104900" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="直接箭头连接符 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10772775" y="8820150"/>
+          <a:ext cx="381000" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>199965</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="182" name="图片 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="9439275"/>
+          <a:ext cx="476190" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>333315</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>199996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="183" name="图片 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11001375" y="9486900"/>
+          <a:ext cx="476190" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314301</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="184" name="图片 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11760,9 +13877,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="19702003">
-          <a:off x="8201026" y="6067425"/>
-          <a:ext cx="419048" cy="285714"/>
+        <a:xfrm>
+          <a:off x="8296275" y="10229850"/>
+          <a:ext cx="190476" cy="228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11773,23 +13890,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>199977</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>342864</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190479</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190471</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="图片 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124DDA03-8183-4563-8F99-D50DD8BBE132}"/>
+        <xdr:cNvPr id="188" name="图片 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11805,8 +13922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="7105650"/>
-          <a:ext cx="380952" cy="285714"/>
+          <a:off x="8934450" y="9477375"/>
+          <a:ext cx="171429" cy="228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11817,23 +13934,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>28527</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152364</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342876</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="图片 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC4E008-445D-492B-9A1C-7FEDBBA1AFB9}"/>
+        <xdr:cNvPr id="189" name="图片 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11842,15 +13959,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9677400" y="6210300"/>
-          <a:ext cx="380952" cy="285714"/>
+          <a:off x="10182225" y="8953500"/>
+          <a:ext cx="190476" cy="228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11859,296 +13976,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="矩形 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051985B7-930A-4613-B244-596226D4A3AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6858000" y="5181600"/>
-          <a:ext cx="3467100" cy="2419350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="直接箭头连接符 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBAD525-45D8-41A3-B5A2-314ABC4E0827}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13001625" y="6000750"/>
-          <a:ext cx="752475" cy="1409701"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直接箭头连接符 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505B3E78-5882-4003-99A2-6D033F71532A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13744575" y="4581525"/>
-          <a:ext cx="1495425" cy="2828927"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="99" name="直接箭头连接符 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B85653-E320-43FC-8CED-17AF642A953C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14487525" y="6705600"/>
-          <a:ext cx="371475" cy="704852"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="直接箭头连接符 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBC80EA-A81B-438D-977F-7E5C7AF37EB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="15240000" y="6000750"/>
-          <a:ext cx="733425" cy="1400175"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>161889</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>257146</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171429</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>238096</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="图片 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6A024A-AEB9-4CAC-A2E7-30E418719952}"/>
+        <xdr:cNvPr id="190" name="图片 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12157,1534 +14003,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12877800" y="7429500"/>
-          <a:ext cx="285714" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>142839</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>257146</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="图片 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6517E79C-31F8-4AF6-B45A-C637C039A106}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13601700" y="7429500"/>
-          <a:ext cx="285714" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>104661</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>257146</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="图片 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E6F4AB-5C3E-415F-B2EC-B38C3E773808}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14049375" y="7429500"/>
-          <a:ext cx="914286" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>219027</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>257146</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="图片 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060F84AE-8479-425D-B150-C171202646BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15068550" y="7429500"/>
-          <a:ext cx="380952" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="直接箭头连接符 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE5CED3-2DCC-4027-B0C3-14E4BF2AFB9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3352800" y="9172576"/>
-          <a:ext cx="733425" cy="1400174"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="椭圆 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3EAA16-62D5-4EDE-9DDA-DF710FEA155D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2981325" y="10220325"/>
-          <a:ext cx="733425" cy="704850"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直接箭头连接符 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90648F1D-09BD-45AC-A0B9-52EEF0FF9236}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3352800" y="10267950"/>
-          <a:ext cx="171450" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直接箭头连接符 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43410449-AD74-4B2F-B731-FF4F0765A348}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3352800" y="10229850"/>
-          <a:ext cx="733425" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="直接箭头连接符 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156B7302-8BA8-4D3D-8284-B27C0EA43839}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3352800" y="10429876"/>
-          <a:ext cx="333375" cy="142874"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="直接箭头连接符 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAA7AEA-4BF3-449F-88DA-733D96B3C65A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="10572750"/>
-          <a:ext cx="733425" cy="704850"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>264067</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>249202</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="直接箭头连接符 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8F8C7E-01DE-4169-8997-EB458031981F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="110" idx="5"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="10582275"/>
-          <a:ext cx="254542" cy="239677"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="直接箭头连接符 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B61B940-998B-4DB4-A257-4FC57F603CD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2981325" y="9877425"/>
-          <a:ext cx="361952" cy="695326"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>221708</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>55599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="直接箭头连接符 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5711309A-1340-4917-A5A5-F069DB75139F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3193508" y="10275924"/>
-          <a:ext cx="159292" cy="296826"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="直接箭头连接符 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A292BC2A-7B58-4CB2-A451-127E753FDCD0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1866900" y="10572750"/>
-          <a:ext cx="1485900" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="直接箭头连接符 142">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DEFF2CD-9C7A-4D4A-BFB2-EC8685DA14B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3009900" y="10572750"/>
-          <a:ext cx="342900" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直接箭头连接符 145">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E50015-AAAB-4D11-9EC2-8764296B8302}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2609850" y="10572750"/>
-          <a:ext cx="742950" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>116933</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>249202</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="直接箭头连接符 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E61FEC-62F5-4AE9-BF66-9887AB41C394}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="110" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3088733" y="10572750"/>
-          <a:ext cx="264067" cy="249202"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="直接箭头连接符 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA4030B-322A-4B70-B545-8461A5DFEEEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="10572750"/>
-          <a:ext cx="1847850" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="直接箭头连接符 155">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9889E6A-81D8-43A7-8019-E58C884EBD8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3352800" y="10572750"/>
-          <a:ext cx="361951" cy="76200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9528</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="160" name="直接箭头连接符 159">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E6D72C-BBBE-4952-AFF4-7945DA572964}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7429500" y="9172575"/>
-          <a:ext cx="1123950" cy="1057278"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="163" name="直接箭头连接符 162">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A0C9EF-9BCF-4DB3-BCA0-B0701730BDB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="10220325"/>
-          <a:ext cx="1857375" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="直接箭头连接符 164">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1006688A-7329-436E-992A-580CD7F45D03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8553450" y="9172575"/>
-          <a:ext cx="733425" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="169" name="直接箭头连接符 168">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64215948-8C99-48E6-BF85-86A4918C4AEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9667875" y="8820150"/>
-          <a:ext cx="1485900" cy="704850"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="172" name="直接箭头连接符 171">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0AB8E5-C02E-4892-A0BA-155ECE411C22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9658350" y="9525000"/>
-          <a:ext cx="1104900" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="176" name="直接箭头连接符 175">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1F0109-DCA6-480D-A86D-97DBE4874681}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10772775" y="8820150"/>
-          <a:ext cx="381000" cy="1409700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>199965</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="182" name="图片 181">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14522A99-79A4-4EA3-A239-92621DD78FC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7524750" y="9439275"/>
-          <a:ext cx="476190" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>333315</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>199996</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="183" name="图片 182">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EA3518-1988-403C-A39C-7BA5777E3BE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11001375" y="9486900"/>
-          <a:ext cx="476190" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>314301</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>238096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="184" name="图片 183">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E45698-0BD7-4129-9474-B9DB326BE480}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8296275" y="10229850"/>
-          <a:ext cx="190476" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190479</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190471</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="188" name="图片 187">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E740FB8-9E39-4312-B05D-DF24FFD6D98F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8934450" y="9477375"/>
-          <a:ext cx="171429" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>342876</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19021</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="189" name="图片 188">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB576D5-252A-433C-8AA4-AA40D1CB03FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10182225" y="8953500"/>
-          <a:ext cx="190476" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>171429</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>238096</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="190" name="图片 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB34C687-3450-42E6-A1A5-0A110199CFEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="10029825" y="9877425"/>
           <a:ext cx="171429" cy="228571"/>
         </a:xfrm>
@@ -13713,7 +14038,7 @@
         <xdr:cNvPr id="191" name="直接箭头连接符 190">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A78DD0F-C429-42DE-8C77-D033E846E293}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13766,7 +14091,7 @@
         <xdr:cNvPr id="192" name="直接箭头连接符 191">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D530FEB-965F-46EA-85C2-A21313C2B508}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13819,7 +14144,7 @@
         <xdr:cNvPr id="196" name="直接箭头连接符 195">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1C6B32-F7DD-4DD3-8BE4-1D7B7113F1B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13872,298 +14197,7 @@
         <xdr:cNvPr id="200" name="图片 199">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E930D3B-0FEC-465D-8DBA-A3C9F329BE40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8181975" y="10668000"/>
-          <a:ext cx="476190" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>38076</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28546</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="201" name="图片 200">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37D8365-A5EF-42B2-9458-04EBA72DA0F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8763000" y="11430000"/>
-          <a:ext cx="190476" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333354</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19021</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="202" name="图片 201">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E43ED91-214B-44EB-A211-8C1FBDE5475E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7591425" y="11420475"/>
-          <a:ext cx="171429" cy="228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="203" name="直接箭头连接符 202">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D036F415-7DE6-46FE-A5A9-1D73186B01CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9658350" y="10944224"/>
-          <a:ext cx="1857375" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="204" name="直接箭头连接符 203">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5868F9-0083-45B4-9CBC-0843F99C1198}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9658350" y="10944224"/>
-          <a:ext cx="742950" cy="1038226"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="205" name="直接箭头连接符 204">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E780EEA9-4AB9-458D-893D-752434F93F27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10401300" y="10934700"/>
-          <a:ext cx="1114426" cy="1057274"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>85665</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>323821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="207" name="图片 206">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17856DD4-F76A-4D77-8E6E-CCFBC43112BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14179,7 +14213,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10382250" y="10668000"/>
+          <a:off x="8181975" y="10668000"/>
           <a:ext cx="476190" cy="228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14191,23 +14225,23 @@
   </xdr:twoC